--- a/Acceptance Tests/Dispatcher.xlsx
+++ b/Acceptance Tests/Dispatcher.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="118">
   <si>
     <t xml:space="preserve">Use Case: </t>
   </si>
@@ -346,9 +346,6 @@
     <t>Beer - Sheva</t>
   </si>
   <si>
-    <t>Data Table: Doctors in branches</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -380,6 +377,30 @@
   </si>
   <si>
     <t>11.11.15</t>
+  </si>
+  <si>
+    <t>Data Table: Available Appointments</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Data Table:  Appointments to client</t>
+  </si>
+  <si>
+    <t>Client ID</t>
+  </si>
+  <si>
+    <t>Data Table:  Users</t>
+  </si>
+  <si>
+    <t>Privilege</t>
+  </si>
+  <si>
+    <t>User's ID</t>
+  </si>
+  <si>
+    <t>Password</t>
   </si>
 </sst>
 </file>
@@ -699,7 +720,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -796,12 +817,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -852,6 +867,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1162,15 +1188,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D51"/>
+  <dimension ref="A2:D92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D7:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
@@ -1178,445 +1204,721 @@
   <sheetData>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
-        <v>7</v>
+        <v>116</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>8</v>
+        <v>117</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>30</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="D3" s="42"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="17">
-        <v>302632195</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>35</v>
-      </c>
+      <c r="A4" s="17"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="57"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>36</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="57"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>37</v>
-      </c>
+      <c r="A6" s="3"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="57"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>79</v>
-      </c>
+      <c r="A7" s="3"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="57"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="17">
-        <v>1</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>84</v>
-      </c>
+      <c r="A11" s="3"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>2</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>86</v>
-      </c>
+      <c r="A12" s="3"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>3</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>4</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="42"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
     </row>
     <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="17">
+        <v>302632195</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>200940997</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>312143969</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>305003659</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="17">
+        <v>1</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>2</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>3</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>4</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="38"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="40"/>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="48" t="s">
+    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="44"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
+      <c r="B31" s="45"/>
+      <c r="C31" s="42"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="45"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+      <c r="B32" s="39"/>
+      <c r="C32" s="43"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="B19" s="41"/>
-      <c r="C19" s="45"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
+      <c r="B33" s="39"/>
+      <c r="C33" s="43"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="45"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
+      <c r="B34" s="39"/>
+      <c r="C34" s="43"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="45"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
+      <c r="B35" s="39"/>
+      <c r="C35" s="43"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="B22" s="41"/>
-      <c r="C22" s="45"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
+      <c r="B36" s="39"/>
+      <c r="C36" s="43"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="B23" s="41"/>
-      <c r="C23" s="45"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
+      <c r="B37" s="39"/>
+      <c r="C37" s="43"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="B24" s="41"/>
-      <c r="C24" s="45"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
+      <c r="B38" s="39"/>
+      <c r="C38" s="43"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="B25" s="41"/>
-      <c r="C25" s="45"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="42"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="45"/>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="46" t="s">
-        <v>94</v>
-      </c>
-      <c r="B28" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="C28" s="44"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="17">
-        <v>11</v>
-      </c>
-      <c r="B29" s="54" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="45"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>22</v>
-      </c>
-      <c r="B30" s="52" t="s">
-        <v>96</v>
-      </c>
-      <c r="C30" s="45"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
-        <v>33</v>
-      </c>
-      <c r="B31" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="C31" s="45"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
-        <v>44</v>
-      </c>
-      <c r="B32" s="53" t="s">
-        <v>98</v>
-      </c>
-      <c r="C32" s="45"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="42"/>
-    </row>
-    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="46" t="s">
-        <v>77</v>
-      </c>
-      <c r="B35" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="C35" s="44"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="17">
-        <v>1</v>
-      </c>
-      <c r="B36" s="54">
-        <v>11</v>
-      </c>
-      <c r="C36" s="45"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
-        <v>2</v>
-      </c>
-      <c r="B37" s="52">
-        <v>22</v>
-      </c>
-      <c r="C37" s="45"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
-        <v>3</v>
-      </c>
-      <c r="B38" s="53">
-        <v>33</v>
-      </c>
-      <c r="C38" s="45"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
-        <v>4</v>
-      </c>
-      <c r="B39" s="53">
-        <v>44</v>
-      </c>
-      <c r="C39" s="45"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="43"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="40"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="43"/>
     </row>
     <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="B42" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="C42" s="31" t="s">
-        <v>100</v>
-      </c>
+      <c r="A42" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="B42" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" s="42"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="17">
+        <v>11</v>
+      </c>
+      <c r="B43" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" s="43"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>22</v>
+      </c>
+      <c r="B44" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" s="43"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>33</v>
+      </c>
+      <c r="B45" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" s="43"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>44</v>
+      </c>
+      <c r="B46" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46" s="43"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="38"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="40"/>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C50" s="31" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="17">
         <v>302632195</v>
       </c>
-      <c r="B43" s="18">
+      <c r="B51" s="18">
         <v>1</v>
       </c>
-      <c r="C43" s="19" t="s">
+      <c r="C51" s="19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="17">
+        <v>302632195</v>
+      </c>
+      <c r="B52" s="13">
+        <v>1</v>
+      </c>
+      <c r="C52" s="15" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="17">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="17">
         <v>302632195</v>
       </c>
-      <c r="B44" s="13">
+      <c r="B53" s="14">
+        <v>2</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B54" s="14">
         <v>1</v>
       </c>
-      <c r="C44" s="15" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="17">
-        <v>302632195</v>
-      </c>
-      <c r="B45" s="14">
+      <c r="C54" s="15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B55" s="14">
         <v>2</v>
       </c>
-      <c r="C45" s="15" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+      <c r="C55" s="15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B46" s="14">
+      <c r="B56" s="14">
+        <v>4</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B57" s="14">
+        <v>2</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B58" s="14">
+        <v>3</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B59" s="14">
+        <v>4</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B62" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="C62" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="D62" s="31" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="17"/>
+      <c r="B63" s="18">
         <v>1</v>
       </c>
-      <c r="C46" s="15" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47" s="14">
+      <c r="C63" s="19"/>
+      <c r="D63" s="56"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="17"/>
+      <c r="B64" s="13">
+        <v>1</v>
+      </c>
+      <c r="C64" s="15"/>
+      <c r="D64" s="55"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="17"/>
+      <c r="B65" s="14">
         <v>2</v>
       </c>
-      <c r="C47" s="15" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48" s="14">
+      <c r="C65" s="15"/>
+      <c r="D65" s="55"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="3"/>
+      <c r="B66" s="14">
+        <v>1</v>
+      </c>
+      <c r="C66" s="15"/>
+      <c r="D66" s="55"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="3"/>
+      <c r="B67" s="14">
+        <v>2</v>
+      </c>
+      <c r="C67" s="15"/>
+      <c r="D67" s="55"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="3"/>
+      <c r="B68" s="14">
         <v>4</v>
       </c>
-      <c r="C48" s="15" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B49" s="14">
+      <c r="C68" s="15"/>
+      <c r="D68" s="55"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="3"/>
+      <c r="B69" s="14">
         <v>2</v>
       </c>
-      <c r="C49" s="15" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B50" s="14">
+      <c r="C69" s="15"/>
+      <c r="D69" s="55"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="3"/>
+      <c r="B70" s="14">
         <v>3</v>
       </c>
-      <c r="C50" s="15" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B51" s="14">
+      <c r="C70" s="15"/>
+      <c r="D70" s="55"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="3"/>
+      <c r="B71" s="14">
         <v>4</v>
       </c>
-      <c r="C51" s="15" t="s">
-        <v>110</v>
-      </c>
+      <c r="C71" s="15"/>
+      <c r="D71" s="55"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="17"/>
+      <c r="B72" s="18">
+        <v>1</v>
+      </c>
+      <c r="C72" s="19"/>
+      <c r="D72" s="56"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="17"/>
+      <c r="B73" s="13">
+        <v>1</v>
+      </c>
+      <c r="C73" s="15"/>
+      <c r="D73" s="55"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="17"/>
+      <c r="B74" s="14">
+        <v>2</v>
+      </c>
+      <c r="C74" s="15"/>
+      <c r="D74" s="55"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="3"/>
+      <c r="B75" s="14">
+        <v>1</v>
+      </c>
+      <c r="C75" s="15"/>
+      <c r="D75" s="55"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="3"/>
+      <c r="B76" s="14">
+        <v>2</v>
+      </c>
+      <c r="C76" s="15"/>
+      <c r="D76" s="55"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="3"/>
+      <c r="B77" s="14">
+        <v>4</v>
+      </c>
+      <c r="C77" s="15"/>
+      <c r="D77" s="55"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="3"/>
+      <c r="B78" s="14">
+        <v>2</v>
+      </c>
+      <c r="C78" s="15"/>
+      <c r="D78" s="55"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="3"/>
+      <c r="B79" s="14">
+        <v>3</v>
+      </c>
+      <c r="C79" s="15"/>
+      <c r="D79" s="55"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="3"/>
+      <c r="B80" s="14">
+        <v>4</v>
+      </c>
+      <c r="C80" s="15"/>
+      <c r="D80" s="55"/>
+    </row>
+    <row r="82" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="B83" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="C83" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="D83" s="31" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="17"/>
+      <c r="B84" s="18">
+        <v>1</v>
+      </c>
+      <c r="C84" s="19"/>
+      <c r="D84" s="56"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="17"/>
+      <c r="B85" s="13">
+        <v>1</v>
+      </c>
+      <c r="C85" s="15"/>
+      <c r="D85" s="55"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="17"/>
+      <c r="B86" s="14">
+        <v>2</v>
+      </c>
+      <c r="C86" s="15"/>
+      <c r="D86" s="55"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="3"/>
+      <c r="B87" s="14">
+        <v>1</v>
+      </c>
+      <c r="C87" s="15"/>
+      <c r="D87" s="55"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="3"/>
+      <c r="B88" s="14">
+        <v>2</v>
+      </c>
+      <c r="C88" s="15"/>
+      <c r="D88" s="55"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="3"/>
+      <c r="B89" s="14">
+        <v>4</v>
+      </c>
+      <c r="C89" s="15"/>
+      <c r="D89" s="55"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="3"/>
+      <c r="B90" s="14">
+        <v>2</v>
+      </c>
+      <c r="C90" s="15"/>
+      <c r="D90" s="55"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="3"/>
+      <c r="B91" s="14">
+        <v>3</v>
+      </c>
+      <c r="C91" s="15"/>
+      <c r="D91" s="55"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="3"/>
+      <c r="B92" s="14">
+        <v>4</v>
+      </c>
+      <c r="C92" s="15"/>
+      <c r="D92" s="55"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1"/>
-    <hyperlink ref="D5" r:id="rId2"/>
-    <hyperlink ref="D6" r:id="rId3"/>
-    <hyperlink ref="D7" r:id="rId4"/>
+    <hyperlink ref="D18" r:id="rId1"/>
+    <hyperlink ref="D19" r:id="rId2"/>
+    <hyperlink ref="D20" r:id="rId3"/>
+    <hyperlink ref="D21" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -1624,8 +1926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1637,10 +1939,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="37"/>
+      <c r="B1" s="54"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
@@ -1760,16 +2062,16 @@
       <c r="C14" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="38" t="s">
+      <c r="D14" s="36" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="37"/>
+      <c r="B17" s="54"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="27" t="s">
@@ -1869,7 +2171,7 @@
       <c r="A28" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="39" t="s">
+      <c r="B28" s="37" t="s">
         <v>68</v>
       </c>
       <c r="C28" s="6" t="s">
@@ -1883,7 +2185,7 @@
       <c r="A29" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="39" t="s">
+      <c r="B29" s="37" t="s">
         <v>70</v>
       </c>
       <c r="C29" s="6" t="s">
@@ -1897,7 +2199,7 @@
       <c r="A30" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="39" t="s">
+      <c r="B30" s="37" t="s">
         <v>60</v>
       </c>
       <c r="C30" s="9" t="s">
@@ -1909,10 +2211,10 @@
     </row>
     <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="36" t="s">
+      <c r="A33" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="B33" s="37"/>
+      <c r="B33" s="54"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="27" t="s">
@@ -1945,10 +2247,10 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="40"/>
-      <c r="B39" s="41"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="43"/>
+      <c r="A39" s="38"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="41"/>
     </row>
     <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="32" t="s">
@@ -1957,7 +2259,7 @@
       <c r="B40" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C40" s="51" t="s">
+      <c r="C40" s="49" t="s">
         <v>16</v>
       </c>
       <c r="D40" s="35" t="s">
@@ -1967,8 +2269,8 @@
     <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
       <c r="B41" s="5"/>
-      <c r="C41" s="49"/>
-      <c r="D41" s="50"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="48"/>
     </row>
     <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
@@ -1984,13 +2286,13 @@
     </row>
     <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="12"/>
-      <c r="B44" s="39"/>
+      <c r="B44" s="37"/>
       <c r="C44" s="6"/>
       <c r="D44" s="11"/>
     </row>
     <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="12"/>
-      <c r="B45" s="39"/>
+      <c r="B45" s="37"/>
       <c r="C45" s="6"/>
       <c r="D45" s="11"/>
     </row>
@@ -1998,7 +2300,7 @@
       <c r="A46" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B46" s="39" t="s">
+      <c r="B46" s="37" t="s">
         <v>60</v>
       </c>
       <c r="C46" s="9" t="s">

--- a/Acceptance Tests/Dispatcher.xlsx
+++ b/Acceptance Tests/Dispatcher.xlsx
@@ -1191,14 +1191,14 @@
   <dimension ref="A2:D92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D7:D8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
     <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/Acceptance Tests/Dispatcher.xlsx
+++ b/Acceptance Tests/Dispatcher.xlsx
@@ -1,18 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26905"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asaf/Desktop/GHealth-System/Acceptance Tests/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="12640"/>
   </bookViews>
   <sheets>
     <sheet name="DataBase" sheetId="2" r:id="rId1"/>
     <sheet name="Dispatcher" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="119">
   <si>
     <t xml:space="preserve">Use Case: </t>
   </si>
@@ -402,11 +413,14 @@
   <si>
     <t>Password</t>
   </si>
+  <si>
+    <t>try</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -498,100 +512,100 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -600,116 +614,116 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -868,21 +882,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="היפר-קישור" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1188,26 +1202,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D92"/>
+  <dimension ref="A2:E92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D7:D8"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>116</v>
       </c>
@@ -1219,66 +1233,69 @@
       </c>
       <c r="D3" s="42"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="17"/>
       <c r="B4" s="18"/>
       <c r="C4" s="19"/>
-      <c r="D4" s="57"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4" s="55"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="13"/>
       <c r="C5" s="15"/>
-      <c r="D5" s="57"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" s="55"/>
+      <c r="E5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="14"/>
       <c r="C6" s="15"/>
-      <c r="D6" s="57"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="55"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="14"/>
       <c r="C7" s="15"/>
-      <c r="D7" s="57"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" s="55"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="14"/>
       <c r="C8" s="15"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="14"/>
       <c r="C9" s="15"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="14"/>
       <c r="C10" s="15"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="14"/>
       <c r="C11" s="15"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="14"/>
       <c r="C12" s="15"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="14"/>
       <c r="C13" s="15"/>
     </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>7</v>
       </c>
@@ -1292,7 +1309,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="17">
         <v>302632195</v>
       </c>
@@ -1306,7 +1323,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>200940997</v>
       </c>
@@ -1320,7 +1337,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>312143969</v>
       </c>
@@ -1334,7 +1351,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>305003659</v>
       </c>
@@ -1348,12 +1365,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>77</v>
       </c>
@@ -1364,7 +1381,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="17">
         <v>1</v>
       </c>
@@ -1375,7 +1392,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>2</v>
       </c>
@@ -1386,7 +1403,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>3</v>
       </c>
@@ -1397,7 +1414,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>4</v>
       </c>
@@ -1408,90 +1425,90 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="38"/>
       <c r="B29" s="39"/>
       <c r="C29" s="40"/>
     </row>
-    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="46" t="s">
         <v>79</v>
       </c>
       <c r="B31" s="45"/>
       <c r="C31" s="42"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="19" t="s">
         <v>84</v>
       </c>
       <c r="B32" s="39"/>
       <c r="C32" s="43"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="15" t="s">
         <v>86</v>
       </c>
       <c r="B33" s="39"/>
       <c r="C33" s="43"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="15" t="s">
         <v>87</v>
       </c>
       <c r="B34" s="39"/>
       <c r="C34" s="43"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="15" t="s">
         <v>85</v>
       </c>
       <c r="B35" s="39"/>
       <c r="C35" s="43"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
         <v>89</v>
       </c>
       <c r="B36" s="39"/>
       <c r="C36" s="43"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="15" t="s">
         <v>90</v>
       </c>
       <c r="B37" s="39"/>
       <c r="C37" s="43"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
         <v>91</v>
       </c>
       <c r="B38" s="39"/>
       <c r="C38" s="43"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="15" t="s">
         <v>92</v>
       </c>
       <c r="B39" s="39"/>
       <c r="C39" s="43"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="40"/>
       <c r="B40" s="39"/>
       <c r="C40" s="43"/>
     </row>
-    <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="44" t="s">
         <v>94</v>
       </c>
@@ -1500,7 +1517,7 @@
       </c>
       <c r="C42" s="42"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="17">
         <v>11</v>
       </c>
@@ -1509,7 +1526,7 @@
       </c>
       <c r="C43" s="43"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>22</v>
       </c>
@@ -1518,7 +1535,7 @@
       </c>
       <c r="C44" s="43"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>33</v>
       </c>
@@ -1527,7 +1544,7 @@
       </c>
       <c r="C45" s="43"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>44</v>
       </c>
@@ -1536,17 +1553,17 @@
       </c>
       <c r="C46" s="43"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="38"/>
       <c r="B47" s="39"/>
       <c r="C47" s="40"/>
     </row>
-    <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="29" t="s">
         <v>7</v>
       </c>
@@ -1557,7 +1574,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="17">
         <v>302632195</v>
       </c>
@@ -1568,7 +1585,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="17">
         <v>302632195</v>
       </c>
@@ -1579,7 +1596,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="17">
         <v>302632195</v>
       </c>
@@ -1590,7 +1607,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>47</v>
       </c>
@@ -1601,7 +1618,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>47</v>
       </c>
@@ -1612,7 +1629,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>47</v>
       </c>
@@ -1623,7 +1640,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>47</v>
       </c>
@@ -1634,7 +1651,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>47</v>
       </c>
@@ -1645,7 +1662,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>47</v>
       </c>
@@ -1656,12 +1673,12 @@
         <v>109</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="29" t="s">
         <v>77</v>
       </c>
@@ -1675,156 +1692,156 @@
         <v>111</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="17"/>
       <c r="B63" s="18">
         <v>1</v>
       </c>
       <c r="C63" s="19"/>
-      <c r="D63" s="56"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D63" s="54"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="17"/>
       <c r="B64" s="13">
         <v>1</v>
       </c>
       <c r="C64" s="15"/>
-      <c r="D64" s="55"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D64" s="53"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="17"/>
       <c r="B65" s="14">
         <v>2</v>
       </c>
       <c r="C65" s="15"/>
-      <c r="D65" s="55"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D65" s="53"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="3"/>
       <c r="B66" s="14">
         <v>1</v>
       </c>
       <c r="C66" s="15"/>
-      <c r="D66" s="55"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D66" s="53"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="3"/>
       <c r="B67" s="14">
         <v>2</v>
       </c>
       <c r="C67" s="15"/>
-      <c r="D67" s="55"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D67" s="53"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="3"/>
       <c r="B68" s="14">
         <v>4</v>
       </c>
       <c r="C68" s="15"/>
-      <c r="D68" s="55"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D68" s="53"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
       <c r="B69" s="14">
         <v>2</v>
       </c>
       <c r="C69" s="15"/>
-      <c r="D69" s="55"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D69" s="53"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
       <c r="B70" s="14">
         <v>3</v>
       </c>
       <c r="C70" s="15"/>
-      <c r="D70" s="55"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D70" s="53"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="3"/>
       <c r="B71" s="14">
         <v>4</v>
       </c>
       <c r="C71" s="15"/>
-      <c r="D71" s="55"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D71" s="53"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="17"/>
       <c r="B72" s="18">
         <v>1</v>
       </c>
       <c r="C72" s="19"/>
-      <c r="D72" s="56"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D72" s="54"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="17"/>
       <c r="B73" s="13">
         <v>1</v>
       </c>
       <c r="C73" s="15"/>
-      <c r="D73" s="55"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D73" s="53"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="17"/>
       <c r="B74" s="14">
         <v>2</v>
       </c>
       <c r="C74" s="15"/>
-      <c r="D74" s="55"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D74" s="53"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="3"/>
       <c r="B75" s="14">
         <v>1</v>
       </c>
       <c r="C75" s="15"/>
-      <c r="D75" s="55"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D75" s="53"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="3"/>
       <c r="B76" s="14">
         <v>2</v>
       </c>
       <c r="C76" s="15"/>
-      <c r="D76" s="55"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D76" s="53"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="3"/>
       <c r="B77" s="14">
         <v>4</v>
       </c>
       <c r="C77" s="15"/>
-      <c r="D77" s="55"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D77" s="53"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="3"/>
       <c r="B78" s="14">
         <v>2</v>
       </c>
       <c r="C78" s="15"/>
-      <c r="D78" s="55"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D78" s="53"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="3"/>
       <c r="B79" s="14">
         <v>3</v>
       </c>
       <c r="C79" s="15"/>
-      <c r="D79" s="55"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D79" s="53"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="3"/>
       <c r="B80" s="14">
         <v>4</v>
       </c>
       <c r="C80" s="15"/>
-      <c r="D80" s="55"/>
-    </row>
-    <row r="82" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D80" s="53"/>
+    </row>
+    <row r="82" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="29" t="s">
         <v>113</v>
       </c>
@@ -1838,77 +1855,77 @@
         <v>111</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="17"/>
       <c r="B84" s="18">
         <v>1</v>
       </c>
       <c r="C84" s="19"/>
-      <c r="D84" s="56"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D84" s="54"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="17"/>
       <c r="B85" s="13">
         <v>1</v>
       </c>
       <c r="C85" s="15"/>
-      <c r="D85" s="55"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D85" s="53"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="17"/>
       <c r="B86" s="14">
         <v>2</v>
       </c>
       <c r="C86" s="15"/>
-      <c r="D86" s="55"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D86" s="53"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="3"/>
       <c r="B87" s="14">
         <v>1</v>
       </c>
       <c r="C87" s="15"/>
-      <c r="D87" s="55"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D87" s="53"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="3"/>
       <c r="B88" s="14">
         <v>2</v>
       </c>
       <c r="C88" s="15"/>
-      <c r="D88" s="55"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D88" s="53"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="3"/>
       <c r="B89" s="14">
         <v>4</v>
       </c>
       <c r="C89" s="15"/>
-      <c r="D89" s="55"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D89" s="53"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="3"/>
       <c r="B90" s="14">
         <v>2</v>
       </c>
       <c r="C90" s="15"/>
-      <c r="D90" s="55"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D90" s="53"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="3"/>
       <c r="B91" s="14">
         <v>3</v>
       </c>
       <c r="C91" s="15"/>
-      <c r="D91" s="55"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D91" s="53"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="3"/>
       <c r="B92" s="14">
         <v>4</v>
       </c>
       <c r="C92" s="15"/>
-      <c r="D92" s="55"/>
+      <c r="D92" s="53"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1926,25 +1943,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.28515625" customWidth="1"/>
+    <col min="1" max="1" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.33203125" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="54"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="57"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
@@ -1952,7 +1969,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="28" t="s">
         <v>1</v>
       </c>
@@ -1960,13 +1977,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="28" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="24"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="28" t="s">
         <v>3</v>
       </c>
@@ -1974,7 +1991,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
         <v>13</v>
       </c>
@@ -1982,7 +1999,7 @@
       <c r="C8" s="21"/>
       <c r="D8" s="21"/>
     </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
         <v>14</v>
       </c>
@@ -1996,7 +2013,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
@@ -2010,7 +2027,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
@@ -2024,7 +2041,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>19</v>
       </c>
@@ -2038,7 +2055,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>23</v>
       </c>
@@ -2052,7 +2069,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>46</v>
       </c>
@@ -2066,14 +2083,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="53" t="s">
+    <row r="16" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="54"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="57"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="27" t="s">
         <v>0</v>
       </c>
@@ -2081,7 +2098,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="28" t="s">
         <v>1</v>
       </c>
@@ -2089,13 +2106,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="28" t="s">
         <v>2</v>
       </c>
       <c r="B20" s="24"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="28" t="s">
         <v>3</v>
       </c>
@@ -2103,7 +2120,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="22" t="s">
         <v>13</v>
       </c>
@@ -2111,7 +2128,7 @@
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
     </row>
-    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
         <v>14</v>
       </c>
@@ -2125,7 +2142,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>50</v>
       </c>
@@ -2139,7 +2156,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>51</v>
       </c>
@@ -2153,7 +2170,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>52</v>
       </c>
@@ -2167,7 +2184,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>53</v>
       </c>
@@ -2181,7 +2198,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>54</v>
       </c>
@@ -2195,7 +2212,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>23</v>
       </c>
@@ -2209,14 +2226,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="53" t="s">
+    <row r="32" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="B33" s="54"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="57"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="27" t="s">
         <v>0</v>
       </c>
@@ -2224,7 +2241,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="28" t="s">
         <v>1</v>
       </c>
@@ -2232,13 +2249,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="28" t="s">
         <v>2</v>
       </c>
       <c r="B36" s="24"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="28" t="s">
         <v>3</v>
       </c>
@@ -2246,13 +2263,13 @@
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="38"/>
       <c r="B39" s="39"/>
       <c r="C39" s="40"/>
       <c r="D39" s="41"/>
     </row>
-    <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="32" t="s">
         <v>14</v>
       </c>
@@ -2266,37 +2283,37 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="5"/>
       <c r="C41" s="47"/>
       <c r="D41" s="48"/>
     </row>
-    <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="8"/>
     </row>
-    <row r="43" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
       <c r="B43" s="5"/>
       <c r="C43" s="6"/>
       <c r="D43" s="11"/>
     </row>
-    <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12"/>
       <c r="B44" s="37"/>
       <c r="C44" s="6"/>
       <c r="D44" s="11"/>
     </row>
-    <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12"/>
       <c r="B45" s="37"/>
       <c r="C45" s="6"/>
       <c r="D45" s="11"/>
     </row>
-    <row r="46" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>23</v>
       </c>

--- a/Acceptance Tests/Dispatcher.xlsx
+++ b/Acceptance Tests/Dispatcher.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="120">
   <si>
     <t xml:space="preserve">Use Case: </t>
   </si>
@@ -415,6 +415,9 @@
   </si>
   <si>
     <t>try</t>
+  </si>
+  <si>
+    <t>shay</t>
   </si>
 </sst>
 </file>
@@ -1205,7 +1208,7 @@
   <dimension ref="A2:E92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1264,6 +1267,9 @@
       <c r="A8" s="3"/>
       <c r="B8" s="14"/>
       <c r="C8" s="15"/>
+      <c r="E8" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>

--- a/Acceptance Tests/Dispatcher.xlsx
+++ b/Acceptance Tests/Dispatcher.xlsx
@@ -1,18 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26905"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asaf/Desktop/GHealth-System/Acceptance Tests/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="12640"/>
   </bookViews>
   <sheets>
     <sheet name="DataBase" sheetId="2" r:id="rId1"/>
     <sheet name="Dispatcher" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="119">
   <si>
     <t xml:space="preserve">Use Case: </t>
   </si>
@@ -402,11 +413,14 @@
   <si>
     <t>Password</t>
   </si>
+  <si>
+    <t>asad</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -498,100 +512,100 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -600,116 +614,116 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -868,21 +882,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="היפר-קישור" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1190,24 +1204,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>116</v>
       </c>
@@ -1219,66 +1233,68 @@
       </c>
       <c r="D3" s="42"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="17"/>
       <c r="B4" s="18"/>
       <c r="C4" s="19"/>
-      <c r="D4" s="57"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4" s="55"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="13"/>
       <c r="C5" s="15"/>
-      <c r="D5" s="57"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" s="55"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="14"/>
       <c r="C6" s="15"/>
-      <c r="D6" s="57"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="55"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="14"/>
       <c r="C7" s="15"/>
-      <c r="D7" s="57"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" s="55" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="14"/>
       <c r="C8" s="15"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="14"/>
       <c r="C9" s="15"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="14"/>
       <c r="C10" s="15"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="14"/>
       <c r="C11" s="15"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="14"/>
       <c r="C12" s="15"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="14"/>
       <c r="C13" s="15"/>
     </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>7</v>
       </c>
@@ -1292,7 +1308,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="17">
         <v>302632195</v>
       </c>
@@ -1306,7 +1322,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>200940997</v>
       </c>
@@ -1320,7 +1336,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>312143969</v>
       </c>
@@ -1334,7 +1350,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>305003659</v>
       </c>
@@ -1348,12 +1364,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>77</v>
       </c>
@@ -1364,7 +1380,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="17">
         <v>1</v>
       </c>
@@ -1375,7 +1391,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>2</v>
       </c>
@@ -1386,7 +1402,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>3</v>
       </c>
@@ -1397,7 +1413,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>4</v>
       </c>
@@ -1408,90 +1424,90 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="38"/>
       <c r="B29" s="39"/>
       <c r="C29" s="40"/>
     </row>
-    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="46" t="s">
         <v>79</v>
       </c>
       <c r="B31" s="45"/>
       <c r="C31" s="42"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="19" t="s">
         <v>84</v>
       </c>
       <c r="B32" s="39"/>
       <c r="C32" s="43"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="15" t="s">
         <v>86</v>
       </c>
       <c r="B33" s="39"/>
       <c r="C33" s="43"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="15" t="s">
         <v>87</v>
       </c>
       <c r="B34" s="39"/>
       <c r="C34" s="43"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="15" t="s">
         <v>85</v>
       </c>
       <c r="B35" s="39"/>
       <c r="C35" s="43"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
         <v>89</v>
       </c>
       <c r="B36" s="39"/>
       <c r="C36" s="43"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="15" t="s">
         <v>90</v>
       </c>
       <c r="B37" s="39"/>
       <c r="C37" s="43"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
         <v>91</v>
       </c>
       <c r="B38" s="39"/>
       <c r="C38" s="43"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="15" t="s">
         <v>92</v>
       </c>
       <c r="B39" s="39"/>
       <c r="C39" s="43"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="40"/>
       <c r="B40" s="39"/>
       <c r="C40" s="43"/>
     </row>
-    <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="44" t="s">
         <v>94</v>
       </c>
@@ -1500,7 +1516,7 @@
       </c>
       <c r="C42" s="42"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="17">
         <v>11</v>
       </c>
@@ -1509,7 +1525,7 @@
       </c>
       <c r="C43" s="43"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>22</v>
       </c>
@@ -1518,7 +1534,7 @@
       </c>
       <c r="C44" s="43"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>33</v>
       </c>
@@ -1527,7 +1543,7 @@
       </c>
       <c r="C45" s="43"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>44</v>
       </c>
@@ -1536,17 +1552,17 @@
       </c>
       <c r="C46" s="43"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="38"/>
       <c r="B47" s="39"/>
       <c r="C47" s="40"/>
     </row>
-    <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="29" t="s">
         <v>7</v>
       </c>
@@ -1557,7 +1573,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="17">
         <v>302632195</v>
       </c>
@@ -1568,7 +1584,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="17">
         <v>302632195</v>
       </c>
@@ -1579,7 +1595,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="17">
         <v>302632195</v>
       </c>
@@ -1590,7 +1606,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>47</v>
       </c>
@@ -1601,7 +1617,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>47</v>
       </c>
@@ -1612,7 +1628,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>47</v>
       </c>
@@ -1623,7 +1639,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>47</v>
       </c>
@@ -1634,7 +1650,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>47</v>
       </c>
@@ -1645,7 +1661,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>47</v>
       </c>
@@ -1656,12 +1672,12 @@
         <v>109</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="29" t="s">
         <v>77</v>
       </c>
@@ -1675,156 +1691,156 @@
         <v>111</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="17"/>
       <c r="B63" s="18">
         <v>1</v>
       </c>
       <c r="C63" s="19"/>
-      <c r="D63" s="56"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D63" s="54"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="17"/>
       <c r="B64" s="13">
         <v>1</v>
       </c>
       <c r="C64" s="15"/>
-      <c r="D64" s="55"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D64" s="53"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="17"/>
       <c r="B65" s="14">
         <v>2</v>
       </c>
       <c r="C65" s="15"/>
-      <c r="D65" s="55"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D65" s="53"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="3"/>
       <c r="B66" s="14">
         <v>1</v>
       </c>
       <c r="C66" s="15"/>
-      <c r="D66" s="55"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D66" s="53"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="3"/>
       <c r="B67" s="14">
         <v>2</v>
       </c>
       <c r="C67" s="15"/>
-      <c r="D67" s="55"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D67" s="53"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="3"/>
       <c r="B68" s="14">
         <v>4</v>
       </c>
       <c r="C68" s="15"/>
-      <c r="D68" s="55"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D68" s="53"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
       <c r="B69" s="14">
         <v>2</v>
       </c>
       <c r="C69" s="15"/>
-      <c r="D69" s="55"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D69" s="53"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
       <c r="B70" s="14">
         <v>3</v>
       </c>
       <c r="C70" s="15"/>
-      <c r="D70" s="55"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D70" s="53"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="3"/>
       <c r="B71" s="14">
         <v>4</v>
       </c>
       <c r="C71" s="15"/>
-      <c r="D71" s="55"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D71" s="53"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="17"/>
       <c r="B72" s="18">
         <v>1</v>
       </c>
       <c r="C72" s="19"/>
-      <c r="D72" s="56"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D72" s="54"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="17"/>
       <c r="B73" s="13">
         <v>1</v>
       </c>
       <c r="C73" s="15"/>
-      <c r="D73" s="55"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D73" s="53"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="17"/>
       <c r="B74" s="14">
         <v>2</v>
       </c>
       <c r="C74" s="15"/>
-      <c r="D74" s="55"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D74" s="53"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="3"/>
       <c r="B75" s="14">
         <v>1</v>
       </c>
       <c r="C75" s="15"/>
-      <c r="D75" s="55"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D75" s="53"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="3"/>
       <c r="B76" s="14">
         <v>2</v>
       </c>
       <c r="C76" s="15"/>
-      <c r="D76" s="55"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D76" s="53"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="3"/>
       <c r="B77" s="14">
         <v>4</v>
       </c>
       <c r="C77" s="15"/>
-      <c r="D77" s="55"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D77" s="53"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="3"/>
       <c r="B78" s="14">
         <v>2</v>
       </c>
       <c r="C78" s="15"/>
-      <c r="D78" s="55"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D78" s="53"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="3"/>
       <c r="B79" s="14">
         <v>3</v>
       </c>
       <c r="C79" s="15"/>
-      <c r="D79" s="55"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D79" s="53"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="3"/>
       <c r="B80" s="14">
         <v>4</v>
       </c>
       <c r="C80" s="15"/>
-      <c r="D80" s="55"/>
-    </row>
-    <row r="82" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D80" s="53"/>
+    </row>
+    <row r="82" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="29" t="s">
         <v>113</v>
       </c>
@@ -1838,77 +1854,77 @@
         <v>111</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="17"/>
       <c r="B84" s="18">
         <v>1</v>
       </c>
       <c r="C84" s="19"/>
-      <c r="D84" s="56"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D84" s="54"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="17"/>
       <c r="B85" s="13">
         <v>1</v>
       </c>
       <c r="C85" s="15"/>
-      <c r="D85" s="55"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D85" s="53"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="17"/>
       <c r="B86" s="14">
         <v>2</v>
       </c>
       <c r="C86" s="15"/>
-      <c r="D86" s="55"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D86" s="53"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="3"/>
       <c r="B87" s="14">
         <v>1</v>
       </c>
       <c r="C87" s="15"/>
-      <c r="D87" s="55"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D87" s="53"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="3"/>
       <c r="B88" s="14">
         <v>2</v>
       </c>
       <c r="C88" s="15"/>
-      <c r="D88" s="55"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D88" s="53"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="3"/>
       <c r="B89" s="14">
         <v>4</v>
       </c>
       <c r="C89" s="15"/>
-      <c r="D89" s="55"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D89" s="53"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="3"/>
       <c r="B90" s="14">
         <v>2</v>
       </c>
       <c r="C90" s="15"/>
-      <c r="D90" s="55"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D90" s="53"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="3"/>
       <c r="B91" s="14">
         <v>3</v>
       </c>
       <c r="C91" s="15"/>
-      <c r="D91" s="55"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D91" s="53"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="3"/>
       <c r="B92" s="14">
         <v>4</v>
       </c>
       <c r="C92" s="15"/>
-      <c r="D92" s="55"/>
+      <c r="D92" s="53"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1926,25 +1942,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.28515625" customWidth="1"/>
+    <col min="1" max="1" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.33203125" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="54"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="57"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
@@ -1952,7 +1968,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="28" t="s">
         <v>1</v>
       </c>
@@ -1960,13 +1976,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="28" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="24"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="28" t="s">
         <v>3</v>
       </c>
@@ -1974,7 +1990,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
         <v>13</v>
       </c>
@@ -1982,7 +1998,7 @@
       <c r="C8" s="21"/>
       <c r="D8" s="21"/>
     </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
         <v>14</v>
       </c>
@@ -1996,7 +2012,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
@@ -2010,7 +2026,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
@@ -2024,7 +2040,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>19</v>
       </c>
@@ -2038,7 +2054,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>23</v>
       </c>
@@ -2052,7 +2068,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>46</v>
       </c>
@@ -2066,14 +2082,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="53" t="s">
+    <row r="16" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="54"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="57"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="27" t="s">
         <v>0</v>
       </c>
@@ -2081,7 +2097,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="28" t="s">
         <v>1</v>
       </c>
@@ -2089,13 +2105,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="28" t="s">
         <v>2</v>
       </c>
       <c r="B20" s="24"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="28" t="s">
         <v>3</v>
       </c>
@@ -2103,7 +2119,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="22" t="s">
         <v>13</v>
       </c>
@@ -2111,7 +2127,7 @@
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
     </row>
-    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
         <v>14</v>
       </c>
@@ -2125,7 +2141,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>50</v>
       </c>
@@ -2139,7 +2155,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>51</v>
       </c>
@@ -2153,7 +2169,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>52</v>
       </c>
@@ -2167,7 +2183,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>53</v>
       </c>
@@ -2181,7 +2197,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>54</v>
       </c>
@@ -2195,7 +2211,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>23</v>
       </c>
@@ -2209,14 +2225,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="53" t="s">
+    <row r="32" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="B33" s="54"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="57"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="27" t="s">
         <v>0</v>
       </c>
@@ -2224,7 +2240,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="28" t="s">
         <v>1</v>
       </c>
@@ -2232,13 +2248,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="28" t="s">
         <v>2</v>
       </c>
       <c r="B36" s="24"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="28" t="s">
         <v>3</v>
       </c>
@@ -2246,13 +2262,13 @@
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="38"/>
       <c r="B39" s="39"/>
       <c r="C39" s="40"/>
       <c r="D39" s="41"/>
     </row>
-    <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="32" t="s">
         <v>14</v>
       </c>
@@ -2266,37 +2282,37 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="5"/>
       <c r="C41" s="47"/>
       <c r="D41" s="48"/>
     </row>
-    <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="8"/>
     </row>
-    <row r="43" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
       <c r="B43" s="5"/>
       <c r="C43" s="6"/>
       <c r="D43" s="11"/>
     </row>
-    <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12"/>
       <c r="B44" s="37"/>
       <c r="C44" s="6"/>
       <c r="D44" s="11"/>
     </row>
-    <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12"/>
       <c r="B45" s="37"/>
       <c r="C45" s="6"/>
       <c r="D45" s="11"/>
     </row>
-    <row r="46" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>23</v>
       </c>

--- a/Acceptance Tests/Dispatcher.xlsx
+++ b/Acceptance Tests/Dispatcher.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26905"/>
-  <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asaf/Desktop/GHealth-System/Acceptance Tests/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="12640"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="DataBase" sheetId="2" r:id="rId1"/>
@@ -18,20 +13,20 @@
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="118">
   <si>
     <t xml:space="preserve">Use Case: </t>
   </si>
@@ -413,14 +408,11 @@
   <si>
     <t>Password</t>
   </si>
-  <si>
-    <t>asad</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -895,8 +887,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="היפר-קישור" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1205,23 +1197,23 @@
   <dimension ref="A2:D92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>116</v>
       </c>
@@ -1233,68 +1225,66 @@
       </c>
       <c r="D3" s="42"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="17"/>
       <c r="B4" s="18"/>
       <c r="C4" s="19"/>
       <c r="D4" s="55"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="13"/>
       <c r="C5" s="15"/>
       <c r="D5" s="55"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="14"/>
       <c r="C6" s="15"/>
       <c r="D6" s="55"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="14"/>
       <c r="C7" s="15"/>
-      <c r="D7" s="55" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D7" s="55"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="14"/>
       <c r="C8" s="15"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="14"/>
       <c r="C9" s="15"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="14"/>
       <c r="C10" s="15"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="14"/>
       <c r="C11" s="15"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="14"/>
       <c r="C12" s="15"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="14"/>
       <c r="C13" s="15"/>
     </row>
-    <row r="16" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="29" t="s">
         <v>7</v>
       </c>
@@ -1308,7 +1298,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="17">
         <v>302632195</v>
       </c>
@@ -1322,7 +1312,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>200940997</v>
       </c>
@@ -1336,7 +1326,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>312143969</v>
       </c>
@@ -1350,7 +1340,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>305003659</v>
       </c>
@@ -1364,12 +1354,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="29" t="s">
         <v>77</v>
       </c>
@@ -1380,7 +1370,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="17">
         <v>1</v>
       </c>
@@ -1391,7 +1381,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>2</v>
       </c>
@@ -1402,7 +1392,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>3</v>
       </c>
@@ -1413,7 +1403,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>4</v>
       </c>
@@ -1424,90 +1414,90 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="38"/>
       <c r="B29" s="39"/>
       <c r="C29" s="40"/>
     </row>
-    <row r="30" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="46" t="s">
         <v>79</v>
       </c>
       <c r="B31" s="45"/>
       <c r="C31" s="42"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="19" t="s">
         <v>84</v>
       </c>
       <c r="B32" s="39"/>
       <c r="C32" s="43"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
         <v>86</v>
       </c>
       <c r="B33" s="39"/>
       <c r="C33" s="43"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
         <v>87</v>
       </c>
       <c r="B34" s="39"/>
       <c r="C34" s="43"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
         <v>85</v>
       </c>
       <c r="B35" s="39"/>
       <c r="C35" s="43"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
         <v>89</v>
       </c>
       <c r="B36" s="39"/>
       <c r="C36" s="43"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
         <v>90</v>
       </c>
       <c r="B37" s="39"/>
       <c r="C37" s="43"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
         <v>91</v>
       </c>
       <c r="B38" s="39"/>
       <c r="C38" s="43"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
         <v>92</v>
       </c>
       <c r="B39" s="39"/>
       <c r="C39" s="43"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="39"/>
       <c r="C40" s="43"/>
     </row>
-    <row r="41" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="44" t="s">
         <v>94</v>
       </c>
@@ -1516,7 +1506,7 @@
       </c>
       <c r="C42" s="42"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="17">
         <v>11</v>
       </c>
@@ -1525,7 +1515,7 @@
       </c>
       <c r="C43" s="43"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>22</v>
       </c>
@@ -1534,7 +1524,7 @@
       </c>
       <c r="C44" s="43"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>33</v>
       </c>
@@ -1543,7 +1533,7 @@
       </c>
       <c r="C45" s="43"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>44</v>
       </c>
@@ -1552,17 +1542,17 @@
       </c>
       <c r="C46" s="43"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="38"/>
       <c r="B47" s="39"/>
       <c r="C47" s="40"/>
     </row>
-    <row r="49" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="29" t="s">
         <v>7</v>
       </c>
@@ -1573,7 +1563,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="17">
         <v>302632195</v>
       </c>
@@ -1584,7 +1574,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="17">
         <v>302632195</v>
       </c>
@@ -1595,7 +1585,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="17">
         <v>302632195</v>
       </c>
@@ -1606,7 +1596,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>47</v>
       </c>
@@ -1617,7 +1607,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>47</v>
       </c>
@@ -1628,7 +1618,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>47</v>
       </c>
@@ -1639,7 +1629,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>47</v>
       </c>
@@ -1650,7 +1640,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>47</v>
       </c>
@@ -1661,7 +1651,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>47</v>
       </c>
@@ -1672,12 +1662,12 @@
         <v>109</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="29" t="s">
         <v>77</v>
       </c>
@@ -1691,7 +1681,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="17"/>
       <c r="B63" s="18">
         <v>1</v>
@@ -1699,7 +1689,7 @@
       <c r="C63" s="19"/>
       <c r="D63" s="54"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="17"/>
       <c r="B64" s="13">
         <v>1</v>
@@ -1707,7 +1697,7 @@
       <c r="C64" s="15"/>
       <c r="D64" s="53"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="17"/>
       <c r="B65" s="14">
         <v>2</v>
@@ -1715,7 +1705,7 @@
       <c r="C65" s="15"/>
       <c r="D65" s="53"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="14">
         <v>1</v>
@@ -1723,7 +1713,7 @@
       <c r="C66" s="15"/>
       <c r="D66" s="53"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="14">
         <v>2</v>
@@ -1731,7 +1721,7 @@
       <c r="C67" s="15"/>
       <c r="D67" s="53"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="14">
         <v>4</v>
@@ -1739,7 +1729,7 @@
       <c r="C68" s="15"/>
       <c r="D68" s="53"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="14">
         <v>2</v>
@@ -1747,7 +1737,7 @@
       <c r="C69" s="15"/>
       <c r="D69" s="53"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="14">
         <v>3</v>
@@ -1755,7 +1745,7 @@
       <c r="C70" s="15"/>
       <c r="D70" s="53"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="14">
         <v>4</v>
@@ -1763,7 +1753,7 @@
       <c r="C71" s="15"/>
       <c r="D71" s="53"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="17"/>
       <c r="B72" s="18">
         <v>1</v>
@@ -1771,7 +1761,7 @@
       <c r="C72" s="19"/>
       <c r="D72" s="54"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="17"/>
       <c r="B73" s="13">
         <v>1</v>
@@ -1779,7 +1769,7 @@
       <c r="C73" s="15"/>
       <c r="D73" s="53"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="17"/>
       <c r="B74" s="14">
         <v>2</v>
@@ -1787,7 +1777,7 @@
       <c r="C74" s="15"/>
       <c r="D74" s="53"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="14">
         <v>1</v>
@@ -1795,7 +1785,7 @@
       <c r="C75" s="15"/>
       <c r="D75" s="53"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="14">
         <v>2</v>
@@ -1803,7 +1793,7 @@
       <c r="C76" s="15"/>
       <c r="D76" s="53"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="14">
         <v>4</v>
@@ -1811,7 +1801,7 @@
       <c r="C77" s="15"/>
       <c r="D77" s="53"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="14">
         <v>2</v>
@@ -1819,7 +1809,7 @@
       <c r="C78" s="15"/>
       <c r="D78" s="53"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="14">
         <v>3</v>
@@ -1827,7 +1817,7 @@
       <c r="C79" s="15"/>
       <c r="D79" s="53"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="14">
         <v>4</v>
@@ -1835,12 +1825,12 @@
       <c r="C80" s="15"/>
       <c r="D80" s="53"/>
     </row>
-    <row r="82" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="29" t="s">
         <v>113</v>
       </c>
@@ -1854,7 +1844,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="17"/>
       <c r="B84" s="18">
         <v>1</v>
@@ -1862,7 +1852,7 @@
       <c r="C84" s="19"/>
       <c r="D84" s="54"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="17"/>
       <c r="B85" s="13">
         <v>1</v>
@@ -1870,7 +1860,7 @@
       <c r="C85" s="15"/>
       <c r="D85" s="53"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="17"/>
       <c r="B86" s="14">
         <v>2</v>
@@ -1878,7 +1868,7 @@
       <c r="C86" s="15"/>
       <c r="D86" s="53"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="14">
         <v>1</v>
@@ -1886,7 +1876,7 @@
       <c r="C87" s="15"/>
       <c r="D87" s="53"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="14">
         <v>2</v>
@@ -1894,7 +1884,7 @@
       <c r="C88" s="15"/>
       <c r="D88" s="53"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="14">
         <v>4</v>
@@ -1902,7 +1892,7 @@
       <c r="C89" s="15"/>
       <c r="D89" s="53"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="14">
         <v>2</v>
@@ -1910,7 +1900,7 @@
       <c r="C90" s="15"/>
       <c r="D90" s="53"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="14">
         <v>3</v>
@@ -1918,7 +1908,7 @@
       <c r="C91" s="15"/>
       <c r="D91" s="53"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="14">
         <v>4</v>
@@ -1946,21 +1936,21 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.33203125" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.28515625" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="56" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="57"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
@@ -1968,7 +1958,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>1</v>
       </c>
@@ -1976,13 +1966,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="24"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>3</v>
       </c>
@@ -1990,7 +1980,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="22" t="s">
         <v>13</v>
       </c>
@@ -1998,7 +1988,7 @@
       <c r="C8" s="21"/>
       <c r="D8" s="21"/>
     </row>
-    <row r="9" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="32" t="s">
         <v>14</v>
       </c>
@@ -2012,7 +2002,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
@@ -2026,7 +2016,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
@@ -2040,7 +2030,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>19</v>
       </c>
@@ -2054,7 +2044,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>23</v>
       </c>
@@ -2068,7 +2058,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>46</v>
       </c>
@@ -2082,14 +2072,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="56" t="s">
         <v>44</v>
       </c>
       <c r="B17" s="57"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="27" t="s">
         <v>0</v>
       </c>
@@ -2097,7 +2087,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
         <v>1</v>
       </c>
@@ -2105,13 +2095,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
         <v>2</v>
       </c>
       <c r="B20" s="24"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="28" t="s">
         <v>3</v>
       </c>
@@ -2119,7 +2109,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="22" t="s">
         <v>13</v>
       </c>
@@ -2127,7 +2117,7 @@
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
     </row>
-    <row r="24" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="32" t="s">
         <v>14</v>
       </c>
@@ -2141,7 +2131,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>50</v>
       </c>
@@ -2155,7 +2145,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>51</v>
       </c>
@@ -2169,7 +2159,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>52</v>
       </c>
@@ -2183,7 +2173,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
         <v>53</v>
       </c>
@@ -2197,7 +2187,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
         <v>54</v>
       </c>
@@ -2211,7 +2201,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>23</v>
       </c>
@@ -2225,14 +2215,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="56" t="s">
         <v>73</v>
       </c>
       <c r="B33" s="57"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="27" t="s">
         <v>0</v>
       </c>
@@ -2240,7 +2230,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="28" t="s">
         <v>1</v>
       </c>
@@ -2248,13 +2238,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="28" t="s">
         <v>2</v>
       </c>
       <c r="B36" s="24"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="28" t="s">
         <v>3</v>
       </c>
@@ -2262,13 +2252,13 @@
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="38"/>
       <c r="B39" s="39"/>
       <c r="C39" s="40"/>
       <c r="D39" s="41"/>
     </row>
-    <row r="40" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="32" t="s">
         <v>14</v>
       </c>
@@ -2282,37 +2272,37 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
       <c r="B41" s="5"/>
       <c r="C41" s="47"/>
       <c r="D41" s="48"/>
     </row>
-    <row r="42" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="8"/>
     </row>
-    <row r="43" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7"/>
       <c r="B43" s="5"/>
       <c r="C43" s="6"/>
       <c r="D43" s="11"/>
     </row>
-    <row r="44" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="12"/>
       <c r="B44" s="37"/>
       <c r="C44" s="6"/>
       <c r="D44" s="11"/>
     </row>
-    <row r="45" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="12"/>
       <c r="B45" s="37"/>
       <c r="C45" s="6"/>
       <c r="D45" s="11"/>
     </row>
-    <row r="46" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
         <v>23</v>
       </c>

--- a/Acceptance Tests/Dispatcher.xlsx
+++ b/Acceptance Tests/Dispatcher.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="177">
   <si>
     <t xml:space="preserve">Use Case: </t>
   </si>
@@ -174,9 +174,6 @@
   </si>
   <si>
     <t>ValidateIDFailed</t>
-  </si>
-  <si>
-    <t>#####</t>
   </si>
   <si>
     <t>System checks that all required fields are filled. System checks for valid ID. System reports for invalid ID input.</t>
@@ -407,6 +404,186 @@
   </si>
   <si>
     <t>Password</t>
+  </si>
+  <si>
+    <t>mosheMoshe</t>
+  </si>
+  <si>
+    <t>Specialist</t>
+  </si>
+  <si>
+    <t>MarkMarkuzon1</t>
+  </si>
+  <si>
+    <t>652798s</t>
+  </si>
+  <si>
+    <t>Kandian8</t>
+  </si>
+  <si>
+    <t>yoram910</t>
+  </si>
+  <si>
+    <t>yossi0123</t>
+  </si>
+  <si>
+    <t>0123yos</t>
+  </si>
+  <si>
+    <t>david12</t>
+  </si>
+  <si>
+    <t>davidD1</t>
+  </si>
+  <si>
+    <t>Lab Worker</t>
+  </si>
+  <si>
+    <t>mylab</t>
+  </si>
+  <si>
+    <t>eliElyahu</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Family Name</t>
+  </si>
+  <si>
+    <t>Worker ID</t>
+  </si>
+  <si>
+    <t>Branch</t>
+  </si>
+  <si>
+    <t>Moshe</t>
+  </si>
+  <si>
+    <t>moshe@ihealth.org</t>
+  </si>
+  <si>
+    <t>mark@ihealth.org</t>
+  </si>
+  <si>
+    <t>yakir@ihealth.org</t>
+  </si>
+  <si>
+    <t>eli@ihealth.org</t>
+  </si>
+  <si>
+    <t>yoram@ihealth.org</t>
+  </si>
+  <si>
+    <t>yossi@ihealth.org</t>
+  </si>
+  <si>
+    <t>david@ihealth.org</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>Markuzon</t>
+  </si>
+  <si>
+    <t>Yakir</t>
+  </si>
+  <si>
+    <t>Kandian</t>
+  </si>
+  <si>
+    <t>Yoram</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Yossi</t>
+  </si>
+  <si>
+    <t>Yosef</t>
+  </si>
+  <si>
+    <t>Davidi</t>
+  </si>
+  <si>
+    <t>Eli</t>
+  </si>
+  <si>
+    <t>Cohen</t>
+  </si>
+  <si>
+    <t>Branch Manager</t>
+  </si>
+  <si>
+    <t>General Manager</t>
+  </si>
+  <si>
+    <t>Ron</t>
+  </si>
+  <si>
+    <t>Aviv</t>
+  </si>
+  <si>
+    <t>Issac</t>
+  </si>
+  <si>
+    <t>Yinon</t>
+  </si>
+  <si>
+    <t>Gal</t>
+  </si>
+  <si>
+    <t>Alon</t>
+  </si>
+  <si>
+    <t>Gil</t>
+  </si>
+  <si>
+    <t>Galili</t>
+  </si>
+  <si>
+    <t>ron@ihealth.org</t>
+  </si>
+  <si>
+    <t>issac@ihealth.org</t>
+  </si>
+  <si>
+    <t>yinon@ihealth.org</t>
+  </si>
+  <si>
+    <t>alon@ihealth.org</t>
+  </si>
+  <si>
+    <t>gil@ihealth.org</t>
+  </si>
+  <si>
+    <t>rona</t>
+  </si>
+  <si>
+    <t>ronron</t>
+  </si>
+  <si>
+    <t>isaacC</t>
+  </si>
+  <si>
+    <t>ygal</t>
+  </si>
+  <si>
+    <t>ygyg</t>
+  </si>
+  <si>
+    <t>alonron</t>
+  </si>
+  <si>
+    <t>ar203</t>
+  </si>
+  <si>
+    <t>gilGl</t>
+  </si>
+  <si>
+    <t>123Gil</t>
   </si>
 </sst>
 </file>
@@ -726,7 +903,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -876,7 +1053,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -884,6 +1061,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1194,10 +1380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D92"/>
+  <dimension ref="A2:H94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1206,248 +1392,510 @@
     <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" customWidth="1"/>
     <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="31" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="B3" s="30" t="s">
+      <c r="D3" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="55" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="D3" s="42"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="55"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="55"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="55"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="55"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="15"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="15"/>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="29" t="s">
+      <c r="B4" s="18">
+        <v>1234</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="58" t="s">
+        <v>134</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="F4" s="19">
+        <v>1001</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="H4" s="19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" s="13">
+        <v>4321</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="60" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="F5" s="15">
+        <v>1002</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="H5" s="15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="14">
+        <v>5431</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="60" t="s">
+        <v>144</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="F6" s="15">
+        <v>1003</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="H6" s="15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" s="60" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="F7" s="15">
+        <v>1004</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="H7" s="15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="59" t="s">
+        <v>148</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="F8" s="15">
+        <v>1005</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="H8" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="59" t="s">
+        <v>147</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F9" s="15">
+        <v>1006</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="H9" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" s="59" t="s">
+        <v>151</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="F10" s="15">
+        <v>1007</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="H10" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D11" s="59" t="s">
+        <v>155</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="F11" s="15">
+        <v>1008</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="H11" s="15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B12" s="14">
+        <v>4321</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D12" s="59" t="s">
+        <v>157</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="F12" s="15">
+        <v>1009</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="H12" s="15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D13" s="59" t="s">
+        <v>158</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="F13" s="15">
+        <v>1010</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="H13" s="15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D14" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="F14" s="15">
+        <v>1011</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="H14" s="15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="D15" s="59" t="s">
+        <v>161</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="F15" s="15">
+        <v>1012</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="H15" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B19" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C19" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="31" t="s">
+      <c r="D19" s="31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="17">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="17">
         <v>302632195</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B20" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C20" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D20" s="20" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>200940997</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B21" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C21" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D21" s="16" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
         <v>312143969</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B22" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C22" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D22" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
         <v>305003659</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B23" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C23" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D23" s="16" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="29" t="s">
+    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="B26" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="B24" s="30" t="s">
+      <c r="C26" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="C24" s="31" t="s">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="15">
+        <v>1002</v>
+      </c>
+      <c r="B27" s="18" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="17">
-        <v>1</v>
-      </c>
-      <c r="B25" s="18" t="s">
+      <c r="C27" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="15">
+        <v>1004</v>
+      </c>
+      <c r="B28" s="13" t="s">
         <v>80</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>2</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>3</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <v>4</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>83</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="38"/>
-      <c r="B29" s="39"/>
-      <c r="C29" s="40"/>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="46" t="s">
-        <v>79</v>
-      </c>
-      <c r="B31" s="45"/>
-      <c r="C31" s="42"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="19" t="s">
+      <c r="A29" s="15">
+        <v>1003</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="19">
+        <v>1001</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="B32" s="39"/>
-      <c r="C32" s="43"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="B33" s="39"/>
-      <c r="C33" s="43"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="38"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="40"/>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" s="45"/>
+      <c r="C33" s="42"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="15" t="s">
-        <v>87</v>
+      <c r="A34" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="B34" s="39"/>
       <c r="C34" s="43"/>
@@ -1461,262 +1909,260 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B36" s="39"/>
       <c r="C36" s="43"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B37" s="39"/>
       <c r="C37" s="43"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B38" s="39"/>
       <c r="C38" s="43"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B39" s="39"/>
       <c r="C39" s="43"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="40"/>
+      <c r="A40" s="15" t="s">
+        <v>90</v>
+      </c>
       <c r="B40" s="39"/>
       <c r="C40" s="43"/>
     </row>
-    <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41" s="39"/>
+      <c r="C41" s="43"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="40"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="43"/>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="44" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="44" t="s">
+      <c r="B44" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="B42" s="46" t="s">
+      <c r="C44" s="42"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="17">
+        <v>11</v>
+      </c>
+      <c r="B45" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" s="43"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>22</v>
+      </c>
+      <c r="B46" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="C42" s="42"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="17">
-        <v>11</v>
-      </c>
-      <c r="B43" s="52" t="s">
-        <v>31</v>
-      </c>
-      <c r="C43" s="43"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
-        <v>22</v>
-      </c>
-      <c r="B44" s="50" t="s">
+      <c r="C46" s="43"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>33</v>
+      </c>
+      <c r="B47" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="C44" s="43"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
-        <v>33</v>
-      </c>
-      <c r="B45" s="51" t="s">
+      <c r="C47" s="43"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>44</v>
+      </c>
+      <c r="B48" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="C45" s="43"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
-        <v>44</v>
-      </c>
-      <c r="B46" s="51" t="s">
+      <c r="C48" s="43"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="38"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="40"/>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C52" s="31" t="s">
         <v>98</v>
-      </c>
-      <c r="C46" s="43"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="38"/>
-      <c r="B47" s="39"/>
-      <c r="C47" s="40"/>
-    </row>
-    <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="B50" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="C50" s="31" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="17">
-        <v>302632195</v>
-      </c>
-      <c r="B51" s="18">
-        <v>1</v>
-      </c>
-      <c r="C51" s="19" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="17">
-        <v>302632195</v>
-      </c>
-      <c r="B52" s="13">
-        <v>1</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="17">
         <v>302632195</v>
       </c>
-      <c r="B53" s="14">
-        <v>2</v>
-      </c>
-      <c r="C53" s="15" t="s">
+      <c r="B53" s="18">
+        <v>1001</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="17">
+        <v>302632195</v>
+      </c>
+      <c r="B54" s="13">
+        <v>1002</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="17">
+        <v>302632195</v>
+      </c>
+      <c r="B55" s="14">
+        <v>1003</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>200940997</v>
+      </c>
+      <c r="B56" s="14">
+        <v>1001</v>
+      </c>
+      <c r="C56" s="15" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B54" s="14">
-        <v>1</v>
-      </c>
-      <c r="C54" s="15" t="s">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>200940997</v>
+      </c>
+      <c r="B57" s="14">
+        <v>1002</v>
+      </c>
+      <c r="C57" s="15" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B55" s="14">
-        <v>2</v>
-      </c>
-      <c r="C55" s="15" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>305003659</v>
+      </c>
+      <c r="B58" s="14">
+        <v>1004</v>
+      </c>
+      <c r="C58" s="15" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B56" s="14">
-        <v>4</v>
-      </c>
-      <c r="C56" s="15" t="s">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>312143969</v>
+      </c>
+      <c r="B59" s="14">
+        <v>1002</v>
+      </c>
+      <c r="C59" s="15" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B57" s="14">
-        <v>2</v>
-      </c>
-      <c r="C57" s="15" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B58" s="14">
-        <v>3</v>
-      </c>
-      <c r="C58" s="15" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>305003659</v>
+      </c>
+      <c r="B60" s="14">
+        <v>1003</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>312143969</v>
+      </c>
+      <c r="B61" s="14">
+        <v>1004</v>
+      </c>
+      <c r="C61" s="15" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B59" s="14">
-        <v>4</v>
-      </c>
-      <c r="C59" s="15" t="s">
+    <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
+    <row r="64" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B64" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="C64" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="D64" s="31" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="B62" s="46" t="s">
-        <v>94</v>
-      </c>
-      <c r="C62" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="D62" s="31" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="17"/>
-      <c r="B63" s="18">
-        <v>1</v>
-      </c>
-      <c r="C63" s="19"/>
-      <c r="D63" s="54"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="17"/>
-      <c r="B64" s="13">
-        <v>1</v>
-      </c>
-      <c r="C64" s="15"/>
-      <c r="D64" s="53"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="17"/>
-      <c r="B65" s="14">
-        <v>2</v>
-      </c>
-      <c r="C65" s="15"/>
-      <c r="D65" s="53"/>
+      <c r="B65" s="18">
+        <v>11</v>
+      </c>
+      <c r="C65" s="19"/>
+      <c r="D65" s="54"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="3"/>
-      <c r="B66" s="14">
-        <v>1</v>
+      <c r="A66" s="17"/>
+      <c r="B66" s="13">
+        <v>11</v>
       </c>
       <c r="C66" s="15"/>
       <c r="D66" s="53"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="3"/>
+      <c r="A67" s="17"/>
       <c r="B67" s="14">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C67" s="15"/>
       <c r="D67" s="53"/>
@@ -1724,7 +2170,7 @@
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="14">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C68" s="15"/>
       <c r="D68" s="53"/>
@@ -1732,7 +2178,7 @@
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="14">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C69" s="15"/>
       <c r="D69" s="53"/>
@@ -1740,7 +2186,7 @@
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="14">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="C70" s="15"/>
       <c r="D70" s="53"/>
@@ -1748,47 +2194,47 @@
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="14">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C71" s="15"/>
       <c r="D71" s="53"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="17"/>
-      <c r="B72" s="18">
-        <v>1</v>
-      </c>
-      <c r="C72" s="19"/>
-      <c r="D72" s="54"/>
+      <c r="A72" s="3"/>
+      <c r="B72" s="14">
+        <v>33</v>
+      </c>
+      <c r="C72" s="15"/>
+      <c r="D72" s="53"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="17"/>
-      <c r="B73" s="13">
-        <v>1</v>
+      <c r="A73" s="3"/>
+      <c r="B73" s="14">
+        <v>44</v>
       </c>
       <c r="C73" s="15"/>
       <c r="D73" s="53"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="17"/>
-      <c r="B74" s="14">
-        <v>2</v>
-      </c>
-      <c r="C74" s="15"/>
-      <c r="D74" s="53"/>
+      <c r="B74" s="18">
+        <v>11</v>
+      </c>
+      <c r="C74" s="19"/>
+      <c r="D74" s="54"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="3"/>
-      <c r="B75" s="14">
-        <v>1</v>
+      <c r="A75" s="17"/>
+      <c r="B75" s="13">
+        <v>11</v>
       </c>
       <c r="C75" s="15"/>
       <c r="D75" s="53"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="3"/>
+      <c r="A76" s="17"/>
       <c r="B76" s="14">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C76" s="15"/>
       <c r="D76" s="53"/>
@@ -1796,7 +2242,7 @@
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="14">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C77" s="15"/>
       <c r="D77" s="53"/>
@@ -1804,7 +2250,7 @@
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="14">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C78" s="15"/>
       <c r="D78" s="53"/>
@@ -1812,7 +2258,7 @@
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="14">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="C79" s="15"/>
       <c r="D79" s="53"/>
@@ -1820,66 +2266,66 @@
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="14">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C80" s="15"/>
       <c r="D80" s="53"/>
     </row>
-    <row r="82" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="1" t="s">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="3"/>
+      <c r="B81" s="14">
+        <v>33</v>
+      </c>
+      <c r="C81" s="15"/>
+      <c r="D81" s="53"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="3"/>
+      <c r="B82" s="14">
+        <v>44</v>
+      </c>
+      <c r="C82" s="15"/>
+      <c r="D82" s="53"/>
+    </row>
+    <row r="84" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="29" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="B83" s="46" t="s">
-        <v>94</v>
-      </c>
-      <c r="C83" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="D83" s="31" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="17"/>
-      <c r="B84" s="18">
-        <v>1</v>
-      </c>
-      <c r="C84" s="19"/>
-      <c r="D84" s="54"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="17"/>
-      <c r="B85" s="13">
-        <v>1</v>
-      </c>
-      <c r="C85" s="15"/>
-      <c r="D85" s="53"/>
+      <c r="B85" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="C85" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="D85" s="31" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="17"/>
-      <c r="B86" s="14">
-        <v>2</v>
-      </c>
-      <c r="C86" s="15"/>
-      <c r="D86" s="53"/>
+      <c r="B86" s="18">
+        <v>11</v>
+      </c>
+      <c r="C86" s="19"/>
+      <c r="D86" s="54"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="3"/>
-      <c r="B87" s="14">
-        <v>1</v>
+      <c r="A87" s="17"/>
+      <c r="B87" s="13">
+        <v>11</v>
       </c>
       <c r="C87" s="15"/>
       <c r="D87" s="53"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="3"/>
+      <c r="A88" s="17"/>
       <c r="B88" s="14">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C88" s="15"/>
       <c r="D88" s="53"/>
@@ -1887,7 +2333,7 @@
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="14">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C89" s="15"/>
       <c r="D89" s="53"/>
@@ -1895,7 +2341,7 @@
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="14">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C90" s="15"/>
       <c r="D90" s="53"/>
@@ -1903,7 +2349,7 @@
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="14">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="C91" s="15"/>
       <c r="D91" s="53"/>
@@ -1911,20 +2357,48 @@
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="14">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C92" s="15"/>
       <c r="D92" s="53"/>
     </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="3"/>
+      <c r="B93" s="14">
+        <v>33</v>
+      </c>
+      <c r="C93" s="15"/>
+      <c r="D93" s="53"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="3"/>
+      <c r="B94" s="14">
+        <v>44</v>
+      </c>
+      <c r="C94" s="15"/>
+      <c r="D94" s="53"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D18" r:id="rId1"/>
-    <hyperlink ref="D19" r:id="rId2"/>
-    <hyperlink ref="D20" r:id="rId3"/>
-    <hyperlink ref="D21" r:id="rId4"/>
+    <hyperlink ref="D20" r:id="rId1"/>
+    <hyperlink ref="D21" r:id="rId2"/>
+    <hyperlink ref="D22" r:id="rId3"/>
+    <hyperlink ref="D23" r:id="rId4"/>
+    <hyperlink ref="G4" r:id="rId5"/>
+    <hyperlink ref="G5" r:id="rId6"/>
+    <hyperlink ref="G6" r:id="rId7"/>
+    <hyperlink ref="G7" r:id="rId8"/>
+    <hyperlink ref="G8" r:id="rId9"/>
+    <hyperlink ref="G9" r:id="rId10"/>
+    <hyperlink ref="G10" r:id="rId11"/>
+    <hyperlink ref="G11" r:id="rId12"/>
+    <hyperlink ref="G12" r:id="rId13"/>
+    <hyperlink ref="G13" r:id="rId14"/>
+    <hyperlink ref="G14" r:id="rId15"/>
+    <hyperlink ref="G15" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId17"/>
 </worksheet>
 </file>
 
@@ -2007,7 +2481,7 @@
         <v>18</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>40</v>
@@ -2021,7 +2495,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>42</v>
@@ -2066,10 +2540,10 @@
         <v>24</v>
       </c>
       <c r="C14" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="36" t="s">
         <v>48</v>
-      </c>
-      <c r="D14" s="36" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2133,72 +2607,72 @@
     </row>
     <row r="25" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B25" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B26" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="D26" s="8" t="s">
         <v>62</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B27" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="D27" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B28" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>69</v>
-      </c>
       <c r="D28" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B29" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="D29" s="11" t="s">
         <v>71</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2206,7 +2680,7 @@
         <v>23</v>
       </c>
       <c r="B30" s="37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>27</v>
@@ -2218,7 +2692,7 @@
     <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="56" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B33" s="57"/>
     </row>
@@ -2227,7 +2701,7 @@
         <v>0</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -2307,7 +2781,7 @@
         <v>23</v>
       </c>
       <c r="B46" s="37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>27</v>

--- a/Acceptance Tests/Dispatcher.xlsx
+++ b/Acceptance Tests/Dispatcher.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="186">
   <si>
     <t xml:space="preserve">Use Case: </t>
   </si>
@@ -584,6 +584,33 @@
   </si>
   <si>
     <t>123Gil</t>
+  </si>
+  <si>
+    <t>1.8.16</t>
+  </si>
+  <si>
+    <t>2.8.16</t>
+  </si>
+  <si>
+    <t>4.8.16</t>
+  </si>
+  <si>
+    <t>3.8.16</t>
+  </si>
+  <si>
+    <t>5.8.16</t>
+  </si>
+  <si>
+    <t>6.8.16</t>
+  </si>
+  <si>
+    <t>7.8.16</t>
+  </si>
+  <si>
+    <t>8.9.16</t>
+  </si>
+  <si>
+    <t>10.10.16</t>
   </si>
 </sst>
 </file>
@@ -1051,24 +1078,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1382,8 +1413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1425,7 +1456,7 @@
       <c r="G3" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="55" t="s">
+      <c r="H3" s="53" t="s">
         <v>133</v>
       </c>
     </row>
@@ -1439,7 +1470,7 @@
       <c r="C4" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="D4" s="58" t="s">
+      <c r="D4" s="54" t="s">
         <v>134</v>
       </c>
       <c r="E4" s="19" t="s">
@@ -1465,7 +1496,7 @@
       <c r="C5" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="D5" s="60" t="s">
+      <c r="D5" s="56" t="s">
         <v>142</v>
       </c>
       <c r="E5" s="15" t="s">
@@ -1491,7 +1522,7 @@
       <c r="C6" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="D6" s="60" t="s">
+      <c r="D6" s="56" t="s">
         <v>144</v>
       </c>
       <c r="E6" s="15" t="s">
@@ -1517,7 +1548,7 @@
       <c r="C7" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="D7" s="60" t="s">
+      <c r="D7" s="56" t="s">
         <v>146</v>
       </c>
       <c r="E7" s="15" t="s">
@@ -1543,7 +1574,7 @@
       <c r="C8" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="55" t="s">
         <v>148</v>
       </c>
       <c r="E8" s="15" t="s">
@@ -1569,7 +1600,7 @@
       <c r="C9" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="59" t="s">
+      <c r="D9" s="55" t="s">
         <v>147</v>
       </c>
       <c r="E9" s="15" t="s">
@@ -1595,7 +1626,7 @@
       <c r="C10" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="D10" s="59" t="s">
+      <c r="D10" s="55" t="s">
         <v>151</v>
       </c>
       <c r="E10" s="15" t="s">
@@ -1621,7 +1652,7 @@
       <c r="C11" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="D11" s="59" t="s">
+      <c r="D11" s="55" t="s">
         <v>155</v>
       </c>
       <c r="E11" s="15" t="s">
@@ -1647,7 +1678,7 @@
       <c r="C12" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="D12" s="59" t="s">
+      <c r="D12" s="55" t="s">
         <v>157</v>
       </c>
       <c r="E12" s="15" t="s">
@@ -1673,7 +1704,7 @@
       <c r="C13" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="D13" s="59" t="s">
+      <c r="D13" s="55" t="s">
         <v>158</v>
       </c>
       <c r="E13" s="15" t="s">
@@ -1699,7 +1730,7 @@
       <c r="C14" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="D14" s="59" t="s">
+      <c r="D14" s="55" t="s">
         <v>160</v>
       </c>
       <c r="E14" s="15" t="s">
@@ -1725,7 +1756,7 @@
       <c r="C15" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="D15" s="59" t="s">
+      <c r="D15" s="55" t="s">
         <v>161</v>
       </c>
       <c r="E15" s="15" t="s">
@@ -2148,144 +2179,180 @@
       <c r="B65" s="18">
         <v>11</v>
       </c>
-      <c r="C65" s="19"/>
-      <c r="D65" s="54"/>
+      <c r="C65" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="D65" s="19"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="17"/>
       <c r="B66" s="13">
         <v>11</v>
       </c>
-      <c r="C66" s="15"/>
-      <c r="D66" s="53"/>
+      <c r="C66" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="D66" s="15"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="17"/>
       <c r="B67" s="14">
         <v>22</v>
       </c>
-      <c r="C67" s="15"/>
-      <c r="D67" s="53"/>
+      <c r="C67" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="D67" s="15"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="14">
         <v>11</v>
       </c>
-      <c r="C68" s="15"/>
-      <c r="D68" s="53"/>
+      <c r="C68" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="D68" s="15"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="14">
         <v>22</v>
       </c>
-      <c r="C69" s="15"/>
-      <c r="D69" s="53"/>
+      <c r="C69" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="D69" s="15"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="14">
         <v>44</v>
       </c>
-      <c r="C70" s="15"/>
-      <c r="D70" s="53"/>
+      <c r="C70" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="D70" s="15"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="14">
         <v>22</v>
       </c>
-      <c r="C71" s="15"/>
-      <c r="D71" s="53"/>
+      <c r="C71" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="D71" s="15"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="14">
         <v>33</v>
       </c>
-      <c r="C72" s="15"/>
-      <c r="D72" s="53"/>
+      <c r="C72" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="D72" s="15"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="14">
         <v>44</v>
       </c>
-      <c r="C73" s="15"/>
-      <c r="D73" s="53"/>
+      <c r="C73" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="D73" s="15"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="17"/>
       <c r="B74" s="18">
         <v>11</v>
       </c>
-      <c r="C74" s="19"/>
-      <c r="D74" s="54"/>
+      <c r="C74" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="D74" s="19"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="17"/>
       <c r="B75" s="13">
         <v>11</v>
       </c>
-      <c r="C75" s="15"/>
-      <c r="D75" s="53"/>
+      <c r="C75" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="D75" s="15"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="17"/>
       <c r="B76" s="14">
         <v>22</v>
       </c>
-      <c r="C76" s="15"/>
-      <c r="D76" s="53"/>
+      <c r="C76" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="D76" s="15"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="14">
         <v>11</v>
       </c>
-      <c r="C77" s="15"/>
-      <c r="D77" s="53"/>
+      <c r="C77" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="D77" s="15"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="14">
         <v>22</v>
       </c>
-      <c r="C78" s="15"/>
-      <c r="D78" s="53"/>
+      <c r="C78" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="D78" s="15"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="14">
         <v>44</v>
       </c>
-      <c r="C79" s="15"/>
-      <c r="D79" s="53"/>
+      <c r="C79" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="D79" s="15"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="14">
         <v>22</v>
       </c>
-      <c r="C80" s="15"/>
-      <c r="D80" s="53"/>
+      <c r="C80" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="D80" s="15"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="14">
         <v>33</v>
       </c>
-      <c r="C81" s="15"/>
-      <c r="D81" s="53"/>
+      <c r="C81" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="D81" s="15"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="14">
         <v>44</v>
       </c>
-      <c r="C82" s="15"/>
-      <c r="D82" s="53"/>
+      <c r="C82" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="D82" s="15"/>
     </row>
     <row r="84" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
@@ -2307,76 +2374,130 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="17"/>
+      <c r="A86" s="17">
+        <v>302632195</v>
+      </c>
       <c r="B86" s="18">
         <v>11</v>
       </c>
-      <c r="C86" s="19"/>
-      <c r="D86" s="54"/>
+      <c r="C86" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="D86" s="59">
+        <v>0.41666666666666669</v>
+      </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="17"/>
+      <c r="A87" s="2">
+        <v>200940997</v>
+      </c>
       <c r="B87" s="13">
         <v>11</v>
       </c>
-      <c r="C87" s="15"/>
-      <c r="D87" s="53"/>
+      <c r="C87" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="D87" s="60">
+        <v>0.4375</v>
+      </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="17"/>
+      <c r="A88" s="17">
+        <v>302632195</v>
+      </c>
       <c r="B88" s="14">
         <v>22</v>
       </c>
-      <c r="C88" s="15"/>
-      <c r="D88" s="53"/>
+      <c r="C88" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="D88" s="60">
+        <v>0.375</v>
+      </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="3"/>
+      <c r="A89" s="3">
+        <v>305003659</v>
+      </c>
       <c r="B89" s="14">
         <v>11</v>
       </c>
-      <c r="C89" s="15"/>
-      <c r="D89" s="53"/>
+      <c r="C89" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="D89" s="60">
+        <v>0.41666666666666669</v>
+      </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="3"/>
+      <c r="A90" s="3">
+        <v>305003659</v>
+      </c>
       <c r="B90" s="14">
         <v>22</v>
       </c>
-      <c r="C90" s="15"/>
-      <c r="D90" s="53"/>
+      <c r="C90" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="D90" s="60">
+        <v>0.45833333333333331</v>
+      </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="3"/>
+      <c r="A91" s="3">
+        <v>305003659</v>
+      </c>
       <c r="B91" s="14">
         <v>44</v>
       </c>
-      <c r="C91" s="15"/>
-      <c r="D91" s="53"/>
+      <c r="C91" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="D91" s="60">
+        <v>0.39583333333333331</v>
+      </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="3"/>
+      <c r="A92" s="3">
+        <v>312143969</v>
+      </c>
       <c r="B92" s="14">
         <v>22</v>
       </c>
-      <c r="C92" s="15"/>
-      <c r="D92" s="53"/>
+      <c r="C92" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="D92" s="60">
+        <v>0.41666666666666669</v>
+      </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="3"/>
+      <c r="A93" s="2">
+        <v>200940997</v>
+      </c>
       <c r="B93" s="14">
         <v>33</v>
       </c>
-      <c r="C93" s="15"/>
-      <c r="D93" s="53"/>
+      <c r="C93" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="D93" s="60">
+        <v>0.41666666666666669</v>
+      </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="3"/>
+      <c r="A94" s="3">
+        <v>312143969</v>
+      </c>
       <c r="B94" s="14">
         <v>44</v>
       </c>
-      <c r="C94" s="15"/>
-      <c r="D94" s="53"/>
+      <c r="C94" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="D94" s="60">
+        <v>0.45833333333333331</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2419,10 +2540,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="57"/>
+      <c r="B1" s="58"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
@@ -2548,10 +2669,10 @@
     </row>
     <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="56" t="s">
+      <c r="A17" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="57"/>
+      <c r="B17" s="58"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="27" t="s">
@@ -2691,10 +2812,10 @@
     </row>
     <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="56" t="s">
+      <c r="A33" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="B33" s="57"/>
+      <c r="B33" s="58"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="27" t="s">

--- a/Acceptance Tests/Dispatcher.xlsx
+++ b/Acceptance Tests/Dispatcher.xlsx
@@ -1090,17 +1090,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1413,8 +1413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="E80" sqref="E80"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2175,184 +2175,256 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="17"/>
+      <c r="A65" s="19">
+        <v>1001</v>
+      </c>
       <c r="B65" s="18">
         <v>11</v>
       </c>
       <c r="C65" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="D65" s="19"/>
+      <c r="D65" s="57">
+        <v>0.41666666666666669</v>
+      </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="17"/>
+      <c r="A66" s="19">
+        <v>1001</v>
+      </c>
       <c r="B66" s="13">
         <v>11</v>
       </c>
       <c r="C66" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="D66" s="15"/>
+      <c r="D66" s="58">
+        <v>0.4375</v>
+      </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="17"/>
+      <c r="A67" s="15">
+        <v>1002</v>
+      </c>
       <c r="B67" s="14">
         <v>22</v>
       </c>
       <c r="C67" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="D67" s="15"/>
+      <c r="D67" s="58">
+        <v>0.41666666666666669</v>
+      </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="3"/>
+      <c r="A68" s="19">
+        <v>1001</v>
+      </c>
       <c r="B68" s="14">
         <v>11</v>
       </c>
       <c r="C68" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="D68" s="15"/>
+      <c r="D68" s="58">
+        <v>0.45833333333333331</v>
+      </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="3"/>
+      <c r="A69" s="15">
+        <v>1002</v>
+      </c>
       <c r="B69" s="14">
         <v>22</v>
       </c>
       <c r="C69" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="D69" s="15"/>
+      <c r="D69" s="58">
+        <v>0.41666666666666669</v>
+      </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="3"/>
+      <c r="A70" s="15">
+        <v>1004</v>
+      </c>
       <c r="B70" s="14">
         <v>44</v>
       </c>
       <c r="C70" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="D70" s="15"/>
+      <c r="D70" s="58">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="3"/>
+      <c r="A71" s="15">
+        <v>1002</v>
+      </c>
       <c r="B71" s="14">
         <v>22</v>
       </c>
       <c r="C71" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="D71" s="15"/>
+      <c r="D71" s="58">
+        <v>0.72916666666666663</v>
+      </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="3"/>
+      <c r="A72" s="15">
+        <v>1003</v>
+      </c>
       <c r="B72" s="14">
         <v>33</v>
       </c>
       <c r="C72" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="D72" s="15"/>
+      <c r="D72" s="58">
+        <v>0.58333333333333337</v>
+      </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="3"/>
+      <c r="A73" s="15">
+        <v>1004</v>
+      </c>
       <c r="B73" s="14">
         <v>44</v>
       </c>
       <c r="C73" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="D73" s="15"/>
+      <c r="D73" s="58">
+        <v>0.41666666666666669</v>
+      </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="17"/>
+      <c r="A74" s="19">
+        <v>1001</v>
+      </c>
       <c r="B74" s="18">
         <v>11</v>
       </c>
       <c r="C74" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="D74" s="19"/>
+      <c r="D74" s="57">
+        <v>0.39583333333333331</v>
+      </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="17"/>
+      <c r="A75" s="19">
+        <v>1001</v>
+      </c>
       <c r="B75" s="13">
         <v>11</v>
       </c>
       <c r="C75" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="D75" s="15"/>
+      <c r="D75" s="58">
+        <v>0.4375</v>
+      </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="17"/>
+      <c r="A76" s="15">
+        <v>1002</v>
+      </c>
       <c r="B76" s="14">
         <v>22</v>
       </c>
       <c r="C76" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="D76" s="15"/>
+      <c r="D76" s="58">
+        <v>0.41666666666666669</v>
+      </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="3"/>
+      <c r="A77" s="19">
+        <v>1001</v>
+      </c>
       <c r="B77" s="14">
         <v>11</v>
       </c>
       <c r="C77" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="D77" s="15"/>
+      <c r="D77" s="58">
+        <v>0.41666666666666669</v>
+      </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="3"/>
+      <c r="A78" s="15">
+        <v>1002</v>
+      </c>
       <c r="B78" s="14">
         <v>22</v>
       </c>
       <c r="C78" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="D78" s="15"/>
+      <c r="D78" s="58">
+        <v>0.4375</v>
+      </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="3"/>
+      <c r="A79" s="15">
+        <v>1004</v>
+      </c>
       <c r="B79" s="14">
         <v>44</v>
       </c>
       <c r="C79" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="D79" s="15"/>
+      <c r="D79" s="58">
+        <v>0.4375</v>
+      </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="3"/>
+      <c r="A80" s="15">
+        <v>1002</v>
+      </c>
       <c r="B80" s="14">
         <v>22</v>
       </c>
       <c r="C80" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="D80" s="15"/>
+      <c r="D80" s="58">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="3"/>
+      <c r="A81" s="15">
+        <v>1003</v>
+      </c>
       <c r="B81" s="14">
         <v>33</v>
       </c>
       <c r="C81" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="D81" s="15"/>
+      <c r="D81" s="58">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="3"/>
+      <c r="A82" s="15">
+        <v>1004</v>
+      </c>
       <c r="B82" s="14">
         <v>44</v>
       </c>
       <c r="C82" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="D82" s="15"/>
+      <c r="D82" s="58">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="84" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
@@ -2383,7 +2455,7 @@
       <c r="C86" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="D86" s="59">
+      <c r="D86" s="57">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -2397,7 +2469,7 @@
       <c r="C87" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D87" s="60">
+      <c r="D87" s="58">
         <v>0.4375</v>
       </c>
     </row>
@@ -2411,7 +2483,7 @@
       <c r="C88" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="D88" s="60">
+      <c r="D88" s="58">
         <v>0.375</v>
       </c>
     </row>
@@ -2425,7 +2497,7 @@
       <c r="C89" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="D89" s="60">
+      <c r="D89" s="58">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -2439,7 +2511,7 @@
       <c r="C90" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="D90" s="60">
+      <c r="D90" s="58">
         <v>0.45833333333333331</v>
       </c>
     </row>
@@ -2453,7 +2525,7 @@
       <c r="C91" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="D91" s="60">
+      <c r="D91" s="58">
         <v>0.39583333333333331</v>
       </c>
     </row>
@@ -2467,7 +2539,7 @@
       <c r="C92" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="D92" s="60">
+      <c r="D92" s="58">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -2481,7 +2553,7 @@
       <c r="C93" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="D93" s="60">
+      <c r="D93" s="58">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -2495,7 +2567,7 @@
       <c r="C94" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="D94" s="60">
+      <c r="D94" s="58">
         <v>0.45833333333333331</v>
       </c>
     </row>
@@ -2540,10 +2612,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="58"/>
+      <c r="B1" s="60"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
@@ -2669,10 +2741,10 @@
     </row>
     <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="57" t="s">
+      <c r="A17" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="58"/>
+      <c r="B17" s="60"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="27" t="s">
@@ -2812,10 +2884,10 @@
     </row>
     <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="57" t="s">
+      <c r="A33" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="B33" s="58"/>
+      <c r="B33" s="60"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="27" t="s">

--- a/Acceptance Tests/Dispatcher.xlsx
+++ b/Acceptance Tests/Dispatcher.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DataBase" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="209">
   <si>
     <t xml:space="preserve">Use Case: </t>
   </si>
@@ -611,6 +611,90 @@
   </si>
   <si>
     <t>10.10.16</t>
+  </si>
+  <si>
+    <t>SpecialityFound</t>
+  </si>
+  <si>
+    <t>SpecialityNotFound</t>
+  </si>
+  <si>
+    <t>Orthopedy</t>
+  </si>
+  <si>
+    <t>NotSelected</t>
+  </si>
+  <si>
+    <t>1. Open "Create Appointment" window
+2. Choose from list: Dentist
+3. Click OK</t>
+  </si>
+  <si>
+    <t>1. Open "Create Appointment" window
+2. Choose from list: Orthophedy
+3. Click OK</t>
+  </si>
+  <si>
+    <t>1. Open "Create Appointment" window
+2. Choose from list: 
+3. Click OK</t>
+  </si>
+  <si>
+    <t>system check for valid choose. System search for Orthopedy.
+System displays all the available orthopedists and their locations.
+System sort result by previews appoinments to ID .</t>
+  </si>
+  <si>
+    <t>system check for valid choose.
+System search for Dentist.
+System display error for no available Dentists.</t>
+  </si>
+  <si>
+    <t>System checks for valid choose.
+System display error "must choose a speciality before continue"</t>
+  </si>
+  <si>
+    <t>Speciality has found.</t>
+  </si>
+  <si>
+    <t>Speciality not found in database.</t>
+  </si>
+  <si>
+    <t>No option selected from list</t>
+  </si>
+  <si>
+    <t>Acceptance Testing for Use Case: Choose Doctor</t>
+  </si>
+  <si>
+    <t>Choose Doctor</t>
+  </si>
+  <si>
+    <t>AppointmentsFound</t>
+  </si>
+  <si>
+    <t>NoAvailableAppointments</t>
+  </si>
+  <si>
+    <t>1. Open "Choose Doctor" window.
+2. Select: Moshe Moshe
+3. Click OK</t>
+  </si>
+  <si>
+    <t>1. Open "Choose Doctor" window.
+2. Select: Yakir Kandian
+3. Click OK</t>
+  </si>
+  <si>
+    <t>Acceptance Testing for Use Case: Choose Date</t>
+  </si>
+  <si>
+    <t>Choose Date</t>
+  </si>
+  <si>
+    <t>Acceptance Testing for Use Case: Cancel Appointment</t>
+  </si>
+  <si>
+    <t>Cancel Appointment</t>
   </si>
 </sst>
 </file>
@@ -1411,10 +1495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H94"/>
+  <dimension ref="A2:H92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D82" sqref="D82"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1871,7 +1955,7 @@
         <v>79</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>83</v>
+        <v>188</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -2274,94 +2358,94 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="15">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B72" s="14">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D72" s="58">
-        <v>0.58333333333333337</v>
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="15">
-        <v>1004</v>
-      </c>
-      <c r="B73" s="14">
-        <v>44</v>
+      <c r="A73" s="19">
+        <v>1001</v>
+      </c>
+      <c r="B73" s="18">
+        <v>11</v>
       </c>
       <c r="C73" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="D73" s="58">
-        <v>0.41666666666666669</v>
+      <c r="D73" s="57">
+        <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="19">
         <v>1001</v>
       </c>
-      <c r="B74" s="18">
+      <c r="B74" s="13">
         <v>11</v>
       </c>
       <c r="C74" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="D74" s="57">
-        <v>0.39583333333333331</v>
+      <c r="D74" s="58">
+        <v>0.4375</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="19">
-        <v>1001</v>
-      </c>
-      <c r="B75" s="13">
-        <v>11</v>
+      <c r="A75" s="15">
+        <v>1002</v>
+      </c>
+      <c r="B75" s="14">
+        <v>22</v>
       </c>
       <c r="C75" s="15" t="s">
         <v>184</v>
       </c>
       <c r="D75" s="58">
-        <v>0.4375</v>
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="15">
-        <v>1002</v>
+      <c r="A76" s="19">
+        <v>1001</v>
       </c>
       <c r="B76" s="14">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D76" s="58">
         <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="19">
-        <v>1001</v>
+      <c r="A77" s="15">
+        <v>1002</v>
       </c>
       <c r="B77" s="14">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C77" s="15" t="s">
         <v>185</v>
       </c>
       <c r="D77" s="58">
-        <v>0.41666666666666669</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="15">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="B78" s="14">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C78" s="15" t="s">
         <v>185</v>
@@ -2372,24 +2456,24 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="15">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="B79" s="14">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C79" s="15" t="s">
         <v>185</v>
       </c>
       <c r="D79" s="58">
-        <v>0.4375</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="15">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="B80" s="14">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C80" s="15" t="s">
         <v>185</v>
@@ -2398,93 +2482,93 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="15">
-        <v>1003</v>
-      </c>
-      <c r="B81" s="14">
-        <v>33</v>
-      </c>
-      <c r="C81" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="D81" s="58">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="15">
-        <v>1004</v>
-      </c>
-      <c r="B82" s="14">
-        <v>44</v>
-      </c>
-      <c r="C82" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="D82" s="58">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="1" t="s">
+    <row r="82" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="29" t="s">
+    <row r="83" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="B85" s="46" t="s">
+      <c r="B83" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="C85" s="31" t="s">
+      <c r="C83" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="D85" s="31" t="s">
+      <c r="D83" s="31" t="s">
         <v>110</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="17">
+        <v>302632195</v>
+      </c>
+      <c r="B84" s="18">
+        <v>11</v>
+      </c>
+      <c r="C84" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="D84" s="57">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>200940997</v>
+      </c>
+      <c r="B85" s="13">
+        <v>11</v>
+      </c>
+      <c r="C85" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="D85" s="58">
+        <v>0.4375</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="17">
         <v>302632195</v>
       </c>
-      <c r="B86" s="18">
+      <c r="B86" s="14">
+        <v>22</v>
+      </c>
+      <c r="C86" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="D86" s="58">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>305003659</v>
+      </c>
+      <c r="B87" s="14">
         <v>11</v>
       </c>
-      <c r="C86" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="D86" s="57">
+      <c r="C87" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="D87" s="58">
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="2">
-        <v>200940997</v>
-      </c>
-      <c r="B87" s="13">
-        <v>11</v>
-      </c>
-      <c r="C87" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D87" s="58">
-        <v>0.4375</v>
-      </c>
-    </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="17">
-        <v>302632195</v>
+      <c r="A88" s="3">
+        <v>305003659</v>
       </c>
       <c r="B88" s="14">
         <v>22</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D88" s="58">
-        <v>0.375</v>
+        <v>0.45833333333333331</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -2492,41 +2576,41 @@
         <v>305003659</v>
       </c>
       <c r="B89" s="14">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="C89" s="15" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D89" s="58">
-        <v>0.41666666666666669</v>
+        <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
-        <v>305003659</v>
+        <v>312143969</v>
       </c>
       <c r="B90" s="14">
         <v>22</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D90" s="58">
-        <v>0.45833333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="3">
-        <v>305003659</v>
+      <c r="A91" s="2">
+        <v>200940997</v>
       </c>
       <c r="B91" s="14">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C91" s="15" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D91" s="58">
-        <v>0.39583333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -2534,40 +2618,12 @@
         <v>312143969</v>
       </c>
       <c r="B92" s="14">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C92" s="15" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D92" s="58">
-        <v>0.41666666666666669</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="2">
-        <v>200940997</v>
-      </c>
-      <c r="B93" s="14">
-        <v>33</v>
-      </c>
-      <c r="C93" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="D93" s="58">
-        <v>0.41666666666666669</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="3">
-        <v>312143969</v>
-      </c>
-      <c r="B94" s="14">
-        <v>44</v>
-      </c>
-      <c r="C94" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="D94" s="58">
         <v>0.45833333333333331</v>
       </c>
     </row>
@@ -2597,10 +2653,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D83"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2920,7 +2976,9 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="38"/>
+      <c r="A39" s="22" t="s">
+        <v>13</v>
+      </c>
       <c r="B39" s="39"/>
       <c r="C39" s="40"/>
       <c r="D39" s="41"/>
@@ -2939,55 +2997,324 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="4"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="47"/>
-      <c r="D41" s="48"/>
-    </row>
-    <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="4"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="8"/>
-    </row>
-    <row r="43" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="7"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="11"/>
-    </row>
-    <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="12"/>
-      <c r="B44" s="37"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="11"/>
-    </row>
-    <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="12"/>
-      <c r="B45" s="37"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="11"/>
-    </row>
-    <row r="46" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="7" t="s">
+    <row r="41" spans="1:4" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C41" s="47" t="s">
+        <v>193</v>
+      </c>
+      <c r="D41" s="48" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D42" s="36" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B46" s="37" t="s">
+      <c r="B44" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C44" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D46" s="11" t="s">
+      <c r="D44" s="11" t="s">
         <v>28</v>
       </c>
     </row>
+    <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="59" t="s">
+        <v>199</v>
+      </c>
+      <c r="B47" s="60"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="26" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" s="24"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51" s="25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" s="35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C55" s="47"/>
+      <c r="D55" s="48"/>
+    </row>
+    <row r="56" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C56" s="6"/>
+      <c r="D56" s="36"/>
+    </row>
+    <row r="57" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B57" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="59" t="s">
+        <v>205</v>
+      </c>
+      <c r="B60" s="60"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" s="26" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B63" s="24"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B64" s="25" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B67" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D67" s="35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="4"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="47"/>
+      <c r="D68" s="48"/>
+    </row>
+    <row r="69" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="4"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="36"/>
+    </row>
+    <row r="70" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B70" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="73" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="59" t="s">
+        <v>207</v>
+      </c>
+      <c r="B73" s="60"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" s="26" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B75" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B76" s="24"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B77" s="25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B80" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C80" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D80" s="35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="4"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="47"/>
+      <c r="D81" s="48"/>
+    </row>
+    <row r="82" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="4"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="36"/>
+    </row>
+    <row r="83" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B83" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D83" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
+    <mergeCell ref="A73:B73"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A60:B60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/Acceptance Tests/Dispatcher.xlsx
+++ b/Acceptance Tests/Dispatcher.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26905"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asaf/Desktop/GHealth-System/Acceptance Tests/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DataBase" sheetId="2" r:id="rId1"/>
@@ -15,11 +20,11 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -700,7 +705,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1188,8 +1193,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="היפר-קישור" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1497,28 +1502,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H92"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>115</v>
       </c>
@@ -1544,7 +1549,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>117</v>
       </c>
@@ -1570,7 +1575,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>119</v>
       </c>
@@ -1596,7 +1601,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>121</v>
       </c>
@@ -1622,7 +1627,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>122</v>
       </c>
@@ -1648,7 +1653,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>123</v>
       </c>
@@ -1674,7 +1679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>125</v>
       </c>
@@ -1700,7 +1705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>129</v>
       </c>
@@ -1726,7 +1731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>168</v>
       </c>
@@ -1752,7 +1757,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>170</v>
       </c>
@@ -1778,7 +1783,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>171</v>
       </c>
@@ -1804,7 +1809,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>173</v>
       </c>
@@ -1830,7 +1835,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>175</v>
       </c>
@@ -1856,12 +1861,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>7</v>
       </c>
@@ -1875,7 +1880,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="17">
         <v>302632195</v>
       </c>
@@ -1889,7 +1894,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>200940997</v>
       </c>
@@ -1903,7 +1908,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>312143969</v>
       </c>
@@ -1917,7 +1922,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>305003659</v>
       </c>
@@ -1931,12 +1936,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
         <v>132</v>
       </c>
@@ -1947,7 +1952,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="15">
         <v>1002</v>
       </c>
@@ -1958,7 +1963,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="15">
         <v>1004</v>
       </c>
@@ -1969,7 +1974,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="15">
         <v>1003</v>
       </c>
@@ -1980,7 +1985,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="19">
         <v>1001</v>
       </c>
@@ -1991,90 +1996,90 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="38"/>
       <c r="B31" s="39"/>
       <c r="C31" s="40"/>
     </row>
-    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="46" t="s">
         <v>78</v>
       </c>
       <c r="B33" s="45"/>
       <c r="C33" s="42"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="19" t="s">
         <v>83</v>
       </c>
       <c r="B34" s="39"/>
       <c r="C34" s="43"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="15" t="s">
         <v>85</v>
       </c>
       <c r="B35" s="39"/>
       <c r="C35" s="43"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
         <v>86</v>
       </c>
       <c r="B36" s="39"/>
       <c r="C36" s="43"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="15" t="s">
         <v>84</v>
       </c>
       <c r="B37" s="39"/>
       <c r="C37" s="43"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
         <v>88</v>
       </c>
       <c r="B38" s="39"/>
       <c r="C38" s="43"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="15" t="s">
         <v>89</v>
       </c>
       <c r="B39" s="39"/>
       <c r="C39" s="43"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
         <v>90</v>
       </c>
       <c r="B40" s="39"/>
       <c r="C40" s="43"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="15" t="s">
         <v>91</v>
       </c>
       <c r="B41" s="39"/>
       <c r="C41" s="43"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="40"/>
       <c r="B42" s="39"/>
       <c r="C42" s="43"/>
     </row>
-    <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="44" t="s">
         <v>93</v>
       </c>
@@ -2083,7 +2088,7 @@
       </c>
       <c r="C44" s="42"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="17">
         <v>11</v>
       </c>
@@ -2092,7 +2097,7 @@
       </c>
       <c r="C45" s="43"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>22</v>
       </c>
@@ -2101,7 +2106,7 @@
       </c>
       <c r="C46" s="43"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>33</v>
       </c>
@@ -2110,7 +2115,7 @@
       </c>
       <c r="C47" s="43"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>44</v>
       </c>
@@ -2119,17 +2124,17 @@
       </c>
       <c r="C48" s="43"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="38"/>
       <c r="B49" s="39"/>
       <c r="C49" s="40"/>
     </row>
-    <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="29" t="s">
         <v>7</v>
       </c>
@@ -2140,7 +2145,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="17">
         <v>302632195</v>
       </c>
@@ -2151,7 +2156,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="17">
         <v>302632195</v>
       </c>
@@ -2162,7 +2167,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="17">
         <v>302632195</v>
       </c>
@@ -2173,7 +2178,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>200940997</v>
       </c>
@@ -2184,7 +2189,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>200940997</v>
       </c>
@@ -2195,7 +2200,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>305003659</v>
       </c>
@@ -2206,7 +2211,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>312143969</v>
       </c>
@@ -2217,7 +2222,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>305003659</v>
       </c>
@@ -2228,7 +2233,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>312143969</v>
       </c>
@@ -2239,12 +2244,12 @@
         <v>108</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="29" t="s">
         <v>76</v>
       </c>
@@ -2258,7 +2263,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="19">
         <v>1001</v>
       </c>
@@ -2272,7 +2277,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="19">
         <v>1001</v>
       </c>
@@ -2286,7 +2291,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="15">
         <v>1002</v>
       </c>
@@ -2300,7 +2305,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="19">
         <v>1001</v>
       </c>
@@ -2314,7 +2319,7 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="15">
         <v>1002</v>
       </c>
@@ -2328,7 +2333,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="15">
         <v>1004</v>
       </c>
@@ -2342,7 +2347,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="15">
         <v>1002</v>
       </c>
@@ -2356,7 +2361,7 @@
         <v>0.72916666666666663</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="15">
         <v>1004</v>
       </c>
@@ -2370,7 +2375,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="19">
         <v>1001</v>
       </c>
@@ -2384,7 +2389,7 @@
         <v>0.39583333333333331</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="19">
         <v>1001</v>
       </c>
@@ -2398,7 +2403,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="15">
         <v>1002</v>
       </c>
@@ -2412,7 +2417,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="19">
         <v>1001</v>
       </c>
@@ -2426,7 +2431,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="15">
         <v>1002</v>
       </c>
@@ -2440,7 +2445,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="15">
         <v>1004</v>
       </c>
@@ -2454,7 +2459,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="15">
         <v>1002</v>
       </c>
@@ -2468,7 +2473,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="15">
         <v>1004</v>
       </c>
@@ -2482,12 +2487,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="29" t="s">
         <v>112</v>
       </c>
@@ -2501,7 +2506,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="17">
         <v>302632195</v>
       </c>
@@ -2515,7 +2520,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>200940997</v>
       </c>
@@ -2529,7 +2534,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="17">
         <v>302632195</v>
       </c>
@@ -2543,7 +2548,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>305003659</v>
       </c>
@@ -2557,7 +2562,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>305003659</v>
       </c>
@@ -2571,7 +2576,7 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>305003659</v>
       </c>
@@ -2585,7 +2590,7 @@
         <v>0.39583333333333331</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>312143969</v>
       </c>
@@ -2599,7 +2604,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>200940997</v>
       </c>
@@ -2613,7 +2618,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
         <v>312143969</v>
       </c>
@@ -2655,25 +2660,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.28515625" customWidth="1"/>
+    <col min="1" max="1" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.33203125" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="59" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="60"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
@@ -2681,7 +2686,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="28" t="s">
         <v>1</v>
       </c>
@@ -2689,13 +2694,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="28" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="24"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="28" t="s">
         <v>3</v>
       </c>
@@ -2703,7 +2708,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
         <v>13</v>
       </c>
@@ -2711,7 +2716,7 @@
       <c r="C8" s="21"/>
       <c r="D8" s="21"/>
     </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
         <v>14</v>
       </c>
@@ -2725,7 +2730,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
@@ -2739,7 +2744,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
@@ -2753,7 +2758,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>19</v>
       </c>
@@ -2767,7 +2772,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>23</v>
       </c>
@@ -2781,7 +2786,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>46</v>
       </c>
@@ -2795,14 +2800,14 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="59" t="s">
         <v>44</v>
       </c>
       <c r="B17" s="60"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="27" t="s">
         <v>0</v>
       </c>
@@ -2810,7 +2815,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="28" t="s">
         <v>1</v>
       </c>
@@ -2818,13 +2823,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="28" t="s">
         <v>2</v>
       </c>
       <c r="B20" s="24"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="28" t="s">
         <v>3</v>
       </c>
@@ -2832,7 +2837,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="22" t="s">
         <v>13</v>
       </c>
@@ -2840,7 +2845,7 @@
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
     </row>
-    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
         <v>14</v>
       </c>
@@ -2854,7 +2859,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>49</v>
       </c>
@@ -2868,7 +2873,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>50</v>
       </c>
@@ -2882,7 +2887,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>51</v>
       </c>
@@ -2896,7 +2901,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>52</v>
       </c>
@@ -2910,7 +2915,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>53</v>
       </c>
@@ -2924,7 +2929,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>23</v>
       </c>
@@ -2938,14 +2943,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="59" t="s">
         <v>72</v>
       </c>
       <c r="B33" s="60"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="27" t="s">
         <v>0</v>
       </c>
@@ -2953,7 +2958,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="28" t="s">
         <v>1</v>
       </c>
@@ -2961,13 +2966,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="28" t="s">
         <v>2</v>
       </c>
       <c r="B36" s="24"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="28" t="s">
         <v>3</v>
       </c>
@@ -2975,7 +2980,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
         <v>13</v>
       </c>
@@ -2983,7 +2988,7 @@
       <c r="C39" s="40"/>
       <c r="D39" s="41"/>
     </row>
-    <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="32" t="s">
         <v>14</v>
       </c>
@@ -2997,7 +3002,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="91" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>186</v>
       </c>
@@ -3011,7 +3016,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>187</v>
       </c>
@@ -3025,7 +3030,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>189</v>
       </c>
@@ -3039,7 +3044,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>23</v>
       </c>
@@ -3053,14 +3058,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="59" t="s">
         <v>199</v>
       </c>
       <c r="B47" s="60"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="27" t="s">
         <v>0</v>
       </c>
@@ -3068,7 +3073,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="28" t="s">
         <v>1</v>
       </c>
@@ -3076,13 +3081,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="28" t="s">
         <v>2</v>
       </c>
       <c r="B50" s="24"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="28" t="s">
         <v>3</v>
       </c>
@@ -3090,12 +3095,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="32" t="s">
         <v>14</v>
       </c>
@@ -3109,7 +3114,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>201</v>
       </c>
@@ -3119,7 +3124,7 @@
       <c r="C55" s="47"/>
       <c r="D55" s="48"/>
     </row>
-    <row r="56" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>202</v>
       </c>
@@ -3129,7 +3134,7 @@
       <c r="C56" s="6"/>
       <c r="D56" s="36"/>
     </row>
-    <row r="57" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>23</v>
       </c>
@@ -3143,14 +3148,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="60" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="59" t="s">
         <v>205</v>
       </c>
       <c r="B60" s="60"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="27" t="s">
         <v>0</v>
       </c>
@@ -3158,7 +3163,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="28" t="s">
         <v>1</v>
       </c>
@@ -3166,13 +3171,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="28" t="s">
         <v>2</v>
       </c>
       <c r="B63" s="24"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="28" t="s">
         <v>3</v>
       </c>
@@ -3180,12 +3185,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="32" t="s">
         <v>14</v>
       </c>
@@ -3199,19 +3204,19 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="5"/>
       <c r="C68" s="47"/>
       <c r="D68" s="48"/>
     </row>
-    <row r="69" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="5"/>
       <c r="C69" s="6"/>
       <c r="D69" s="36"/>
     </row>
-    <row r="70" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>23</v>
       </c>
@@ -3225,14 +3230,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="73" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="59" t="s">
         <v>207</v>
       </c>
       <c r="B73" s="60"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="27" t="s">
         <v>0</v>
       </c>
@@ -3240,7 +3245,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="28" t="s">
         <v>1</v>
       </c>
@@ -3248,13 +3253,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="28" t="s">
         <v>2</v>
       </c>
       <c r="B76" s="24"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="28" t="s">
         <v>3</v>
       </c>
@@ -3262,12 +3267,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="32" t="s">
         <v>14</v>
       </c>
@@ -3281,19 +3286,19 @@
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="5"/>
       <c r="C81" s="47"/>
       <c r="D81" s="48"/>
     </row>
-    <row r="82" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="5"/>
       <c r="C82" s="6"/>
       <c r="D82" s="36"/>
     </row>
-    <row r="83" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>23</v>
       </c>

--- a/Acceptance Tests/Dispatcher.xlsx
+++ b/Acceptance Tests/Dispatcher.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26905"/>
-  <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asaf/Desktop/GHealth-System/Acceptance Tests/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DataBase" sheetId="2" r:id="rId1"/>
@@ -20,18 +15,18 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="245">
   <si>
     <t xml:space="preserve">Use Case: </t>
   </si>
@@ -650,15 +645,6 @@
 System sort result by previews appoinments to ID .</t>
   </si>
   <si>
-    <t>system check for valid choose.
-System search for Dentist.
-System display error for no available Dentists.</t>
-  </si>
-  <si>
-    <t>System checks for valid choose.
-System display error "must choose a speciality before continue"</t>
-  </si>
-  <si>
     <t>Speciality has found.</t>
   </si>
   <si>
@@ -700,12 +686,154 @@
   </si>
   <si>
     <t>Cancel Appointment</t>
+  </si>
+  <si>
+    <t>NotSelectedDoctor</t>
+  </si>
+  <si>
+    <t>1. Open "Choose Doctor" window.
+2. Select: 
+3. Click OK</t>
+  </si>
+  <si>
+    <t>display available appointments.</t>
+  </si>
+  <si>
+    <t>in case there are no available appoitments</t>
+  </si>
+  <si>
+    <t>in case the user clicks ok without choosing a doctor</t>
+  </si>
+  <si>
+    <t>system check for valid choose. 
+System search for available appointments for dr. Moshe Moshe. System displays all available appointments (date and time).</t>
+  </si>
+  <si>
+    <t>system check for valid choose. 
+System search for available appointments for dr. Yakir Kandian. System not found any available appointments. System display error for no available appointments. Return to choose doctor screen.</t>
+  </si>
+  <si>
+    <t>system check for valid choose. 
+Validation failed. System displays error message "must choose doctor before continue". Return to choose doctor screen.</t>
+  </si>
+  <si>
+    <t>system check for valid choose.
+System search for Dentist.
+System display error for no available Dentists. Return to create appointment screen.</t>
+  </si>
+  <si>
+    <t>System checks for valid choose.
+Validation failed.
+System display error "must choose a speciality before continue". Return to create appointment screen.</t>
+  </si>
+  <si>
+    <t>AppointmentCreated</t>
+  </si>
+  <si>
+    <t>in case the appointment created successfully</t>
+  </si>
+  <si>
+    <t>AppointmentNotCreated</t>
+  </si>
+  <si>
+    <t>1. Open "Choose Date" window.
+2. Choose: 
+3. Click OK</t>
+  </si>
+  <si>
+    <t>NoAppointmentSelected</t>
+  </si>
+  <si>
+    <t>1. Open "Choose Date" window.</t>
+  </si>
+  <si>
+    <t>in case the user didn’t choose a date and clicked ok.</t>
+  </si>
+  <si>
+    <t>CancelSuccessful</t>
+  </si>
+  <si>
+    <t>1. Open "Choose Date" window.
+2. Choose: 6.8.16 , 10:00
+3. Click OK</t>
+  </si>
+  <si>
+    <t>1. Open "Choose Date" window.
+2. Choose: 6.8.16, 10:00
+3. Click OK</t>
+  </si>
+  <si>
+    <t>in case another dispatcher choosed the same date and time for the same doctor.
+Example: 2 or more users did the same previews stages with the same input and now view the same screen. User1 choose 6.8.16, 10:00, appointment created succesfuly for him, but User2 still view the screen and able to choose 6.8.16, 10:00.</t>
+  </si>
+  <si>
+    <t>System chekcs for valid choose.
+System create appointment to client ####. System display message that the apponitment created successfully.</t>
+  </si>
+  <si>
+    <t>system check for valid choose. 
+Validation failed. System displays error message "must choose a date before continue". Return to choose date screen.</t>
+  </si>
+  <si>
+    <t>System chekcs for valid choose. System try to create an appointment to client #### at 6.8.16 , 10:00.
+System display DB error. System return to choose date screen.</t>
+  </si>
+  <si>
+    <t>NoAppointmentSelectedToCancel</t>
+  </si>
+  <si>
+    <t>in case the user didn’t choose any appointment and clicked ok.</t>
+  </si>
+  <si>
+    <t>in case the user choose an appointment to cancel and the cancel operation success.</t>
+  </si>
+  <si>
+    <t>in case the user tries to cancel an appointments that occurs in the next 24hrs.</t>
+  </si>
+  <si>
+    <t>1. Open "Cancel Appointment" window.
+2. Choose: 1.8.16 , 10:00
+3. Click Ok</t>
+  </si>
+  <si>
+    <t>LessThanOneDayCancelation</t>
+  </si>
+  <si>
+    <t>1. Open "Cancel Appointment" window.
+2. Choose: 
+3. Click Ok</t>
+  </si>
+  <si>
+    <t>1. Open "Cancel Appointment" window.</t>
+  </si>
+  <si>
+    <t>1. Open "Create Appointment" window.</t>
+  </si>
+  <si>
+    <t>1. Open "Choose Doctor" window.</t>
+  </si>
+  <si>
+    <t>system checks for valid choose.
+System checks if the appointment date is not in the next 24hrs. System display message that the appointment canceled susccessfuly.</t>
+  </si>
+  <si>
+    <t>1. Open "Cancel Appointment" window.
+2. Choose: 4.4.16, 10:30
+3. Click Ok</t>
+  </si>
+  <si>
+    <t>system checks for valid choose.
+System checks if the appointment date is not in the next 24hrs. System display message that the appointment cannot be canceled because the appointment is in the next 24hrs. Return to cancel appointment screen.</t>
+  </si>
+  <si>
+    <t>system check for valid choose. 
+Validation failed. System displays error message "must choose an appointment before continue". Return to cancel appointment screen.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -787,7 +915,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1014,12 +1142,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1191,10 +1330,28 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="היפר-קישור" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1500,30 +1657,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H92"/>
+  <dimension ref="A2:H90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>115</v>
       </c>
@@ -1549,7 +1706,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>117</v>
       </c>
@@ -1575,7 +1732,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>119</v>
       </c>
@@ -1601,7 +1758,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>121</v>
       </c>
@@ -1627,7 +1784,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>122</v>
       </c>
@@ -1653,7 +1810,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>123</v>
       </c>
@@ -1679,7 +1836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>125</v>
       </c>
@@ -1705,7 +1862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>129</v>
       </c>
@@ -1731,7 +1888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>168</v>
       </c>
@@ -1757,7 +1914,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>170</v>
       </c>
@@ -1783,7 +1940,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>171</v>
       </c>
@@ -1809,7 +1966,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>173</v>
       </c>
@@ -1835,7 +1992,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>175</v>
       </c>
@@ -1861,12 +2018,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
         <v>7</v>
       </c>
@@ -1880,7 +2037,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="17">
         <v>302632195</v>
       </c>
@@ -1894,7 +2051,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>200940997</v>
       </c>
@@ -1908,7 +2065,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>312143969</v>
       </c>
@@ -1922,7 +2079,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>305003659</v>
       </c>
@@ -1936,12 +2093,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="29" t="s">
         <v>132</v>
       </c>
@@ -1952,7 +2109,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>1002</v>
       </c>
@@ -1963,7 +2120,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>1004</v>
       </c>
@@ -1974,7 +2131,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <v>1003</v>
       </c>
@@ -1985,7 +2142,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="19">
         <v>1001</v>
       </c>
@@ -1996,90 +2153,90 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="38"/>
       <c r="B31" s="39"/>
       <c r="C31" s="40"/>
     </row>
-    <row r="32" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="46" t="s">
         <v>78</v>
       </c>
       <c r="B33" s="45"/>
       <c r="C33" s="42"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
         <v>83</v>
       </c>
       <c r="B34" s="39"/>
       <c r="C34" s="43"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
         <v>85</v>
       </c>
       <c r="B35" s="39"/>
       <c r="C35" s="43"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
         <v>86</v>
       </c>
       <c r="B36" s="39"/>
       <c r="C36" s="43"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
         <v>84</v>
       </c>
       <c r="B37" s="39"/>
       <c r="C37" s="43"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
         <v>88</v>
       </c>
       <c r="B38" s="39"/>
       <c r="C38" s="43"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
         <v>89</v>
       </c>
       <c r="B39" s="39"/>
       <c r="C39" s="43"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
         <v>90</v>
       </c>
       <c r="B40" s="39"/>
       <c r="C40" s="43"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
         <v>91</v>
       </c>
       <c r="B41" s="39"/>
       <c r="C41" s="43"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="39"/>
       <c r="C42" s="43"/>
     </row>
-    <row r="43" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="44" t="s">
         <v>93</v>
       </c>
@@ -2088,7 +2245,7 @@
       </c>
       <c r="C44" s="42"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="17">
         <v>11</v>
       </c>
@@ -2097,7 +2254,7 @@
       </c>
       <c r="C45" s="43"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>22</v>
       </c>
@@ -2106,7 +2263,7 @@
       </c>
       <c r="C46" s="43"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>33</v>
       </c>
@@ -2115,7 +2272,7 @@
       </c>
       <c r="C47" s="43"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>44</v>
       </c>
@@ -2124,17 +2281,17 @@
       </c>
       <c r="C48" s="43"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="38"/>
       <c r="B49" s="39"/>
       <c r="C49" s="40"/>
     </row>
-    <row r="51" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="29" t="s">
         <v>7</v>
       </c>
@@ -2145,7 +2302,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="17">
         <v>302632195</v>
       </c>
@@ -2156,7 +2313,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="17">
         <v>302632195</v>
       </c>
@@ -2167,7 +2324,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="17">
         <v>302632195</v>
       </c>
@@ -2178,7 +2335,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>200940997</v>
       </c>
@@ -2189,7 +2346,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>200940997</v>
       </c>
@@ -2200,7 +2357,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>305003659</v>
       </c>
@@ -2211,7 +2368,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>312143969</v>
       </c>
@@ -2222,7 +2379,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>305003659</v>
       </c>
@@ -2233,7 +2390,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>312143969</v>
       </c>
@@ -2244,12 +2401,12 @@
         <v>108</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="29" t="s">
         <v>76</v>
       </c>
@@ -2263,7 +2420,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="19">
         <v>1001</v>
       </c>
@@ -2277,7 +2434,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="19">
         <v>1001</v>
       </c>
@@ -2291,7 +2448,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="15">
         <v>1002</v>
       </c>
@@ -2305,7 +2462,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="19">
         <v>1001</v>
       </c>
@@ -2319,7 +2476,7 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="15">
         <v>1002</v>
       </c>
@@ -2333,7 +2490,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="15">
         <v>1004</v>
       </c>
@@ -2347,7 +2504,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="15">
         <v>1002</v>
       </c>
@@ -2361,7 +2518,7 @@
         <v>0.72916666666666663</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="15">
         <v>1004</v>
       </c>
@@ -2375,7 +2532,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="19">
         <v>1001</v>
       </c>
@@ -2389,7 +2546,7 @@
         <v>0.39583333333333331</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="19">
         <v>1001</v>
       </c>
@@ -2403,7 +2560,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="15">
         <v>1002</v>
       </c>
@@ -2417,7 +2574,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="19">
         <v>1001</v>
       </c>
@@ -2431,7 +2588,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="15">
         <v>1002</v>
       </c>
@@ -2445,7 +2602,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="15">
         <v>1004</v>
       </c>
@@ -2459,7 +2616,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="15">
         <v>1002</v>
       </c>
@@ -2473,7 +2630,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="15">
         <v>1004</v>
       </c>
@@ -2487,12 +2644,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="29" t="s">
         <v>112</v>
       </c>
@@ -2506,7 +2663,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="17">
         <v>302632195</v>
       </c>
@@ -2520,115 +2677,87 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="2">
-        <v>200940997</v>
-      </c>
-      <c r="B85" s="13">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="17">
+        <v>302632195</v>
+      </c>
+      <c r="B85" s="14">
+        <v>22</v>
+      </c>
+      <c r="C85" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="D85" s="58">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <v>305003659</v>
+      </c>
+      <c r="B86" s="14">
         <v>11</v>
       </c>
-      <c r="C85" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D85" s="58">
-        <v>0.4375</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="17">
-        <v>302632195</v>
-      </c>
-      <c r="B86" s="14">
-        <v>22</v>
-      </c>
       <c r="C86" s="15" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D86" s="58">
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>305003659</v>
       </c>
       <c r="B87" s="14">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D87" s="58">
-        <v>0.41666666666666669</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>305003659</v>
       </c>
       <c r="B88" s="14">
+        <v>44</v>
+      </c>
+      <c r="C88" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="D88" s="58">
+        <v>0.39583333333333331</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <v>312143969</v>
+      </c>
+      <c r="B89" s="14">
         <v>22</v>
       </c>
-      <c r="C88" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="D88" s="58">
-        <v>0.45833333333333331</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="3">
-        <v>305003659</v>
-      </c>
-      <c r="B89" s="14">
-        <v>44</v>
-      </c>
       <c r="C89" s="15" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D89" s="58">
-        <v>0.39583333333333331</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>312143969</v>
       </c>
       <c r="B90" s="14">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D90" s="58">
-        <v>0.41666666666666669</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="2">
-        <v>200940997</v>
-      </c>
-      <c r="B91" s="14">
-        <v>33</v>
-      </c>
-      <c r="C91" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="D91" s="58">
-        <v>0.41666666666666669</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="3">
-        <v>312143969</v>
-      </c>
-      <c r="B92" s="14">
-        <v>44</v>
-      </c>
-      <c r="C92" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="D92" s="58">
         <v>0.45833333333333331</v>
       </c>
     </row>
@@ -2658,27 +2787,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D83"/>
+  <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="F83" sqref="F83"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.33203125" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.28515625" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="59" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="60"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
@@ -2686,7 +2815,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>1</v>
       </c>
@@ -2694,13 +2823,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="24"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>3</v>
       </c>
@@ -2708,7 +2837,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="22" t="s">
         <v>13</v>
       </c>
@@ -2716,7 +2845,7 @@
       <c r="C8" s="21"/>
       <c r="D8" s="21"/>
     </row>
-    <row r="9" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="32" t="s">
         <v>14</v>
       </c>
@@ -2730,7 +2859,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
@@ -2744,7 +2873,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
@@ -2758,7 +2887,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>19</v>
       </c>
@@ -2772,7 +2901,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>23</v>
       </c>
@@ -2786,7 +2915,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>46</v>
       </c>
@@ -2800,14 +2929,14 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="59" t="s">
         <v>44</v>
       </c>
       <c r="B17" s="60"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="27" t="s">
         <v>0</v>
       </c>
@@ -2815,7 +2944,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
         <v>1</v>
       </c>
@@ -2823,13 +2952,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
         <v>2</v>
       </c>
       <c r="B20" s="24"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="28" t="s">
         <v>3</v>
       </c>
@@ -2837,7 +2966,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="22" t="s">
         <v>13</v>
       </c>
@@ -2845,7 +2974,7 @@
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
     </row>
-    <row r="24" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="32" t="s">
         <v>14</v>
       </c>
@@ -2859,7 +2988,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>49</v>
       </c>
@@ -2873,7 +3002,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>50</v>
       </c>
@@ -2887,7 +3016,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>51</v>
       </c>
@@ -2901,8 +3030,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+    <row r="28" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
         <v>52</v>
       </c>
       <c r="B28" s="37" t="s">
@@ -2915,7 +3044,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
         <v>53</v>
       </c>
@@ -2929,7 +3058,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>23</v>
       </c>
@@ -2943,14 +3072,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="59" t="s">
         <v>72</v>
       </c>
       <c r="B33" s="60"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="27" t="s">
         <v>0</v>
       </c>
@@ -2958,7 +3087,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="28" t="s">
         <v>1</v>
       </c>
@@ -2966,13 +3095,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="28" t="s">
         <v>2</v>
       </c>
       <c r="B36" s="24"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="28" t="s">
         <v>3</v>
       </c>
@@ -2980,7 +3109,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="22" t="s">
         <v>13</v>
       </c>
@@ -2988,7 +3117,7 @@
       <c r="C39" s="40"/>
       <c r="D39" s="41"/>
     </row>
-    <row r="40" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="32" t="s">
         <v>14</v>
       </c>
@@ -3002,7 +3131,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="91" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>186</v>
       </c>
@@ -3013,10 +3142,10 @@
         <v>193</v>
       </c>
       <c r="D41" s="48" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>187</v>
       </c>
@@ -3024,13 +3153,13 @@
         <v>190</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="D42" s="36" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>189</v>
       </c>
@@ -3038,18 +3167,18 @@
         <v>192</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B44" s="37" t="s">
-        <v>59</v>
+        <v>239</v>
       </c>
       <c r="C44" s="9" t="s">
         <v>27</v>
@@ -3058,22 +3187,22 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="59" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B47" s="60"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="27" t="s">
         <v>0</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="28" t="s">
         <v>1</v>
       </c>
@@ -3081,13 +3210,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="28" t="s">
         <v>2</v>
       </c>
       <c r="B50" s="24"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="28" t="s">
         <v>3</v>
       </c>
@@ -3095,12 +3224,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="32" t="s">
         <v>14</v>
       </c>
@@ -3114,212 +3243,294 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B55" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="C55" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="D55" s="48" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C56" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="D56" s="36" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B58" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="59" t="s">
         <v>203</v>
       </c>
-      <c r="C55" s="47"/>
-      <c r="D55" s="48"/>
-    </row>
-    <row r="56" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="B56" s="5" t="s">
+      <c r="B61" s="60"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" s="26" t="s">
         <v>204</v>
       </c>
-      <c r="C56" s="6"/>
-      <c r="D56" s="36"/>
-    </row>
-    <row r="57" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="7" t="s">
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B64" s="24"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65" s="25" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B68" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C68" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D68" s="35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C69" s="47" t="s">
+        <v>228</v>
+      </c>
+      <c r="D69" s="63" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C70" s="62" t="s">
+        <v>230</v>
+      </c>
+      <c r="D70" s="62" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="61" t="s">
+        <v>221</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C71" s="62" t="s">
+        <v>229</v>
+      </c>
+      <c r="D71" s="64" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B57" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="C57" s="9" t="s">
+      <c r="B72" s="37" t="s">
+        <v>222</v>
+      </c>
+      <c r="C72" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="11" t="s">
+      <c r="D72" s="65" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="59" t="s">
+    <row r="74" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="75" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="B60" s="60"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="27" t="s">
+      <c r="B75" s="60"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B61" s="26" t="s">
+      <c r="B76" s="26" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="28" t="s">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B62" s="23" t="s">
+      <c r="B77" s="23" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="28" t="s">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B63" s="24"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="28" t="s">
+      <c r="B78" s="24"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B64" s="25" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="22" t="s">
+      <c r="B79" s="25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="32" t="s">
+    <row r="82" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B67" s="32" t="s">
+      <c r="B82" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C67" s="49" t="s">
+      <c r="C82" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="D67" s="35" t="s">
+      <c r="D82" s="35" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="4"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="47"/>
-      <c r="D68" s="48"/>
-    </row>
-    <row r="69" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="4"/>
-      <c r="B69" s="5"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="36"/>
-    </row>
-    <row r="70" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="7" t="s">
+    <row r="83" spans="1:4" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C83" s="47" t="s">
+        <v>241</v>
+      </c>
+      <c r="D83" s="63" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="D84" s="62" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="D85" s="64" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B70" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="C70" s="9" t="s">
+      <c r="B86" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="C86" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D70" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="59" t="s">
-        <v>207</v>
-      </c>
-      <c r="B73" s="60"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B74" s="26" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="B75" s="23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="B76" s="24"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="B77" s="25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="B80" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C80" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="D80" s="35" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="4"/>
-      <c r="B81" s="5"/>
-      <c r="C81" s="47"/>
-      <c r="D81" s="48"/>
-    </row>
-    <row r="82" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="4"/>
-      <c r="B82" s="5"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="36"/>
-    </row>
-    <row r="83" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B83" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="C83" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D83" s="11" t="s">
+      <c r="D86" s="64" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A75:B75"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/Acceptance Tests/Dispatcher.xlsx
+++ b/Acceptance Tests/Dispatcher.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26905"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asaf/Desktop/GHealth-System/Acceptance Tests/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000"/>
   </bookViews>
   <sheets>
     <sheet name="DataBase" sheetId="2" r:id="rId1"/>
@@ -15,18 +20,18 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="246">
   <si>
     <t xml:space="preserve">Use Case: </t>
   </si>
@@ -316,9 +321,6 @@
     <t>Gynecology</t>
   </si>
   <si>
-    <t>Data Table: Speciality</t>
-  </si>
-  <si>
     <t>Audiology</t>
   </si>
   <si>
@@ -828,12 +830,18 @@
   <si>
     <t>system check for valid choose. 
 Validation failed. System displays error message "must choose an appointment before continue". Return to cancel appointment screen.</t>
+  </si>
+  <si>
+    <t>Medical field</t>
+  </si>
+  <si>
+    <t>Data Table: Medical field</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1324,34 +1332,34 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="היפר-קישור" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1659,371 +1667,371 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H90"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="D96" sqref="D96"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="31" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>114</v>
-      </c>
       <c r="D3" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="F3" s="31" t="s">
         <v>131</v>
-      </c>
-      <c r="F3" s="31" t="s">
-        <v>132</v>
       </c>
       <c r="G3" s="31" t="s">
         <v>30</v>
       </c>
       <c r="H3" s="53" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B4" s="18">
         <v>1234</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D4" s="54" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F4" s="19">
         <v>1001</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H4" s="19">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B5" s="13">
         <v>4321</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D5" s="56" t="s">
+        <v>141</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>142</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>143</v>
       </c>
       <c r="F5" s="15">
         <v>1002</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H5" s="15">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B6" s="14">
         <v>5431</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D6" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="E6" s="15" t="s">
         <v>144</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>145</v>
       </c>
       <c r="F6" s="15">
         <v>1003</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H6" s="15">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D7" s="56" t="s">
+        <v>145</v>
+      </c>
+      <c r="E7" s="15" t="s">
         <v>146</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>147</v>
       </c>
       <c r="F7" s="15">
         <v>1004</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H7" s="15">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>123</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>124</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="E8" s="15" t="s">
         <v>148</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>149</v>
       </c>
       <c r="F8" s="15">
         <v>1005</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H8" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>125</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>126</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="55" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F9" s="15">
         <v>1006</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H9" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D10" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="E10" s="15" t="s">
         <v>151</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>152</v>
       </c>
       <c r="F10" s="15">
         <v>1007</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H10" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>169</v>
-      </c>
       <c r="C11" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D11" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="E11" s="15" t="s">
         <v>155</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>156</v>
       </c>
       <c r="F11" s="15">
         <v>1008</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H11" s="15">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B12" s="14">
         <v>4321</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D12" s="55" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F12" s="15">
         <v>1009</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H12" s="15">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B13" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>172</v>
-      </c>
       <c r="C13" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D13" s="55" t="s">
+        <v>157</v>
+      </c>
+      <c r="E13" s="15" t="s">
         <v>158</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>159</v>
       </c>
       <c r="F13" s="15">
         <v>1010</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H13" s="15">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B14" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="B14" s="14" t="s">
-        <v>174</v>
-      </c>
       <c r="C14" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D14" s="55" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F14" s="15">
         <v>1011</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H14" s="15">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B15" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="B15" s="14" t="s">
-        <v>176</v>
-      </c>
       <c r="C15" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D15" s="55" t="s">
+        <v>160</v>
+      </c>
+      <c r="E15" s="15" t="s">
         <v>161</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>162</v>
       </c>
       <c r="F15" s="15">
         <v>1012</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H15" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>7</v>
       </c>
@@ -2037,7 +2045,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="17">
         <v>302632195</v>
       </c>
@@ -2051,7 +2059,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>200940997</v>
       </c>
@@ -2065,7 +2073,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>312143969</v>
       </c>
@@ -2079,7 +2087,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>305003659</v>
       </c>
@@ -2093,14 +2101,14 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B26" s="30" t="s">
         <v>77</v>
@@ -2109,7 +2117,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="15">
         <v>1002</v>
       </c>
@@ -2117,10 +2125,10 @@
         <v>79</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="15">
         <v>1004</v>
       </c>
@@ -2131,7 +2139,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="15">
         <v>1003</v>
       </c>
@@ -2142,7 +2150,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="19">
         <v>1001</v>
       </c>
@@ -2153,99 +2161,99 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="38"/>
       <c r="B31" s="39"/>
       <c r="C31" s="40"/>
     </row>
-    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="46" t="s">
-        <v>78</v>
+        <v>244</v>
       </c>
       <c r="B33" s="45"/>
       <c r="C33" s="42"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="19" t="s">
         <v>83</v>
       </c>
       <c r="B34" s="39"/>
       <c r="C34" s="43"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="15" t="s">
         <v>85</v>
       </c>
       <c r="B35" s="39"/>
       <c r="C35" s="43"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
         <v>86</v>
       </c>
       <c r="B36" s="39"/>
       <c r="C36" s="43"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="15" t="s">
         <v>84</v>
       </c>
       <c r="B37" s="39"/>
       <c r="C37" s="43"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B38" s="39"/>
       <c r="C38" s="43"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B39" s="39"/>
       <c r="C39" s="43"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B40" s="39"/>
       <c r="C40" s="43"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B41" s="39"/>
       <c r="C41" s="43"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="40"/>
       <c r="B42" s="39"/>
       <c r="C42" s="43"/>
     </row>
-    <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="44" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="44" t="s">
+      <c r="B44" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="B44" s="46" t="s">
-        <v>94</v>
-      </c>
       <c r="C44" s="42"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="17">
         <v>11</v>
       </c>
@@ -2254,44 +2262,44 @@
       </c>
       <c r="C45" s="43"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>22</v>
       </c>
       <c r="B46" s="50" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C46" s="43"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>33</v>
       </c>
       <c r="B47" s="51" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C47" s="43"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>44</v>
       </c>
       <c r="B48" s="51" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C48" s="43"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="38"/>
       <c r="B49" s="39"/>
       <c r="C49" s="40"/>
     </row>
-    <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="29" t="s">
         <v>7</v>
       </c>
@@ -2299,10 +2307,10 @@
         <v>76</v>
       </c>
       <c r="C52" s="31" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="17">
         <v>302632195</v>
       </c>
@@ -2310,10 +2318,10 @@
         <v>1001</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="17">
         <v>302632195</v>
       </c>
@@ -2321,10 +2329,10 @@
         <v>1002</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="17">
         <v>302632195</v>
       </c>
@@ -2332,10 +2340,10 @@
         <v>1003</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>200940997</v>
       </c>
@@ -2343,10 +2351,10 @@
         <v>1001</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>200940997</v>
       </c>
@@ -2354,10 +2362,10 @@
         <v>1002</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>305003659</v>
       </c>
@@ -2365,10 +2373,10 @@
         <v>1004</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>312143969</v>
       </c>
@@ -2376,10 +2384,10 @@
         <v>1002</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>305003659</v>
       </c>
@@ -2387,10 +2395,10 @@
         <v>1003</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>312143969</v>
       </c>
@@ -2398,29 +2406,29 @@
         <v>1004</v>
       </c>
       <c r="C61" s="15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="29" t="s">
         <v>76</v>
       </c>
       <c r="B64" s="46" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C64" s="31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D64" s="31" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="19">
         <v>1001</v>
       </c>
@@ -2428,13 +2436,13 @@
         <v>11</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D65" s="57">
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="19">
         <v>1001</v>
       </c>
@@ -2442,13 +2450,13 @@
         <v>11</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D66" s="58">
         <v>0.4375</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="15">
         <v>1002</v>
       </c>
@@ -2456,13 +2464,13 @@
         <v>22</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D67" s="58">
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="19">
         <v>1001</v>
       </c>
@@ -2470,13 +2478,13 @@
         <v>11</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D68" s="58">
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="15">
         <v>1002</v>
       </c>
@@ -2484,13 +2492,13 @@
         <v>22</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D69" s="58">
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="15">
         <v>1004</v>
       </c>
@@ -2498,13 +2506,13 @@
         <v>44</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D70" s="58">
         <v>0.5</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="15">
         <v>1002</v>
       </c>
@@ -2512,13 +2520,13 @@
         <v>22</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D71" s="58">
         <v>0.72916666666666663</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="15">
         <v>1004</v>
       </c>
@@ -2526,13 +2534,13 @@
         <v>44</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D72" s="58">
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="19">
         <v>1001</v>
       </c>
@@ -2540,13 +2548,13 @@
         <v>11</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D73" s="57">
         <v>0.39583333333333331</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="19">
         <v>1001</v>
       </c>
@@ -2554,13 +2562,13 @@
         <v>11</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D74" s="58">
         <v>0.4375</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="15">
         <v>1002</v>
       </c>
@@ -2568,13 +2576,13 @@
         <v>22</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D75" s="58">
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="19">
         <v>1001</v>
       </c>
@@ -2582,13 +2590,13 @@
         <v>11</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D76" s="58">
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="15">
         <v>1002</v>
       </c>
@@ -2596,13 +2604,13 @@
         <v>22</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D77" s="58">
         <v>0.4375</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="15">
         <v>1004</v>
       </c>
@@ -2610,13 +2618,13 @@
         <v>44</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D78" s="58">
         <v>0.4375</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="15">
         <v>1002</v>
       </c>
@@ -2624,13 +2632,13 @@
         <v>22</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D79" s="58">
         <v>0.5</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="15">
         <v>1004</v>
       </c>
@@ -2638,32 +2646,32 @@
         <v>44</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D80" s="58">
         <v>0.5</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="29" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="29" t="s">
-        <v>112</v>
-      </c>
       <c r="B83" s="46" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C83" s="31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D83" s="31" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="17">
         <v>302632195</v>
       </c>
@@ -2671,13 +2679,13 @@
         <v>11</v>
       </c>
       <c r="C84" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D84" s="57">
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="17">
         <v>302632195</v>
       </c>
@@ -2685,13 +2693,13 @@
         <v>22</v>
       </c>
       <c r="C85" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D85" s="58">
         <v>0.375</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>305003659</v>
       </c>
@@ -2699,13 +2707,13 @@
         <v>11</v>
       </c>
       <c r="C86" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D86" s="58">
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>305003659</v>
       </c>
@@ -2713,13 +2721,13 @@
         <v>22</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D87" s="58">
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>305003659</v>
       </c>
@@ -2727,13 +2735,13 @@
         <v>44</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D88" s="58">
         <v>0.39583333333333331</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>312143969</v>
       </c>
@@ -2741,13 +2749,13 @@
         <v>22</v>
       </c>
       <c r="C89" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D89" s="58">
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>312143969</v>
       </c>
@@ -2755,7 +2763,7 @@
         <v>44</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D90" s="58">
         <v>0.45833333333333331</v>
@@ -2789,25 +2797,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D85" sqref="D85"/>
+    <sheetView topLeftCell="A14" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.28515625" customWidth="1"/>
+    <col min="1" max="1" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.33203125" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="60"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="66"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
@@ -2815,7 +2823,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="28" t="s">
         <v>1</v>
       </c>
@@ -2823,13 +2831,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="28" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="24"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="28" t="s">
         <v>3</v>
       </c>
@@ -2837,7 +2845,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
         <v>13</v>
       </c>
@@ -2845,7 +2853,7 @@
       <c r="C8" s="21"/>
       <c r="D8" s="21"/>
     </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
         <v>14</v>
       </c>
@@ -2859,7 +2867,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
@@ -2873,7 +2881,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
@@ -2887,7 +2895,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>19</v>
       </c>
@@ -2901,7 +2909,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>23</v>
       </c>
@@ -2915,7 +2923,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>46</v>
       </c>
@@ -2929,14 +2937,14 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="59" t="s">
+    <row r="16" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="60"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="66"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="27" t="s">
         <v>0</v>
       </c>
@@ -2944,7 +2952,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="28" t="s">
         <v>1</v>
       </c>
@@ -2952,13 +2960,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="28" t="s">
         <v>2</v>
       </c>
       <c r="B20" s="24"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="28" t="s">
         <v>3</v>
       </c>
@@ -2966,7 +2974,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="22" t="s">
         <v>13</v>
       </c>
@@ -2974,7 +2982,7 @@
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
     </row>
-    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
         <v>14</v>
       </c>
@@ -2988,7 +2996,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>49</v>
       </c>
@@ -3002,7 +3010,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>50</v>
       </c>
@@ -3016,7 +3024,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>51</v>
       </c>
@@ -3030,7 +3038,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>52</v>
       </c>
@@ -3044,7 +3052,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>53</v>
       </c>
@@ -3058,7 +3066,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>23</v>
       </c>
@@ -3072,14 +3080,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="59" t="s">
+    <row r="32" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="B33" s="60"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="66"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="27" t="s">
         <v>0</v>
       </c>
@@ -3087,7 +3095,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="28" t="s">
         <v>1</v>
       </c>
@@ -3095,13 +3103,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="28" t="s">
         <v>2</v>
       </c>
       <c r="B36" s="24"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="28" t="s">
         <v>3</v>
       </c>
@@ -3109,7 +3117,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
         <v>13</v>
       </c>
@@ -3117,7 +3125,7 @@
       <c r="C39" s="40"/>
       <c r="D39" s="41"/>
     </row>
-    <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="32" t="s">
         <v>14</v>
       </c>
@@ -3131,54 +3139,54 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="91" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C41" s="47" t="s">
+        <v>192</v>
+      </c>
+      <c r="D41" s="48" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B42" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="D42" s="36" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="C41" s="47" t="s">
-        <v>193</v>
-      </c>
-      <c r="D41" s="48" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="C42" s="6" t="s">
+      <c r="C43" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="D42" s="36" t="s">
+      <c r="D43" s="8" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B44" s="37" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C44" s="9" t="s">
         <v>27</v>
@@ -3187,22 +3195,22 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="59" t="s">
-        <v>197</v>
-      </c>
-      <c r="B47" s="60"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="65" t="s">
+        <v>196</v>
+      </c>
+      <c r="B47" s="66"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="27" t="s">
         <v>0</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="28" t="s">
         <v>1</v>
       </c>
@@ -3210,13 +3218,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="28" t="s">
         <v>2</v>
       </c>
       <c r="B50" s="24"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="28" t="s">
         <v>3</v>
       </c>
@@ -3224,12 +3232,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="32" t="s">
         <v>14</v>
       </c>
@@ -3243,54 +3251,54 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="D55" s="48" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="106" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B56" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C56" s="47" t="s">
         <v>212</v>
       </c>
-      <c r="D55" s="48" t="s">
+      <c r="D56" s="36" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="C56" s="47" t="s">
+    <row r="57" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C57" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="D56" s="36" t="s">
+      <c r="D57" s="11" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="D57" s="11" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B58" s="37" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C58" s="9" t="s">
         <v>27</v>
@@ -3299,22 +3307,22 @@
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="61" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="59" t="s">
-        <v>203</v>
-      </c>
-      <c r="B61" s="60"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="65" t="s">
+        <v>202</v>
+      </c>
+      <c r="B61" s="66"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="27" t="s">
         <v>0</v>
       </c>
       <c r="B62" s="26" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="28" t="s">
         <v>1</v>
       </c>
@@ -3322,26 +3330,26 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="28" t="s">
         <v>2</v>
       </c>
       <c r="B64" s="24"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="28" t="s">
         <v>3</v>
       </c>
       <c r="B65" s="25" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="32" t="s">
         <v>14</v>
       </c>
@@ -3355,78 +3363,78 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C69" s="47" t="s">
+        <v>227</v>
+      </c>
+      <c r="D69" s="61" t="s">
         <v>217</v>
       </c>
-      <c r="B69" s="5" t="s">
+    </row>
+    <row r="70" spans="1:4" ht="166" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B70" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="C69" s="47" t="s">
+      <c r="C70" s="60" t="s">
+        <v>229</v>
+      </c>
+      <c r="D70" s="60" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="59" t="s">
+        <v>220</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C71" s="60" t="s">
         <v>228</v>
       </c>
-      <c r="D69" s="63" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="C70" s="62" t="s">
-        <v>230</v>
-      </c>
-      <c r="D70" s="62" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="61" t="s">
-        <v>221</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="C71" s="62" t="s">
-        <v>229</v>
-      </c>
-      <c r="D71" s="64" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D71" s="62" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B72" s="37" t="s">
-        <v>222</v>
-      </c>
-      <c r="C72" s="66" t="s">
+        <v>221</v>
+      </c>
+      <c r="C72" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="D72" s="65" t="s">
+      <c r="D72" s="63" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="75" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="59" t="s">
-        <v>205</v>
-      </c>
-      <c r="B75" s="60"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="B75" s="66"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="27" t="s">
         <v>0</v>
       </c>
       <c r="B76" s="26" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="28" t="s">
         <v>1</v>
       </c>
@@ -3434,13 +3442,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="28" t="s">
         <v>2</v>
       </c>
       <c r="B78" s="24"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="28" t="s">
         <v>3</v>
       </c>
@@ -3448,12 +3456,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="32" t="s">
         <v>14</v>
       </c>
@@ -3467,59 +3475,59 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B83" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C83" s="47" t="s">
+        <v>240</v>
+      </c>
+      <c r="D83" s="61" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="106" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="C83" s="47" t="s">
+      <c r="B84" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="D83" s="63" t="s">
+      <c r="C84" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D84" s="60" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="4" t="s">
+    <row r="85" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B85" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="B84" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="C84" s="6" t="s">
+      <c r="C85" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="D84" s="62" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="4" t="s">
+      <c r="D85" s="62" t="s">
         <v>231</v>
       </c>
-      <c r="B85" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="D85" s="64" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B86" s="37" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C86" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D86" s="64" t="s">
+      <c r="D86" s="62" t="s">
         <v>28</v>
       </c>
     </row>

--- a/Acceptance Tests/Dispatcher.xlsx
+++ b/Acceptance Tests/Dispatcher.xlsx
@@ -1,29 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26905"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asaf/Desktop/GHealth-System/Acceptance Tests/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25440" windowHeight="15990"/>
   </bookViews>
   <sheets>
     <sheet name="DataBase" sheetId="2" r:id="rId1"/>
     <sheet name="Dispatcher" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="330"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -31,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="266">
   <si>
     <t xml:space="preserve">Use Case: </t>
   </si>
@@ -836,6 +828,66 @@
   </si>
   <si>
     <t>Data Table: Medical field</t>
+  </si>
+  <si>
+    <t>Data Table:  Reference Details</t>
+  </si>
+  <si>
+    <t>Examination Code</t>
+  </si>
+  <si>
+    <t>Urgency</t>
+  </si>
+  <si>
+    <t>1.7.16</t>
+  </si>
+  <si>
+    <t>2.7.16</t>
+  </si>
+  <si>
+    <t>3.7.16</t>
+  </si>
+  <si>
+    <t>Data Table:  Examination Result</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>Picture</t>
+  </si>
+  <si>
+    <t>attached</t>
+  </si>
+  <si>
+    <t>not attached</t>
+  </si>
+  <si>
+    <t>catheterization, positive</t>
+  </si>
+  <si>
+    <t>Scoliosis , There is severe Scoliosis.</t>
+  </si>
+  <si>
+    <t>Critical</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>first priority</t>
+  </si>
+  <si>
+    <t>Upper Respiratory Tract Infection , he has it</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>He bearly breath</t>
+  </si>
+  <si>
+    <t>None</t>
   </si>
 </sst>
 </file>
@@ -846,7 +898,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -854,7 +906,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -863,7 +915,7 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -871,7 +923,7 @@
       <b/>
       <u/>
       <sz val="14"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -879,20 +931,20 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1166,7 +1218,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1356,6 +1408,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1445,7 +1506,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1480,7 +1541,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1657,7 +1718,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1665,30 +1726,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H90"/>
+  <dimension ref="A2:H104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="J107" sqref="J107:J108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="33.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>114</v>
       </c>
@@ -2026,12 +2087,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
         <v>7</v>
       </c>
@@ -2101,12 +2162,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="29" t="s">
         <v>131</v>
       </c>
@@ -2166,12 +2227,12 @@
       <c r="B31" s="39"/>
       <c r="C31" s="40"/>
     </row>
-    <row r="32" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="46" t="s">
         <v>244</v>
       </c>
@@ -2239,12 +2300,12 @@
       <c r="B42" s="39"/>
       <c r="C42" s="43"/>
     </row>
-    <row r="43" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="44" t="s">
         <v>92</v>
       </c>
@@ -2294,12 +2355,12 @@
       <c r="B49" s="39"/>
       <c r="C49" s="40"/>
     </row>
-    <row r="51" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="29" t="s">
         <v>7</v>
       </c>
@@ -2409,12 +2470,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="29" t="s">
         <v>76</v>
       </c>
@@ -2652,12 +2713,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="29" t="s">
         <v>111</v>
       </c>
@@ -2671,7 +2732,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="17">
         <v>302632195</v>
       </c>
@@ -2685,7 +2746,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="17">
         <v>302632195</v>
       </c>
@@ -2699,7 +2760,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>305003659</v>
       </c>
@@ -2713,7 +2774,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>305003659</v>
       </c>
@@ -2727,7 +2788,7 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>305003659</v>
       </c>
@@ -2741,7 +2802,7 @@
         <v>0.39583333333333331</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>312143969</v>
       </c>
@@ -2755,7 +2816,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>312143969</v>
       </c>
@@ -2767,6 +2828,148 @@
       </c>
       <c r="D90" s="58">
         <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A93" s="67" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A94" s="68" t="s">
+        <v>111</v>
+      </c>
+      <c r="B94" s="68" t="s">
+        <v>76</v>
+      </c>
+      <c r="C94" s="69" t="s">
+        <v>247</v>
+      </c>
+      <c r="D94" s="69" t="s">
+        <v>97</v>
+      </c>
+      <c r="E94" s="69" t="s">
+        <v>248</v>
+      </c>
+      <c r="F94" s="69" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" s="15">
+        <v>302632195</v>
+      </c>
+      <c r="B95" s="15">
+        <v>1004</v>
+      </c>
+      <c r="C95" s="15">
+        <v>90000</v>
+      </c>
+      <c r="D95" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="E95" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="F95" s="15" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" s="15">
+        <v>305003659</v>
+      </c>
+      <c r="B96" s="15">
+        <v>1002</v>
+      </c>
+      <c r="C96" s="15">
+        <v>90001</v>
+      </c>
+      <c r="D96" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="E96" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="F96" s="70" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" s="15">
+        <v>200940997</v>
+      </c>
+      <c r="B97" s="15">
+        <v>1001</v>
+      </c>
+      <c r="C97" s="15">
+        <v>90002</v>
+      </c>
+      <c r="D97" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="E97" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="F97" s="70" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" s="71"/>
+      <c r="B98" s="71"/>
+      <c r="C98" s="71"/>
+      <c r="D98" s="71"/>
+      <c r="E98" s="71"/>
+      <c r="F98" s="71"/>
+    </row>
+    <row r="100" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A100" s="67" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A101" s="69" t="s">
+        <v>247</v>
+      </c>
+      <c r="B101" s="69" t="s">
+        <v>253</v>
+      </c>
+      <c r="C101" s="69" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" s="15">
+        <v>90000</v>
+      </c>
+      <c r="B102" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="C102" s="15" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" s="15">
+        <v>90001</v>
+      </c>
+      <c r="B103" s="70" t="s">
+        <v>258</v>
+      </c>
+      <c r="C103" s="15" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" s="15">
+        <v>90002</v>
+      </c>
+      <c r="B104" s="70" t="s">
+        <v>262</v>
+      </c>
+      <c r="C104" s="15" t="s">
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -2789,7 +2992,7 @@
     <hyperlink ref="G15" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId17"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId17"/>
 </worksheet>
 </file>
 
@@ -2801,21 +3004,21 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.33203125" customWidth="1"/>
+    <col min="1" max="1" width="31.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.375" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="65" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="66"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
@@ -2823,7 +3026,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="28" t="s">
         <v>1</v>
       </c>
@@ -2831,13 +3034,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="28" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="24"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="28" t="s">
         <v>3</v>
       </c>
@@ -2845,7 +3048,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
         <v>13</v>
       </c>
@@ -2853,7 +3056,7 @@
       <c r="C8" s="21"/>
       <c r="D8" s="21"/>
     </row>
-    <row r="9" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
         <v>14</v>
       </c>
@@ -2867,7 +3070,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="100.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
@@ -2881,7 +3084,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="100.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
@@ -2895,7 +3098,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="72" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>19</v>
       </c>
@@ -2909,7 +3112,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>23</v>
       </c>
@@ -2923,7 +3126,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>46</v>
       </c>
@@ -2937,14 +3140,14 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="65" t="s">
         <v>44</v>
       </c>
       <c r="B17" s="66"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="27" t="s">
         <v>0</v>
       </c>
@@ -2952,7 +3155,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="28" t="s">
         <v>1</v>
       </c>
@@ -2960,13 +3163,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="28" t="s">
         <v>2</v>
       </c>
       <c r="B20" s="24"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="28" t="s">
         <v>3</v>
       </c>
@@ -2974,7 +3177,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="22" t="s">
         <v>13</v>
       </c>
@@ -2982,7 +3185,7 @@
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
     </row>
-    <row r="24" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
         <v>14</v>
       </c>
@@ -2996,7 +3199,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>49</v>
       </c>
@@ -3010,7 +3213,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>50</v>
       </c>
@@ -3024,7 +3227,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>51</v>
       </c>
@@ -3038,7 +3241,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="72" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>52</v>
       </c>
@@ -3052,7 +3255,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="86.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>53</v>
       </c>
@@ -3066,7 +3269,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>23</v>
       </c>
@@ -3080,14 +3283,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="65" t="s">
         <v>72</v>
       </c>
       <c r="B33" s="66"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="27" t="s">
         <v>0</v>
       </c>
@@ -3095,7 +3298,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="28" t="s">
         <v>1</v>
       </c>
@@ -3103,13 +3306,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="28" t="s">
         <v>2</v>
       </c>
       <c r="B36" s="24"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="28" t="s">
         <v>3</v>
       </c>
@@ -3117,7 +3320,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="22" t="s">
         <v>13</v>
       </c>
@@ -3125,7 +3328,7 @@
       <c r="C39" s="40"/>
       <c r="D39" s="41"/>
     </row>
-    <row r="40" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="32" t="s">
         <v>14</v>
       </c>
@@ -3139,7 +3342,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="91" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="86.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>185</v>
       </c>
@@ -3153,7 +3356,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="72" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>186</v>
       </c>
@@ -3167,7 +3370,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="86.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>188</v>
       </c>
@@ -3181,7 +3384,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>23</v>
       </c>
@@ -3195,14 +3398,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="65" t="s">
         <v>196</v>
       </c>
       <c r="B47" s="66"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="27" t="s">
         <v>0</v>
       </c>
@@ -3210,7 +3413,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="28" t="s">
         <v>1</v>
       </c>
@@ -3218,13 +3421,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="28" t="s">
         <v>2</v>
       </c>
       <c r="B50" s="24"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="28" t="s">
         <v>3</v>
       </c>
@@ -3232,12 +3435,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="32" t="s">
         <v>14</v>
       </c>
@@ -3251,7 +3454,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="86.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>198</v>
       </c>
@@ -3265,7 +3468,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="106" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="114.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>199</v>
       </c>
@@ -3279,7 +3482,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="72" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>206</v>
       </c>
@@ -3293,7 +3496,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>23</v>
       </c>
@@ -3307,14 +3510,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="65" t="s">
         <v>202</v>
       </c>
       <c r="B61" s="66"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="27" t="s">
         <v>0</v>
       </c>
@@ -3322,7 +3525,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="28" t="s">
         <v>1</v>
       </c>
@@ -3330,13 +3533,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="28" t="s">
         <v>2</v>
       </c>
       <c r="B64" s="24"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="28" t="s">
         <v>3</v>
       </c>
@@ -3344,12 +3547,12 @@
         <v>197</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="32" t="s">
         <v>14</v>
       </c>
@@ -3363,7 +3566,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" ht="72" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>216</v>
       </c>
@@ -3377,7 +3580,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="166" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" ht="186" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>218</v>
       </c>
@@ -3391,7 +3594,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" ht="72" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="59" t="s">
         <v>220</v>
       </c>
@@ -3405,7 +3608,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>23</v>
       </c>
@@ -3419,14 +3622,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="65" t="s">
         <v>204</v>
       </c>
       <c r="B75" s="66"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="27" t="s">
         <v>0</v>
       </c>
@@ -3434,7 +3637,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="28" t="s">
         <v>1</v>
       </c>
@@ -3442,13 +3645,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="28" t="s">
         <v>2</v>
       </c>
       <c r="B78" s="24"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="28" t="s">
         <v>3</v>
       </c>
@@ -3456,12 +3659,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="32" t="s">
         <v>14</v>
       </c>
@@ -3475,7 +3678,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" ht="86.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>223</v>
       </c>
@@ -3489,7 +3692,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="106" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" ht="114.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>235</v>
       </c>
@@ -3503,7 +3706,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" ht="86.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>230</v>
       </c>
@@ -3517,7 +3720,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>23</v>
       </c>

--- a/Acceptance Tests/Dispatcher.xlsx
+++ b/Acceptance Tests/Dispatcher.xlsx
@@ -1402,12 +1402,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1417,6 +1411,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1718,7 +1718,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1728,8 +1728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="J107" sqref="J107:J108"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2831,27 +2831,27 @@
       </c>
     </row>
     <row r="93" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A93" s="67" t="s">
+      <c r="A93" s="65" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A94" s="68" t="s">
+      <c r="A94" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="B94" s="68" t="s">
+      <c r="B94" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="C94" s="69" t="s">
+      <c r="C94" s="67" t="s">
         <v>247</v>
       </c>
-      <c r="D94" s="69" t="s">
+      <c r="D94" s="67" t="s">
         <v>97</v>
       </c>
-      <c r="E94" s="69" t="s">
+      <c r="E94" s="67" t="s">
         <v>248</v>
       </c>
-      <c r="F94" s="69" t="s">
+      <c r="F94" s="67" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2891,7 +2891,7 @@
       <c r="E96" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="F96" s="70" t="s">
+      <c r="F96" s="68" t="s">
         <v>265</v>
       </c>
     </row>
@@ -2911,31 +2911,31 @@
       <c r="E97" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="F97" s="70" t="s">
+      <c r="F97" s="68" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="71"/>
-      <c r="B98" s="71"/>
-      <c r="C98" s="71"/>
-      <c r="D98" s="71"/>
-      <c r="E98" s="71"/>
-      <c r="F98" s="71"/>
+      <c r="A98" s="69"/>
+      <c r="B98" s="69"/>
+      <c r="C98" s="69"/>
+      <c r="D98" s="69"/>
+      <c r="E98" s="69"/>
+      <c r="F98" s="69"/>
     </row>
     <row r="100" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A100" s="67" t="s">
+      <c r="A100" s="65" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A101" s="69" t="s">
+      <c r="A101" s="67" t="s">
         <v>247</v>
       </c>
-      <c r="B101" s="69" t="s">
+      <c r="B101" s="67" t="s">
         <v>253</v>
       </c>
-      <c r="C101" s="69" t="s">
+      <c r="C101" s="67" t="s">
         <v>254</v>
       </c>
     </row>
@@ -2943,7 +2943,7 @@
       <c r="A102" s="15">
         <v>90000</v>
       </c>
-      <c r="B102" s="70" t="s">
+      <c r="B102" s="68" t="s">
         <v>257</v>
       </c>
       <c r="C102" s="15" t="s">
@@ -2954,7 +2954,7 @@
       <c r="A103" s="15">
         <v>90001</v>
       </c>
-      <c r="B103" s="70" t="s">
+      <c r="B103" s="68" t="s">
         <v>258</v>
       </c>
       <c r="C103" s="15" t="s">
@@ -2965,7 +2965,7 @@
       <c r="A104" s="15">
         <v>90002</v>
       </c>
-      <c r="B104" s="70" t="s">
+      <c r="B104" s="68" t="s">
         <v>262</v>
       </c>
       <c r="C104" s="15" t="s">
@@ -3000,8 +3000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3013,10 +3013,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="66"/>
+      <c r="B1" s="71"/>
     </row>
     <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
@@ -3142,10 +3142,10 @@
     </row>
     <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="65" t="s">
+      <c r="A17" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="66"/>
+      <c r="B17" s="71"/>
     </row>
     <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="27" t="s">
@@ -3285,10 +3285,10 @@
     </row>
     <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="65" t="s">
+      <c r="A33" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="B33" s="66"/>
+      <c r="B33" s="71"/>
     </row>
     <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="27" t="s">
@@ -3400,10 +3400,10 @@
     </row>
     <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="65" t="s">
+      <c r="A47" s="70" t="s">
         <v>196</v>
       </c>
-      <c r="B47" s="66"/>
+      <c r="B47" s="71"/>
     </row>
     <row r="48" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="27" t="s">
@@ -3512,10 +3512,10 @@
     </row>
     <row r="60" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="61" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="65" t="s">
+      <c r="A61" s="70" t="s">
         <v>202</v>
       </c>
-      <c r="B61" s="66"/>
+      <c r="B61" s="71"/>
     </row>
     <row r="62" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="27" t="s">
@@ -3624,10 +3624,10 @@
     </row>
     <row r="74" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="75" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="65" t="s">
+      <c r="A75" s="70" t="s">
         <v>204</v>
       </c>
-      <c r="B75" s="66"/>
+      <c r="B75" s="71"/>
     </row>
     <row r="76" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="27" t="s">

--- a/Acceptance Tests/Dispatcher.xlsx
+++ b/Acceptance Tests/Dispatcher.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25440" windowHeight="15990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25440" windowHeight="15990" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DataBase" sheetId="2" r:id="rId1"/>
@@ -12,18 +12,18 @@
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="280">
   <si>
     <t xml:space="preserve">Use Case: </t>
   </si>
@@ -619,21 +619,6 @@
     <t>NotSelected</t>
   </si>
   <si>
-    <t>1. Open "Create Appointment" window
-2. Choose from list: Dentist
-3. Click OK</t>
-  </si>
-  <si>
-    <t>1. Open "Create Appointment" window
-2. Choose from list: Orthophedy
-3. Click OK</t>
-  </si>
-  <si>
-    <t>1. Open "Create Appointment" window
-2. Choose from list: 
-3. Click OK</t>
-  </si>
-  <si>
     <t>system check for valid choose. System search for Orthopedy.
 System displays all the available orthopedists and their locations.
 System sort result by previews appoinments to ID .</t>
@@ -801,9 +786,6 @@
     <t>1. Open "Cancel Appointment" window.</t>
   </si>
   <si>
-    <t>1. Open "Create Appointment" window.</t>
-  </si>
-  <si>
     <t>1. Open "Choose Doctor" window.</t>
   </si>
   <si>
@@ -888,17 +870,83 @@
   </si>
   <si>
     <t>None</t>
+  </si>
+  <si>
+    <t>Acceptance Testing for Use Case: Insert Speciality</t>
+  </si>
+  <si>
+    <t>1. Open "Insert Speciality" window
+2. Choose from list: Orthophedy
+3. Click OK</t>
+  </si>
+  <si>
+    <t>1. Open "Insert Speciality" window
+2. Choose from list: Dentist
+3. Click OK</t>
+  </si>
+  <si>
+    <t>1. Open "Insert Speciality" window
+2. Choose from list: 
+3. Click OK</t>
+  </si>
+  <si>
+    <t>1. Open "Insert Speciality" window.</t>
+  </si>
+  <si>
+    <t>Insert Speciality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open "Create Appointment" window.
+2. Type reference ID:   12345678
+3. Click OK button.                                                  </t>
+  </si>
+  <si>
+    <t>ValidateRefSuccess</t>
+  </si>
+  <si>
+    <t>ValidateRefFailed</t>
+  </si>
+  <si>
+    <t>MissingRefNumber</t>
+  </si>
+  <si>
+    <t>1. Open "Create Appointment" window.
+2. Type reference ID:
+3. Click OK button</t>
+  </si>
+  <si>
+    <t>1. Open "Create Appointment" window.
+2. Type reference ID: 99887755
+3. Click OK button</t>
+  </si>
+  <si>
+    <t>Reference aproved by clinic.</t>
+  </si>
+  <si>
+    <t>Reference not aproved by clinic.</t>
+  </si>
+  <si>
+    <t>Requested field: Reference ID is empty</t>
+  </si>
+  <si>
+    <t>system checks that all required fields are filled. System validates reference number. Reference 12345678 is aproved by the client's clinic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">system checks that all required fields are filled. System validates reference number. Reference 99887755 is not aproved by the client's clinic. Display validate error, return to Create Appointment screen. </t>
+  </si>
+  <si>
+    <t>system checks that all required fields are filled. System display error "missing required field reference number". Return to Create Appointment screen.C55</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -906,7 +954,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -915,7 +963,7 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -923,7 +971,7 @@
       <b/>
       <u/>
       <sz val="14"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -931,20 +979,20 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -975,7 +1023,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1213,12 +1261,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1411,6 +1470,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1419,8 +1499,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="היפר-קישור" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1506,7 +1586,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1541,7 +1621,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1718,7 +1798,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1728,28 +1808,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="33.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5" customWidth="1"/>
-    <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.47265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.89453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.47265625" customWidth="1"/>
+    <col min="4" max="4" width="15.1015625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.47265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.89453125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="29" t="s">
         <v>114</v>
       </c>
@@ -1775,7 +1855,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="17" t="s">
         <v>116</v>
       </c>
@@ -1801,7 +1881,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
         <v>118</v>
       </c>
@@ -1827,7 +1907,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3" t="s">
         <v>120</v>
       </c>
@@ -1853,7 +1933,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3" t="s">
         <v>121</v>
       </c>
@@ -1879,7 +1959,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3" t="s">
         <v>122</v>
       </c>
@@ -1905,7 +1985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3" t="s">
         <v>124</v>
       </c>
@@ -1931,7 +2011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3" t="s">
         <v>128</v>
       </c>
@@ -1957,7 +2037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="3" t="s">
         <v>167</v>
       </c>
@@ -1983,7 +2063,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3" t="s">
         <v>169</v>
       </c>
@@ -2009,7 +2089,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3" t="s">
         <v>170</v>
       </c>
@@ -2035,7 +2115,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3" t="s">
         <v>172</v>
       </c>
@@ -2061,7 +2141,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="3" t="s">
         <v>174</v>
       </c>
@@ -2087,12 +2167,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A18" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A19" s="29" t="s">
         <v>7</v>
       </c>
@@ -2106,7 +2186,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="17">
         <v>302632195</v>
       </c>
@@ -2120,7 +2200,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="2">
         <v>200940997</v>
       </c>
@@ -2134,7 +2214,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="3">
         <v>312143969</v>
       </c>
@@ -2148,7 +2228,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="3">
         <v>305003659</v>
       </c>
@@ -2162,12 +2242,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A25" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A26" s="29" t="s">
         <v>131</v>
       </c>
@@ -2178,7 +2258,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="15">
         <v>1002</v>
       </c>
@@ -2189,7 +2269,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="15">
         <v>1004</v>
       </c>
@@ -2200,7 +2280,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="15">
         <v>1003</v>
       </c>
@@ -2211,7 +2291,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="19">
         <v>1001</v>
       </c>
@@ -2222,90 +2302,90 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="38"/>
       <c r="B31" s="39"/>
       <c r="C31" s="40"/>
     </row>
-    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A32" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A33" s="46" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B33" s="45"/>
       <c r="C33" s="42"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="19" t="s">
         <v>83</v>
       </c>
       <c r="B34" s="39"/>
       <c r="C34" s="43"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="15" t="s">
         <v>85</v>
       </c>
       <c r="B35" s="39"/>
       <c r="C35" s="43"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="15" t="s">
         <v>86</v>
       </c>
       <c r="B36" s="39"/>
       <c r="C36" s="43"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="15" t="s">
         <v>84</v>
       </c>
       <c r="B37" s="39"/>
       <c r="C37" s="43"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="15" t="s">
         <v>87</v>
       </c>
       <c r="B38" s="39"/>
       <c r="C38" s="43"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="15" t="s">
         <v>88</v>
       </c>
       <c r="B39" s="39"/>
       <c r="C39" s="43"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="15" t="s">
         <v>89</v>
       </c>
       <c r="B40" s="39"/>
       <c r="C40" s="43"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="15" t="s">
         <v>90</v>
       </c>
       <c r="B41" s="39"/>
       <c r="C41" s="43"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="40"/>
       <c r="B42" s="39"/>
       <c r="C42" s="43"/>
     </row>
-    <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A43" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A44" s="44" t="s">
         <v>92</v>
       </c>
@@ -2314,7 +2394,7 @@
       </c>
       <c r="C44" s="42"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="17">
         <v>11</v>
       </c>
@@ -2323,7 +2403,7 @@
       </c>
       <c r="C45" s="43"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="2">
         <v>22</v>
       </c>
@@ -2332,7 +2412,7 @@
       </c>
       <c r="C46" s="43"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="3">
         <v>33</v>
       </c>
@@ -2341,7 +2421,7 @@
       </c>
       <c r="C47" s="43"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="3">
         <v>44</v>
       </c>
@@ -2350,17 +2430,17 @@
       </c>
       <c r="C48" s="43"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="38"/>
       <c r="B49" s="39"/>
       <c r="C49" s="40"/>
     </row>
-    <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A51" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A52" s="29" t="s">
         <v>7</v>
       </c>
@@ -2371,7 +2451,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="17">
         <v>302632195</v>
       </c>
@@ -2382,7 +2462,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="17">
         <v>302632195</v>
       </c>
@@ -2393,7 +2473,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="17">
         <v>302632195</v>
       </c>
@@ -2404,7 +2484,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="2">
         <v>200940997</v>
       </c>
@@ -2415,7 +2495,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="2">
         <v>200940997</v>
       </c>
@@ -2426,7 +2506,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="3">
         <v>305003659</v>
       </c>
@@ -2437,7 +2517,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="3">
         <v>312143969</v>
       </c>
@@ -2448,7 +2528,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="3">
         <v>305003659</v>
       </c>
@@ -2459,7 +2539,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="3">
         <v>312143969</v>
       </c>
@@ -2470,12 +2550,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A63" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A64" s="29" t="s">
         <v>76</v>
       </c>
@@ -2489,7 +2569,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="19">
         <v>1001</v>
       </c>
@@ -2503,7 +2583,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="19">
         <v>1001</v>
       </c>
@@ -2517,7 +2597,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="15">
         <v>1002</v>
       </c>
@@ -2531,7 +2611,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="19">
         <v>1001</v>
       </c>
@@ -2545,7 +2625,7 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="15">
         <v>1002</v>
       </c>
@@ -2559,7 +2639,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="15">
         <v>1004</v>
       </c>
@@ -2573,7 +2653,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="15">
         <v>1002</v>
       </c>
@@ -2587,7 +2667,7 @@
         <v>0.72916666666666663</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="15">
         <v>1004</v>
       </c>
@@ -2601,7 +2681,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="19">
         <v>1001</v>
       </c>
@@ -2615,7 +2695,7 @@
         <v>0.39583333333333331</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="19">
         <v>1001</v>
       </c>
@@ -2629,7 +2709,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="15">
         <v>1002</v>
       </c>
@@ -2643,7 +2723,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="19">
         <v>1001</v>
       </c>
@@ -2657,7 +2737,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="15">
         <v>1002</v>
       </c>
@@ -2671,7 +2751,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="15">
         <v>1004</v>
       </c>
@@ -2685,7 +2765,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="15">
         <v>1002</v>
       </c>
@@ -2699,7 +2779,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="15">
         <v>1004</v>
       </c>
@@ -2713,12 +2793,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A82" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A83" s="29" t="s">
         <v>111</v>
       </c>
@@ -2732,7 +2812,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="17">
         <v>302632195</v>
       </c>
@@ -2746,7 +2826,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="17">
         <v>302632195</v>
       </c>
@@ -2760,7 +2840,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="3">
         <v>305003659</v>
       </c>
@@ -2774,7 +2854,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="3">
         <v>305003659</v>
       </c>
@@ -2788,7 +2868,7 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="3">
         <v>305003659</v>
       </c>
@@ -2802,7 +2882,7 @@
         <v>0.39583333333333331</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="3">
         <v>312143969</v>
       </c>
@@ -2816,7 +2896,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="3">
         <v>312143969</v>
       </c>
@@ -2830,12 +2910,12 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="65" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="66" t="s">
         <v>111</v>
       </c>
@@ -2843,19 +2923,19 @@
         <v>76</v>
       </c>
       <c r="C94" s="67" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D94" s="67" t="s">
         <v>97</v>
       </c>
       <c r="E94" s="67" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F94" s="67" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="15">
         <v>302632195</v>
       </c>
@@ -2866,16 +2946,16 @@
         <v>90000</v>
       </c>
       <c r="D95" s="15" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E95" s="15" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F95" s="15" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="15">
         <v>305003659</v>
       </c>
@@ -2886,16 +2966,16 @@
         <v>90001</v>
       </c>
       <c r="D96" s="15" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E96" s="15" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F96" s="68" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="15">
         <v>200940997</v>
       </c>
@@ -2906,16 +2986,16 @@
         <v>90002</v>
       </c>
       <c r="D97" s="15" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E97" s="15" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F97" s="68" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="69"/>
       <c r="B98" s="69"/>
       <c r="C98" s="69"/>
@@ -2923,53 +3003,53 @@
       <c r="E98" s="69"/>
       <c r="F98" s="69"/>
     </row>
-    <row r="100" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="65" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="67" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B101" s="67" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C101" s="67" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="15">
         <v>90000</v>
       </c>
       <c r="B102" s="68" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C102" s="15" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="15">
         <v>90001</v>
       </c>
       <c r="B103" s="68" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C103" s="15" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="15">
         <v>90002</v>
       </c>
       <c r="B104" s="68" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C104" s="15" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -2998,27 +3078,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D86"/>
+  <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="31.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.375" customWidth="1"/>
+    <col min="1" max="1" width="31.89453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.3671875" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.3671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+    <row r="1" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="71"/>
-    </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="B1" s="78"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
@@ -3026,7 +3106,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="28" t="s">
         <v>1</v>
       </c>
@@ -3034,13 +3114,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="28" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="24"/>
     </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="28" t="s">
         <v>3</v>
       </c>
@@ -3048,7 +3128,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A8" s="22" t="s">
         <v>13</v>
       </c>
@@ -3056,7 +3136,7 @@
       <c r="C8" s="21"/>
       <c r="D8" s="21"/>
     </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A9" s="32" t="s">
         <v>14</v>
       </c>
@@ -3070,7 +3150,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="100.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="86.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
@@ -3084,7 +3164,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="100.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="72.3" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
@@ -3098,7 +3178,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="72" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="72.3" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A12" s="7" t="s">
         <v>19</v>
       </c>
@@ -3112,7 +3192,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A13" s="7" t="s">
         <v>23</v>
       </c>
@@ -3126,7 +3206,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A14" s="7" t="s">
         <v>46</v>
       </c>
@@ -3140,14 +3220,14 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="70" t="s">
+    <row r="16" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="17" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A17" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="71"/>
-    </row>
-    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="B17" s="78"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="27" t="s">
         <v>0</v>
       </c>
@@ -3155,7 +3235,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="28" t="s">
         <v>1</v>
       </c>
@@ -3163,13 +3243,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="28" t="s">
         <v>2</v>
       </c>
       <c r="B20" s="24"/>
     </row>
-    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="28" t="s">
         <v>3</v>
       </c>
@@ -3177,7 +3257,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A23" s="22" t="s">
         <v>13</v>
       </c>
@@ -3185,7 +3265,7 @@
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
     </row>
-    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A24" s="32" t="s">
         <v>14</v>
       </c>
@@ -3199,7 +3279,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="57.9" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A25" s="4" t="s">
         <v>49</v>
       </c>
@@ -3213,7 +3293,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="57.9" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A26" s="4" t="s">
         <v>50</v>
       </c>
@@ -3227,7 +3307,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="57.9" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A27" s="7" t="s">
         <v>51</v>
       </c>
@@ -3241,7 +3321,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="72" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="57.9" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A28" s="7" t="s">
         <v>52</v>
       </c>
@@ -3255,7 +3335,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="86.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="72.3" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A29" s="12" t="s">
         <v>53</v>
       </c>
@@ -3269,7 +3349,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A30" s="7" t="s">
         <v>23</v>
       </c>
@@ -3283,14 +3363,25 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="70" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="70"/>
+      <c r="B31" s="71"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="73"/>
+    </row>
+    <row r="32" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A32" s="70"/>
+      <c r="B32" s="71"/>
+      <c r="C32" s="72"/>
+      <c r="D32" s="73"/>
+    </row>
+    <row r="33" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A33" s="77" t="s">
         <v>72</v>
       </c>
-      <c r="B33" s="71"/>
-    </row>
-    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="B33" s="78"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="27" t="s">
         <v>0</v>
       </c>
@@ -3298,7 +3389,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="28" t="s">
         <v>1</v>
       </c>
@@ -3306,442 +3397,573 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="28" t="s">
         <v>2</v>
       </c>
       <c r="B36" s="24"/>
     </row>
-    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="28" t="s">
         <v>3</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A40" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B39" s="39"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="41"/>
-    </row>
-    <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="32" t="s">
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+    </row>
+    <row r="41" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A41" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B40" s="32" t="s">
+      <c r="B41" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C40" s="49" t="s">
+      <c r="C41" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="D40" s="35" t="s">
+      <c r="D41" s="35" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="86.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
+    <row r="42" spans="1:4" ht="72.3" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A42" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="101.1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A43" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="72.3" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A44" s="59" t="s">
+        <v>271</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="D44" s="74" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A45" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="70"/>
+      <c r="B46" s="71"/>
+      <c r="C46" s="72"/>
+      <c r="D46" s="73"/>
+    </row>
+    <row r="47" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A47" s="70"/>
+      <c r="B47" s="71"/>
+      <c r="C47" s="72"/>
+      <c r="D47" s="73"/>
+    </row>
+    <row r="48" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A48" s="77" t="s">
+        <v>262</v>
+      </c>
+      <c r="B48" s="78"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="26" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" s="24"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52" s="25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="75"/>
+      <c r="B53" s="76"/>
+    </row>
+    <row r="55" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A55" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" s="39"/>
+      <c r="C55" s="40"/>
+      <c r="D55" s="41"/>
+    </row>
+    <row r="56" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A56" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B56" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56" s="35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="86.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A57" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B57" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="C57" s="47" t="s">
+        <v>189</v>
+      </c>
+      <c r="D57" s="48" t="s">
         <v>190</v>
       </c>
-      <c r="C41" s="47" t="s">
+    </row>
+    <row r="58" spans="1:4" ht="72.3" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A58" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="D58" s="36" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="72.3" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A59" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D59" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="D41" s="48" t="s">
+    </row>
+    <row r="60" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A60" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B60" s="37" t="s">
+        <v>266</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="63" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A63" s="77" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" ht="72" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="C42" s="6" t="s">
+      <c r="B63" s="78"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" s="26" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B65" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B66" s="24"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67" s="25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A69" s="22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A70" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B70" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C70" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D70" s="35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="72.3" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A71" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D71" s="48" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="101.1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A72" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C72" s="47" t="s">
+        <v>209</v>
+      </c>
+      <c r="D72" s="36" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="72.3" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A73" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A74" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B74" s="37" t="s">
+        <v>235</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="77" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A77" s="77" t="s">
+        <v>199</v>
+      </c>
+      <c r="B77" s="78"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" s="26" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B80" s="24"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B81" s="25" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A83" s="22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A84" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B84" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C84" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D84" s="35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="72.3" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A85" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C85" s="47" t="s">
+        <v>224</v>
+      </c>
+      <c r="D85" s="61" t="s">
         <v>214</v>
       </c>
-      <c r="D42" s="36" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="86.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C43" s="5" t="s">
+    </row>
+    <row r="86" spans="1:4" ht="158.69999999999999" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A86" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="D43" s="8" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
+      <c r="B86" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C86" s="60" t="s">
+        <v>226</v>
+      </c>
+      <c r="D86" s="60" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="72.3" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A87" s="59" t="s">
+        <v>217</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C87" s="60" t="s">
+        <v>225</v>
+      </c>
+      <c r="D87" s="62" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A88" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B44" s="37" t="s">
+      <c r="B88" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="C88" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="D88" s="63" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="91" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A91" s="77" t="s">
+        <v>201</v>
+      </c>
+      <c r="B91" s="78"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92" s="26" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B93" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A94" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B94" s="24"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B95" s="25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A97" s="22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A98" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B98" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C98" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D98" s="35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="72.3" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A99" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C99" s="47" t="s">
+        <v>236</v>
+      </c>
+      <c r="D99" s="61" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="115.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A100" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C100" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="D100" s="60" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="86.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A101" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D101" s="62" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A102" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B102" s="37" t="s">
+        <v>234</v>
+      </c>
+      <c r="C102" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="D102" s="62" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="70" t="s">
-        <v>196</v>
-      </c>
-      <c r="B47" s="71"/>
-    </row>
-    <row r="48" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A48" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B48" s="26" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A49" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="B49" s="23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A50" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="B50" s="24"/>
-    </row>
-    <row r="51" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A51" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="B51" s="25" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="B54" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C54" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="D54" s="35" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="86.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="D55" s="48" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="114.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="C56" s="47" t="s">
-        <v>212</v>
-      </c>
-      <c r="D56" s="36" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="72" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="D57" s="11" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B58" s="37" t="s">
-        <v>239</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D58" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="70" t="s">
-        <v>202</v>
-      </c>
-      <c r="B61" s="71"/>
-    </row>
-    <row r="62" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A62" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B62" s="26" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A63" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="B63" s="23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A64" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="B64" s="24"/>
-    </row>
-    <row r="65" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A65" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="B65" s="25" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="B68" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C68" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="D68" s="35" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="72" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="C69" s="47" t="s">
-        <v>227</v>
-      </c>
-      <c r="D69" s="61" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="186" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="C70" s="60" t="s">
-        <v>229</v>
-      </c>
-      <c r="D70" s="60" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="72" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="59" t="s">
-        <v>220</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="C71" s="60" t="s">
-        <v>228</v>
-      </c>
-      <c r="D71" s="62" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B72" s="37" t="s">
-        <v>221</v>
-      </c>
-      <c r="C72" s="64" t="s">
-        <v>27</v>
-      </c>
-      <c r="D72" s="63" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="70" t="s">
-        <v>204</v>
-      </c>
-      <c r="B75" s="71"/>
-    </row>
-    <row r="76" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A76" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B76" s="26" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A77" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="B77" s="23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A78" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="B78" s="24"/>
-    </row>
-    <row r="79" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A79" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="B79" s="25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="B82" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C82" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="D82" s="35" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="86.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="C83" s="47" t="s">
-        <v>240</v>
-      </c>
-      <c r="D83" s="61" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="114.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="D84" s="60" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="86.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="D85" s="62" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B86" s="37" t="s">
-        <v>237</v>
-      </c>
-      <c r="C86" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D86" s="62" t="s">
-        <v>28</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A75:B75"/>
+  <mergeCells count="7">
+    <mergeCell ref="A91:B91"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A77:B77"/>
     <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A61:B61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/Acceptance Tests/Dispatcher.xlsx
+++ b/Acceptance Tests/Dispatcher.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26905"/>
   <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asaf/Desktop/GHealth-System/Acceptance Tests/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25440" windowHeight="15990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DataBase" sheetId="2" r:id="rId1"/>
@@ -12,10 +17,13 @@
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -23,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="265">
   <si>
     <t xml:space="preserve">Use Case: </t>
   </si>
@@ -578,9 +586,6 @@
   </si>
   <si>
     <t>123Gil</t>
-  </si>
-  <si>
-    <t>1.8.16</t>
   </si>
   <si>
     <t>2.8.16</t>
@@ -898,7 +903,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -906,7 +911,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -915,7 +920,7 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -923,7 +928,7 @@
       <b/>
       <u/>
       <sz val="14"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -931,20 +936,20 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1718,7 +1723,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1728,28 +1733,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="D109" sqref="D109"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="33.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5" customWidth="1"/>
-    <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>114</v>
       </c>
@@ -2087,12 +2092,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>7</v>
       </c>
@@ -2162,12 +2167,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
         <v>131</v>
       </c>
@@ -2186,7 +2191,7 @@
         <v>79</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -2227,14 +2232,14 @@
       <c r="B31" s="39"/>
       <c r="C31" s="40"/>
     </row>
-    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="46" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B33" s="45"/>
       <c r="C33" s="42"/>
@@ -2300,12 +2305,12 @@
       <c r="B42" s="39"/>
       <c r="C42" s="43"/>
     </row>
-    <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="44" t="s">
         <v>92</v>
       </c>
@@ -2355,12 +2360,12 @@
       <c r="B49" s="39"/>
       <c r="C49" s="40"/>
     </row>
-    <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="29" t="s">
         <v>7</v>
       </c>
@@ -2470,12 +2475,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="29" t="s">
         <v>76</v>
       </c>
@@ -2497,7 +2502,7 @@
         <v>11</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D65" s="57">
         <v>0.41666666666666669</v>
@@ -2511,7 +2516,7 @@
         <v>11</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D66" s="58">
         <v>0.4375</v>
@@ -2525,7 +2530,7 @@
         <v>22</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D67" s="58">
         <v>0.41666666666666669</v>
@@ -2539,7 +2544,7 @@
         <v>11</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D68" s="58">
         <v>0.45833333333333331</v>
@@ -2553,7 +2558,7 @@
         <v>22</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D69" s="58">
         <v>0.41666666666666669</v>
@@ -2567,7 +2572,7 @@
         <v>44</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D70" s="58">
         <v>0.5</v>
@@ -2581,7 +2586,7 @@
         <v>22</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D71" s="58">
         <v>0.72916666666666663</v>
@@ -2595,7 +2600,7 @@
         <v>44</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D72" s="58">
         <v>0.41666666666666669</v>
@@ -2609,7 +2614,7 @@
         <v>11</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D73" s="57">
         <v>0.39583333333333331</v>
@@ -2623,7 +2628,7 @@
         <v>11</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D74" s="58">
         <v>0.4375</v>
@@ -2637,7 +2642,7 @@
         <v>22</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D75" s="58">
         <v>0.41666666666666669</v>
@@ -2651,7 +2656,7 @@
         <v>11</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D76" s="58">
         <v>0.41666666666666669</v>
@@ -2665,7 +2670,7 @@
         <v>22</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D77" s="58">
         <v>0.4375</v>
@@ -2679,7 +2684,7 @@
         <v>44</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D78" s="58">
         <v>0.4375</v>
@@ -2693,7 +2698,7 @@
         <v>22</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D79" s="58">
         <v>0.5</v>
@@ -2707,18 +2712,18 @@
         <v>44</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D80" s="58">
         <v>0.5</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="29" t="s">
         <v>111</v>
       </c>
@@ -2740,7 +2745,7 @@
         <v>11</v>
       </c>
       <c r="C84" s="19" t="s">
-        <v>176</v>
+        <v>98</v>
       </c>
       <c r="D84" s="57">
         <v>0.41666666666666669</v>
@@ -2754,7 +2759,7 @@
         <v>22</v>
       </c>
       <c r="C85" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D85" s="58">
         <v>0.375</v>
@@ -2768,7 +2773,7 @@
         <v>11</v>
       </c>
       <c r="C86" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D86" s="58">
         <v>0.41666666666666669</v>
@@ -2782,7 +2787,7 @@
         <v>22</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D87" s="58">
         <v>0.45833333333333331</v>
@@ -2796,7 +2801,7 @@
         <v>44</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D88" s="58">
         <v>0.39583333333333331</v>
@@ -2810,7 +2815,7 @@
         <v>22</v>
       </c>
       <c r="C89" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D89" s="58">
         <v>0.41666666666666669</v>
@@ -2824,18 +2829,18 @@
         <v>44</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D90" s="58">
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="65" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="66" t="s">
         <v>111</v>
       </c>
@@ -2843,13 +2848,13 @@
         <v>76</v>
       </c>
       <c r="C94" s="67" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D94" s="67" t="s">
         <v>97</v>
       </c>
       <c r="E94" s="67" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F94" s="67" t="s">
         <v>17</v>
@@ -2866,13 +2871,13 @@
         <v>90000</v>
       </c>
       <c r="D95" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E95" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F95" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -2886,13 +2891,13 @@
         <v>90001</v>
       </c>
       <c r="D96" s="15" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E96" s="15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F96" s="68" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
@@ -2906,13 +2911,13 @@
         <v>90002</v>
       </c>
       <c r="D97" s="15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E97" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="F97" s="68" t="s">
         <v>263</v>
-      </c>
-      <c r="F97" s="68" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
@@ -2923,20 +2928,20 @@
       <c r="E98" s="69"/>
       <c r="F98" s="69"/>
     </row>
-    <row r="100" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="65" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" s="67" t="s">
+        <v>246</v>
+      </c>
+      <c r="B101" s="67" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A101" s="67" t="s">
-        <v>247</v>
-      </c>
-      <c r="B101" s="67" t="s">
+      <c r="C101" s="67" t="s">
         <v>253</v>
-      </c>
-      <c r="C101" s="67" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
@@ -2944,10 +2949,10 @@
         <v>90000</v>
       </c>
       <c r="B102" s="68" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C102" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
@@ -2955,10 +2960,10 @@
         <v>90001</v>
       </c>
       <c r="B103" s="68" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C103" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
@@ -2966,10 +2971,10 @@
         <v>90002</v>
       </c>
       <c r="B104" s="68" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C104" s="15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -3000,25 +3005,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="125" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.375" customWidth="1"/>
+    <col min="1" max="1" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.33203125" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="70" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="71"/>
     </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
@@ -3026,7 +3031,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="28" t="s">
         <v>1</v>
       </c>
@@ -3034,13 +3039,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="28" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="24"/>
     </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="28" t="s">
         <v>3</v>
       </c>
@@ -3048,7 +3053,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
         <v>13</v>
       </c>
@@ -3056,7 +3061,7 @@
       <c r="C8" s="21"/>
       <c r="D8" s="21"/>
     </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
         <v>14</v>
       </c>
@@ -3070,7 +3075,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="100.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
@@ -3084,7 +3089,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="100.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
@@ -3098,7 +3103,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="72" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>19</v>
       </c>
@@ -3112,7 +3117,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>23</v>
       </c>
@@ -3126,7 +3131,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>46</v>
       </c>
@@ -3140,14 +3145,14 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="70" t="s">
         <v>44</v>
       </c>
       <c r="B17" s="71"/>
     </row>
-    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="27" t="s">
         <v>0</v>
       </c>
@@ -3155,7 +3160,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="28" t="s">
         <v>1</v>
       </c>
@@ -3163,13 +3168,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="28" t="s">
         <v>2</v>
       </c>
       <c r="B20" s="24"/>
     </row>
-    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="28" t="s">
         <v>3</v>
       </c>
@@ -3177,7 +3182,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="22" t="s">
         <v>13</v>
       </c>
@@ -3185,7 +3190,7 @@
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
     </row>
-    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
         <v>14</v>
       </c>
@@ -3199,7 +3204,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>49</v>
       </c>
@@ -3213,7 +3218,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>50</v>
       </c>
@@ -3227,7 +3232,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>51</v>
       </c>
@@ -3241,7 +3246,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="72" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>52</v>
       </c>
@@ -3255,7 +3260,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="86.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>53</v>
       </c>
@@ -3269,7 +3274,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>23</v>
       </c>
@@ -3283,14 +3288,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="70" t="s">
         <v>72</v>
       </c>
       <c r="B33" s="71"/>
     </row>
-    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="27" t="s">
         <v>0</v>
       </c>
@@ -3298,7 +3303,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="28" t="s">
         <v>1</v>
       </c>
@@ -3306,13 +3311,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="28" t="s">
         <v>2</v>
       </c>
       <c r="B36" s="24"/>
     </row>
-    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="28" t="s">
         <v>3</v>
       </c>
@@ -3320,7 +3325,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
         <v>13</v>
       </c>
@@ -3328,7 +3333,7 @@
       <c r="C39" s="40"/>
       <c r="D39" s="41"/>
     </row>
-    <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="32" t="s">
         <v>14</v>
       </c>
@@ -3342,54 +3347,54 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="86.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="91" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C41" s="47" t="s">
+        <v>191</v>
+      </c>
+      <c r="D41" s="48" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B42" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D42" s="36" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="C41" s="47" t="s">
-        <v>192</v>
-      </c>
-      <c r="D41" s="48" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="72" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="C42" s="6" t="s">
+      <c r="C43" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="D42" s="36" t="s">
+      <c r="D43" s="8" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="86.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B44" s="37" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C44" s="9" t="s">
         <v>27</v>
@@ -3398,22 +3403,22 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="70" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B47" s="71"/>
     </row>
-    <row r="48" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="27" t="s">
         <v>0</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="28" t="s">
         <v>1</v>
       </c>
@@ -3421,13 +3426,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="28" t="s">
         <v>2</v>
       </c>
       <c r="B50" s="24"/>
     </row>
-    <row r="51" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="28" t="s">
         <v>3</v>
       </c>
@@ -3435,12 +3440,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="32" t="s">
         <v>14</v>
       </c>
@@ -3454,54 +3459,54 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="86.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D55" s="48" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="106" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B56" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C56" s="47" t="s">
         <v>211</v>
       </c>
-      <c r="D55" s="48" t="s">
+      <c r="D56" s="36" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="114.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="C56" s="47" t="s">
+    <row r="57" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C57" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="D56" s="36" t="s">
+      <c r="D57" s="11" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="72" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="D57" s="11" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B58" s="37" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C58" s="9" t="s">
         <v>27</v>
@@ -3510,22 +3515,22 @@
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="70" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B61" s="71"/>
     </row>
-    <row r="62" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="27" t="s">
         <v>0</v>
       </c>
       <c r="B62" s="26" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="28" t="s">
         <v>1</v>
       </c>
@@ -3533,26 +3538,26 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="28" t="s">
         <v>2</v>
       </c>
       <c r="B64" s="24"/>
     </row>
-    <row r="65" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="28" t="s">
         <v>3</v>
       </c>
       <c r="B65" s="25" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="32" t="s">
         <v>14</v>
       </c>
@@ -3566,54 +3571,54 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="72" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C69" s="47" t="s">
+        <v>226</v>
+      </c>
+      <c r="D69" s="61" t="s">
         <v>216</v>
       </c>
-      <c r="B69" s="5" t="s">
+    </row>
+    <row r="70" spans="1:4" ht="166" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B70" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="C69" s="47" t="s">
+      <c r="C70" s="60" t="s">
+        <v>228</v>
+      </c>
+      <c r="D70" s="60" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="59" t="s">
+        <v>219</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C71" s="60" t="s">
         <v>227</v>
       </c>
-      <c r="D69" s="61" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="186" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="C70" s="60" t="s">
-        <v>229</v>
-      </c>
-      <c r="D70" s="60" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="72" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="59" t="s">
-        <v>220</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="C71" s="60" t="s">
-        <v>228</v>
-      </c>
       <c r="D71" s="62" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B72" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C72" s="64" t="s">
         <v>27</v>
@@ -3622,22 +3627,22 @@
         <v>28</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="70" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B75" s="71"/>
     </row>
-    <row r="76" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="27" t="s">
         <v>0</v>
       </c>
       <c r="B76" s="26" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="28" t="s">
         <v>1</v>
       </c>
@@ -3645,13 +3650,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="28" t="s">
         <v>2</v>
       </c>
       <c r="B78" s="24"/>
     </row>
-    <row r="79" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="28" t="s">
         <v>3</v>
       </c>
@@ -3659,12 +3664,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="32" t="s">
         <v>14</v>
       </c>
@@ -3678,54 +3683,54 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="86.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B83" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C83" s="47" t="s">
+        <v>239</v>
+      </c>
+      <c r="D83" s="61" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="106" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="C83" s="47" t="s">
+      <c r="B84" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="D83" s="61" t="s">
+      <c r="C84" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D84" s="60" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="114.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="4" t="s">
+    <row r="85" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B85" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="B84" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="C84" s="6" t="s">
+      <c r="C85" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="D84" s="60" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="86.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="4" t="s">
+      <c r="D85" s="62" t="s">
         <v>230</v>
       </c>
-      <c r="B85" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="D85" s="62" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B86" s="37" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C86" s="9" t="s">
         <v>27</v>

--- a/Acceptance Tests/Dispatcher.xlsx
+++ b/Acceptance Tests/Dispatcher.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26905"/>
-  <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asaf/Desktop/GHealth-System/Acceptance Tests/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25440" windowHeight="15990" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DataBase" sheetId="2" r:id="rId1"/>
@@ -17,21 +12,18 @@
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="280">
   <si>
     <t xml:space="preserve">Use Case: </t>
   </si>
@@ -588,6 +580,9 @@
     <t>123Gil</t>
   </si>
   <si>
+    <t>1.8.16</t>
+  </si>
+  <si>
     <t>2.8.16</t>
   </si>
   <si>
@@ -622,21 +617,6 @@
   </si>
   <si>
     <t>NotSelected</t>
-  </si>
-  <si>
-    <t>1. Open "Create Appointment" window
-2. Choose from list: Dentist
-3. Click OK</t>
-  </si>
-  <si>
-    <t>1. Open "Create Appointment" window
-2. Choose from list: Orthophedy
-3. Click OK</t>
-  </si>
-  <si>
-    <t>1. Open "Create Appointment" window
-2. Choose from list: 
-3. Click OK</t>
   </si>
   <si>
     <t>system check for valid choose. System search for Orthopedy.
@@ -806,9 +786,6 @@
     <t>1. Open "Cancel Appointment" window.</t>
   </si>
   <si>
-    <t>1. Open "Create Appointment" window.</t>
-  </si>
-  <si>
     <t>1. Open "Choose Doctor" window.</t>
   </si>
   <si>
@@ -893,12 +870,78 @@
   </si>
   <si>
     <t>None</t>
+  </si>
+  <si>
+    <t>Acceptance Testing for Use Case: Insert Speciality</t>
+  </si>
+  <si>
+    <t>1. Open "Insert Speciality" window
+2. Choose from list: Orthophedy
+3. Click OK</t>
+  </si>
+  <si>
+    <t>1. Open "Insert Speciality" window
+2. Choose from list: Dentist
+3. Click OK</t>
+  </si>
+  <si>
+    <t>1. Open "Insert Speciality" window
+2. Choose from list: 
+3. Click OK</t>
+  </si>
+  <si>
+    <t>1. Open "Insert Speciality" window.</t>
+  </si>
+  <si>
+    <t>Insert Speciality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open "Create Appointment" window.
+2. Type reference ID:   12345678
+3. Click OK button.                                                  </t>
+  </si>
+  <si>
+    <t>ValidateRefSuccess</t>
+  </si>
+  <si>
+    <t>ValidateRefFailed</t>
+  </si>
+  <si>
+    <t>MissingRefNumber</t>
+  </si>
+  <si>
+    <t>1. Open "Create Appointment" window.
+2. Type reference ID:
+3. Click OK button</t>
+  </si>
+  <si>
+    <t>1. Open "Create Appointment" window.
+2. Type reference ID: 99887755
+3. Click OK button</t>
+  </si>
+  <si>
+    <t>Reference aproved by clinic.</t>
+  </si>
+  <si>
+    <t>Reference not aproved by clinic.</t>
+  </si>
+  <si>
+    <t>Requested field: Reference ID is empty</t>
+  </si>
+  <si>
+    <t>system checks that all required fields are filled. System validates reference number. Reference 12345678 is aproved by the client's clinic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">system checks that all required fields are filled. System validates reference number. Reference 99887755 is not aproved by the client's clinic. Display validate error, return to Create Appointment screen. </t>
+  </si>
+  <si>
+    <t>system checks that all required fields are filled. System display error "missing required field reference number". Return to Create Appointment screen.C55</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -980,7 +1023,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1218,12 +1261,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1416,6 +1470,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1424,8 +1499,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="היפר-קישור" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1511,7 +1586,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1546,7 +1621,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1733,28 +1808,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H104"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="33.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.47265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.89453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.47265625" customWidth="1"/>
+    <col min="4" max="4" width="15.1015625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.47265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.89453125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="29" t="s">
         <v>114</v>
       </c>
@@ -1780,7 +1855,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="17" t="s">
         <v>116</v>
       </c>
@@ -1806,7 +1881,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
         <v>118</v>
       </c>
@@ -1832,7 +1907,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3" t="s">
         <v>120</v>
       </c>
@@ -1858,7 +1933,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3" t="s">
         <v>121</v>
       </c>
@@ -1884,7 +1959,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3" t="s">
         <v>122</v>
       </c>
@@ -1910,7 +1985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3" t="s">
         <v>124</v>
       </c>
@@ -1936,7 +2011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3" t="s">
         <v>128</v>
       </c>
@@ -1962,7 +2037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="3" t="s">
         <v>167</v>
       </c>
@@ -1988,7 +2063,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3" t="s">
         <v>169</v>
       </c>
@@ -2014,7 +2089,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3" t="s">
         <v>170</v>
       </c>
@@ -2040,7 +2115,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3" t="s">
         <v>172</v>
       </c>
@@ -2066,7 +2141,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="3" t="s">
         <v>174</v>
       </c>
@@ -2092,12 +2167,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A18" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A19" s="29" t="s">
         <v>7</v>
       </c>
@@ -2111,7 +2186,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="17">
         <v>302632195</v>
       </c>
@@ -2125,7 +2200,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="2">
         <v>200940997</v>
       </c>
@@ -2139,7 +2214,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="3">
         <v>312143969</v>
       </c>
@@ -2153,7 +2228,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="3">
         <v>305003659</v>
       </c>
@@ -2167,12 +2242,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A25" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A26" s="29" t="s">
         <v>131</v>
       </c>
@@ -2183,7 +2258,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="15">
         <v>1002</v>
       </c>
@@ -2191,10 +2266,10 @@
         <v>79</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="15">
         <v>1004</v>
       </c>
@@ -2205,7 +2280,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="15">
         <v>1003</v>
       </c>
@@ -2216,7 +2291,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="19">
         <v>1001</v>
       </c>
@@ -2227,90 +2302,90 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="38"/>
       <c r="B31" s="39"/>
       <c r="C31" s="40"/>
     </row>
-    <row r="32" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A32" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A33" s="46" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B33" s="45"/>
       <c r="C33" s="42"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="19" t="s">
         <v>83</v>
       </c>
       <c r="B34" s="39"/>
       <c r="C34" s="43"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="15" t="s">
         <v>85</v>
       </c>
       <c r="B35" s="39"/>
       <c r="C35" s="43"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="15" t="s">
         <v>86</v>
       </c>
       <c r="B36" s="39"/>
       <c r="C36" s="43"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="15" t="s">
         <v>84</v>
       </c>
       <c r="B37" s="39"/>
       <c r="C37" s="43"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="15" t="s">
         <v>87</v>
       </c>
       <c r="B38" s="39"/>
       <c r="C38" s="43"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="15" t="s">
         <v>88</v>
       </c>
       <c r="B39" s="39"/>
       <c r="C39" s="43"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="15" t="s">
         <v>89</v>
       </c>
       <c r="B40" s="39"/>
       <c r="C40" s="43"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="15" t="s">
         <v>90</v>
       </c>
       <c r="B41" s="39"/>
       <c r="C41" s="43"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="40"/>
       <c r="B42" s="39"/>
       <c r="C42" s="43"/>
     </row>
-    <row r="43" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A43" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A44" s="44" t="s">
         <v>92</v>
       </c>
@@ -2319,7 +2394,7 @@
       </c>
       <c r="C44" s="42"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="17">
         <v>11</v>
       </c>
@@ -2328,7 +2403,7 @@
       </c>
       <c r="C45" s="43"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="2">
         <v>22</v>
       </c>
@@ -2337,7 +2412,7 @@
       </c>
       <c r="C46" s="43"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="3">
         <v>33</v>
       </c>
@@ -2346,7 +2421,7 @@
       </c>
       <c r="C47" s="43"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="3">
         <v>44</v>
       </c>
@@ -2355,17 +2430,17 @@
       </c>
       <c r="C48" s="43"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="38"/>
       <c r="B49" s="39"/>
       <c r="C49" s="40"/>
     </row>
-    <row r="51" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A51" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A52" s="29" t="s">
         <v>7</v>
       </c>
@@ -2376,7 +2451,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="17">
         <v>302632195</v>
       </c>
@@ -2387,7 +2462,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="17">
         <v>302632195</v>
       </c>
@@ -2398,7 +2473,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="17">
         <v>302632195</v>
       </c>
@@ -2409,7 +2484,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="2">
         <v>200940997</v>
       </c>
@@ -2420,7 +2495,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="2">
         <v>200940997</v>
       </c>
@@ -2431,7 +2506,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="3">
         <v>305003659</v>
       </c>
@@ -2442,7 +2517,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="3">
         <v>312143969</v>
       </c>
@@ -2453,7 +2528,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="3">
         <v>305003659</v>
       </c>
@@ -2464,7 +2539,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="3">
         <v>312143969</v>
       </c>
@@ -2475,12 +2550,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A63" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A64" s="29" t="s">
         <v>76</v>
       </c>
@@ -2494,7 +2569,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="19">
         <v>1001</v>
       </c>
@@ -2502,13 +2577,13 @@
         <v>11</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D65" s="57">
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="19">
         <v>1001</v>
       </c>
@@ -2516,13 +2591,13 @@
         <v>11</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D66" s="58">
         <v>0.4375</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="15">
         <v>1002</v>
       </c>
@@ -2530,13 +2605,13 @@
         <v>22</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D67" s="58">
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="19">
         <v>1001</v>
       </c>
@@ -2544,13 +2619,13 @@
         <v>11</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D68" s="58">
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="15">
         <v>1002</v>
       </c>
@@ -2558,13 +2633,13 @@
         <v>22</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D69" s="58">
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="15">
         <v>1004</v>
       </c>
@@ -2572,13 +2647,13 @@
         <v>44</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D70" s="58">
         <v>0.5</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="15">
         <v>1002</v>
       </c>
@@ -2586,13 +2661,13 @@
         <v>22</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D71" s="58">
         <v>0.72916666666666663</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="15">
         <v>1004</v>
       </c>
@@ -2600,13 +2675,13 @@
         <v>44</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D72" s="58">
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="19">
         <v>1001</v>
       </c>
@@ -2614,13 +2689,13 @@
         <v>11</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D73" s="57">
         <v>0.39583333333333331</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="19">
         <v>1001</v>
       </c>
@@ -2628,13 +2703,13 @@
         <v>11</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D74" s="58">
         <v>0.4375</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="15">
         <v>1002</v>
       </c>
@@ -2642,13 +2717,13 @@
         <v>22</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D75" s="58">
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="19">
         <v>1001</v>
       </c>
@@ -2656,13 +2731,13 @@
         <v>11</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D76" s="58">
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="15">
         <v>1002</v>
       </c>
@@ -2670,13 +2745,13 @@
         <v>22</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D77" s="58">
         <v>0.4375</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="15">
         <v>1004</v>
       </c>
@@ -2684,13 +2759,13 @@
         <v>44</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D78" s="58">
         <v>0.4375</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="15">
         <v>1002</v>
       </c>
@@ -2698,13 +2773,13 @@
         <v>22</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D79" s="58">
         <v>0.5</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="15">
         <v>1004</v>
       </c>
@@ -2712,18 +2787,18 @@
         <v>44</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D80" s="58">
         <v>0.5</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A82" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A83" s="29" t="s">
         <v>111</v>
       </c>
@@ -2737,7 +2812,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="17">
         <v>302632195</v>
       </c>
@@ -2745,13 +2820,13 @@
         <v>11</v>
       </c>
       <c r="C84" s="19" t="s">
-        <v>98</v>
+        <v>176</v>
       </c>
       <c r="D84" s="57">
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="17">
         <v>302632195</v>
       </c>
@@ -2759,13 +2834,13 @@
         <v>22</v>
       </c>
       <c r="C85" s="15" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D85" s="58">
         <v>0.375</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="3">
         <v>305003659</v>
       </c>
@@ -2773,13 +2848,13 @@
         <v>11</v>
       </c>
       <c r="C86" s="15" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D86" s="58">
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="3">
         <v>305003659</v>
       </c>
@@ -2787,13 +2862,13 @@
         <v>22</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D87" s="58">
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="3">
         <v>305003659</v>
       </c>
@@ -2801,13 +2876,13 @@
         <v>44</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D88" s="58">
         <v>0.39583333333333331</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="3">
         <v>312143969</v>
       </c>
@@ -2815,13 +2890,13 @@
         <v>22</v>
       </c>
       <c r="C89" s="15" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D89" s="58">
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="3">
         <v>312143969</v>
       </c>
@@ -2829,18 +2904,18 @@
         <v>44</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D90" s="58">
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="65" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="66" t="s">
         <v>111</v>
       </c>
@@ -2848,19 +2923,19 @@
         <v>76</v>
       </c>
       <c r="C94" s="67" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D94" s="67" t="s">
         <v>97</v>
       </c>
       <c r="E94" s="67" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F94" s="67" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="15">
         <v>302632195</v>
       </c>
@@ -2871,16 +2946,16 @@
         <v>90000</v>
       </c>
       <c r="D95" s="15" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E95" s="15" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F95" s="15" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="15">
         <v>305003659</v>
       </c>
@@ -2891,16 +2966,16 @@
         <v>90001</v>
       </c>
       <c r="D96" s="15" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E96" s="15" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F96" s="68" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="15">
         <v>200940997</v>
       </c>
@@ -2911,16 +2986,16 @@
         <v>90002</v>
       </c>
       <c r="D97" s="15" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E97" s="15" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F97" s="68" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="69"/>
       <c r="B98" s="69"/>
       <c r="C98" s="69"/>
@@ -2928,53 +3003,53 @@
       <c r="E98" s="69"/>
       <c r="F98" s="69"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="65" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="67" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B101" s="67" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C101" s="67" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="15">
         <v>90000</v>
       </c>
       <c r="B102" s="68" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C102" s="15" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="15">
         <v>90001</v>
       </c>
       <c r="B103" s="68" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C103" s="15" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="15">
         <v>90002</v>
       </c>
       <c r="B104" s="68" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C104" s="15" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -3003,27 +3078,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D86"/>
+  <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="125" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="31.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.33203125" customWidth="1"/>
+    <col min="1" max="1" width="31.89453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.3671875" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.3671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+    <row r="1" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="71"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" s="78"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
@@ -3031,7 +3106,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="28" t="s">
         <v>1</v>
       </c>
@@ -3039,13 +3114,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="28" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="24"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="28" t="s">
         <v>3</v>
       </c>
@@ -3053,7 +3128,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A8" s="22" t="s">
         <v>13</v>
       </c>
@@ -3061,7 +3136,7 @@
       <c r="C8" s="21"/>
       <c r="D8" s="21"/>
     </row>
-    <row r="9" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A9" s="32" t="s">
         <v>14</v>
       </c>
@@ -3075,7 +3150,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="86.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
@@ -3089,7 +3164,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="72.3" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
@@ -3103,7 +3178,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="72.3" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A12" s="7" t="s">
         <v>19</v>
       </c>
@@ -3117,7 +3192,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A13" s="7" t="s">
         <v>23</v>
       </c>
@@ -3131,7 +3206,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A14" s="7" t="s">
         <v>46</v>
       </c>
@@ -3145,14 +3220,14 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="70" t="s">
+    <row r="16" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="17" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A17" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="71"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="78"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="27" t="s">
         <v>0</v>
       </c>
@@ -3160,7 +3235,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="28" t="s">
         <v>1</v>
       </c>
@@ -3168,13 +3243,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="28" t="s">
         <v>2</v>
       </c>
       <c r="B20" s="24"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="28" t="s">
         <v>3</v>
       </c>
@@ -3182,7 +3257,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A23" s="22" t="s">
         <v>13</v>
       </c>
@@ -3190,7 +3265,7 @@
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
     </row>
-    <row r="24" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A24" s="32" t="s">
         <v>14</v>
       </c>
@@ -3204,7 +3279,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="57.9" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A25" s="4" t="s">
         <v>49</v>
       </c>
@@ -3218,7 +3293,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="57.9" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A26" s="4" t="s">
         <v>50</v>
       </c>
@@ -3232,7 +3307,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="57.9" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A27" s="7" t="s">
         <v>51</v>
       </c>
@@ -3246,7 +3321,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="57.9" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A28" s="7" t="s">
         <v>52</v>
       </c>
@@ -3260,7 +3335,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="72.3" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A29" s="12" t="s">
         <v>53</v>
       </c>
@@ -3274,7 +3349,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A30" s="7" t="s">
         <v>23</v>
       </c>
@@ -3288,14 +3363,25 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="70" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="70"/>
+      <c r="B31" s="71"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="73"/>
+    </row>
+    <row r="32" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A32" s="70"/>
+      <c r="B32" s="71"/>
+      <c r="C32" s="72"/>
+      <c r="D32" s="73"/>
+    </row>
+    <row r="33" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A33" s="77" t="s">
         <v>72</v>
       </c>
-      <c r="B33" s="71"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B33" s="78"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="27" t="s">
         <v>0</v>
       </c>
@@ -3303,7 +3389,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="28" t="s">
         <v>1</v>
       </c>
@@ -3311,442 +3397,573 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="28" t="s">
         <v>2</v>
       </c>
       <c r="B36" s="24"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="28" t="s">
         <v>3</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A40" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B39" s="39"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="41"/>
-    </row>
-    <row r="40" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="32" t="s">
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+    </row>
+    <row r="41" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A41" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B40" s="32" t="s">
+      <c r="B41" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C40" s="49" t="s">
+      <c r="C41" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="D40" s="35" t="s">
+      <c r="D41" s="35" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="91" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="B41" s="5" t="s">
+    <row r="42" spans="1:4" ht="72.3" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A42" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="101.1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A43" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="72.3" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A44" s="59" t="s">
+        <v>271</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="D44" s="74" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A45" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="70"/>
+      <c r="B46" s="71"/>
+      <c r="C46" s="72"/>
+      <c r="D46" s="73"/>
+    </row>
+    <row r="47" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A47" s="70"/>
+      <c r="B47" s="71"/>
+      <c r="C47" s="72"/>
+      <c r="D47" s="73"/>
+    </row>
+    <row r="48" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A48" s="77" t="s">
+        <v>262</v>
+      </c>
+      <c r="B48" s="78"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="26" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" s="24"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52" s="25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="75"/>
+      <c r="B53" s="76"/>
+    </row>
+    <row r="55" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A55" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" s="39"/>
+      <c r="C55" s="40"/>
+      <c r="D55" s="41"/>
+    </row>
+    <row r="56" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A56" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B56" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56" s="35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="86.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A57" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="C57" s="47" t="s">
         <v>189</v>
       </c>
-      <c r="C41" s="47" t="s">
+      <c r="D57" s="48" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="72.3" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A58" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="D58" s="36" t="s">
         <v>191</v>
       </c>
-      <c r="D41" s="48" t="s">
+    </row>
+    <row r="59" spans="1:4" ht="72.3" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A59" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D59" s="8" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="C42" s="6" t="s">
+    <row r="60" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A60" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B60" s="37" t="s">
+        <v>266</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="63" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A63" s="77" t="s">
+        <v>193</v>
+      </c>
+      <c r="B63" s="78"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" s="26" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B65" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B66" s="24"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67" s="25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A69" s="22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A70" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B70" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C70" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D70" s="35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="72.3" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A71" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D71" s="48" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="101.1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A72" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C72" s="47" t="s">
+        <v>209</v>
+      </c>
+      <c r="D72" s="36" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="72.3" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A73" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A74" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B74" s="37" t="s">
+        <v>235</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="77" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A77" s="77" t="s">
+        <v>199</v>
+      </c>
+      <c r="B77" s="78"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" s="26" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B80" s="24"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B81" s="25" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A83" s="22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A84" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B84" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C84" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D84" s="35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="72.3" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A85" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="D42" s="36" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="C43" s="5" t="s">
+      <c r="B85" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C85" s="47" t="s">
+        <v>224</v>
+      </c>
+      <c r="D85" s="61" t="s">
         <v>214</v>
       </c>
-      <c r="D43" s="8" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
+    </row>
+    <row r="86" spans="1:4" ht="158.69999999999999" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A86" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C86" s="60" t="s">
+        <v>226</v>
+      </c>
+      <c r="D86" s="60" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="72.3" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A87" s="59" t="s">
+        <v>217</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C87" s="60" t="s">
+        <v>225</v>
+      </c>
+      <c r="D87" s="62" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A88" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B44" s="37" t="s">
+      <c r="B88" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="C88" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="D88" s="63" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="91" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A91" s="77" t="s">
+        <v>201</v>
+      </c>
+      <c r="B91" s="78"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92" s="26" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B93" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A94" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B94" s="24"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B95" s="25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A97" s="22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A98" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B98" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C98" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D98" s="35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="72.3" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A99" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C99" s="47" t="s">
+        <v>236</v>
+      </c>
+      <c r="D99" s="61" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="115.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A100" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B100" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C100" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D100" s="60" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="86.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A101" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D101" s="62" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A102" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B102" s="37" t="s">
+        <v>234</v>
+      </c>
+      <c r="C102" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="D102" s="62" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="70" t="s">
-        <v>195</v>
-      </c>
-      <c r="B47" s="71"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B48" s="26" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="B49" s="23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="B50" s="24"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="B51" s="25" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="B54" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C54" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="D54" s="35" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="D55" s="48" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="106" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="C56" s="47" t="s">
-        <v>211</v>
-      </c>
-      <c r="D56" s="36" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="D57" s="11" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B58" s="37" t="s">
-        <v>238</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D58" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="70" t="s">
-        <v>201</v>
-      </c>
-      <c r="B61" s="71"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B62" s="26" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="B63" s="23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="B64" s="24"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="B65" s="25" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="B68" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C68" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="D68" s="35" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="C69" s="47" t="s">
-        <v>226</v>
-      </c>
-      <c r="D69" s="61" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="166" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="C70" s="60" t="s">
-        <v>228</v>
-      </c>
-      <c r="D70" s="60" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="59" t="s">
-        <v>219</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="C71" s="60" t="s">
-        <v>227</v>
-      </c>
-      <c r="D71" s="62" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B72" s="37" t="s">
-        <v>220</v>
-      </c>
-      <c r="C72" s="64" t="s">
-        <v>27</v>
-      </c>
-      <c r="D72" s="63" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="70" t="s">
-        <v>203</v>
-      </c>
-      <c r="B75" s="71"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B76" s="26" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="B77" s="23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="B78" s="24"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="B79" s="25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="B82" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C82" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="D82" s="35" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="C83" s="47" t="s">
-        <v>239</v>
-      </c>
-      <c r="D83" s="61" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="106" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="D84" s="60" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="D85" s="62" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B86" s="37" t="s">
-        <v>236</v>
-      </c>
-      <c r="C86" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D86" s="62" t="s">
-        <v>28</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A75:B75"/>
+  <mergeCells count="7">
+    <mergeCell ref="A91:B91"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A77:B77"/>
     <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A61:B61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/Acceptance Tests/Dispatcher.xlsx
+++ b/Acceptance Tests/Dispatcher.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="272">
   <si>
     <t xml:space="preserve">Use Case: </t>
   </si>
@@ -888,6 +888,24 @@
   </si>
   <si>
     <t>None</t>
+  </si>
+  <si>
+    <t>Reference Number</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>catheterization</t>
+  </si>
+  <si>
+    <t>Scoliosis</t>
+  </si>
+  <si>
+    <t>Upper Respiratory Tract Infection</t>
+  </si>
+  <si>
+    <t>4.7.16</t>
   </si>
 </sst>
 </file>
@@ -1410,12 +1428,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1718,7 +1738,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1726,10 +1746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H104"/>
+  <dimension ref="A2:H111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="D109" sqref="D109"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="G102" sqref="G102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2713,12 +2733,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="29" t="s">
         <v>111</v>
       </c>
@@ -2732,7 +2752,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="17">
         <v>302632195</v>
       </c>
@@ -2746,7 +2766,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="17">
         <v>302632195</v>
       </c>
@@ -2760,7 +2780,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>305003659</v>
       </c>
@@ -2774,7 +2794,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>305003659</v>
       </c>
@@ -2788,7 +2808,7 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>305003659</v>
       </c>
@@ -2802,7 +2822,7 @@
         <v>0.39583333333333331</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>312143969</v>
       </c>
@@ -2816,7 +2836,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>312143969</v>
       </c>
@@ -2830,107 +2850,134 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="65" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="66" t="s">
+        <v>266</v>
+      </c>
+      <c r="B94" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="B94" s="66" t="s">
+      <c r="C94" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="C94" s="67" t="s">
+      <c r="D94" s="67" t="s">
         <v>247</v>
       </c>
-      <c r="D94" s="67" t="s">
+      <c r="E94" s="67" t="s">
         <v>97</v>
       </c>
-      <c r="E94" s="67" t="s">
+      <c r="F94" s="67" t="s">
         <v>248</v>
       </c>
-      <c r="F94" s="67" t="s">
+      <c r="G94" s="67" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="15">
+        <v>10000000</v>
+      </c>
+      <c r="B95" s="15">
         <v>302632195</v>
       </c>
-      <c r="B95" s="15">
+      <c r="C95" s="15">
         <v>1004</v>
       </c>
-      <c r="C95" s="15">
+      <c r="D95" s="15">
         <v>90000</v>
       </c>
-      <c r="D95" s="15" t="s">
+      <c r="E95" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="E95" s="15" t="s">
+      <c r="F95" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="F95" s="15" t="s">
+      <c r="G95" s="15" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="15">
+        <v>20000000</v>
+      </c>
+      <c r="B96" s="15">
         <v>305003659</v>
       </c>
-      <c r="B96" s="15">
+      <c r="C96" s="15">
         <v>1002</v>
       </c>
-      <c r="C96" s="15">
+      <c r="D96" s="15">
         <v>90001</v>
       </c>
-      <c r="D96" s="15" t="s">
+      <c r="E96" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="E96" s="15" t="s">
+      <c r="F96" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="F96" s="68" t="s">
+      <c r="G96" s="68" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="15">
+        <v>30000000</v>
+      </c>
+      <c r="B97" s="15">
         <v>200940997</v>
       </c>
-      <c r="B97" s="15">
+      <c r="C97" s="15">
         <v>1001</v>
       </c>
-      <c r="C97" s="15">
+      <c r="D97" s="15">
         <v>90002</v>
       </c>
-      <c r="D97" s="15" t="s">
+      <c r="E97" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="E97" s="15" t="s">
+      <c r="F97" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="F97" s="68" t="s">
+      <c r="G97" s="68" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="69"/>
-      <c r="B98" s="69"/>
-      <c r="C98" s="69"/>
-      <c r="D98" s="69"/>
-      <c r="E98" s="69"/>
-      <c r="F98" s="69"/>
-    </row>
-    <row r="100" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" s="71">
+        <v>40000000</v>
+      </c>
+      <c r="B98" s="15">
+        <v>312143969</v>
+      </c>
+      <c r="C98" s="15">
+        <v>1002</v>
+      </c>
+      <c r="D98" s="15">
+        <v>90001</v>
+      </c>
+      <c r="E98" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="F98" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="G98" s="68" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="65" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="67" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="B101" s="67" t="s">
         <v>253</v>
@@ -2939,9 +2986,9 @@
         <v>254</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="15">
-        <v>90000</v>
+        <v>10000000</v>
       </c>
       <c r="B102" s="68" t="s">
         <v>257</v>
@@ -2950,9 +2997,9 @@
         <v>255</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="15">
-        <v>90001</v>
+        <v>20000000</v>
       </c>
       <c r="B103" s="68" t="s">
         <v>258</v>
@@ -2961,15 +3008,47 @@
         <v>255</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="15">
-        <v>90002</v>
+        <v>30000000</v>
       </c>
       <c r="B104" s="68" t="s">
         <v>262</v>
       </c>
       <c r="C104" s="15" t="s">
         <v>256</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A108" s="67" t="s">
+        <v>247</v>
+      </c>
+      <c r="B108" s="67" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109" s="15">
+        <v>90000</v>
+      </c>
+      <c r="B109" s="68" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110" s="15">
+        <v>90001</v>
+      </c>
+      <c r="B110" s="68" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111" s="15">
+        <v>90002</v>
+      </c>
+      <c r="B111" s="68" t="s">
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -3013,10 +3092,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="71"/>
+      <c r="B1" s="70"/>
     </row>
     <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
@@ -3142,10 +3221,10 @@
     </row>
     <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="70" t="s">
+      <c r="A17" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="71"/>
+      <c r="B17" s="70"/>
     </row>
     <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="27" t="s">
@@ -3285,10 +3364,10 @@
     </row>
     <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="70" t="s">
+      <c r="A33" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="B33" s="71"/>
+      <c r="B33" s="70"/>
     </row>
     <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="27" t="s">
@@ -3400,10 +3479,10 @@
     </row>
     <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="70" t="s">
+      <c r="A47" s="69" t="s">
         <v>196</v>
       </c>
-      <c r="B47" s="71"/>
+      <c r="B47" s="70"/>
     </row>
     <row r="48" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="27" t="s">
@@ -3512,10 +3591,10 @@
     </row>
     <row r="60" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="61" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="70" t="s">
+      <c r="A61" s="69" t="s">
         <v>202</v>
       </c>
-      <c r="B61" s="71"/>
+      <c r="B61" s="70"/>
     </row>
     <row r="62" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="27" t="s">
@@ -3624,10 +3703,10 @@
     </row>
     <row r="74" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="75" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="70" t="s">
+      <c r="A75" s="69" t="s">
         <v>204</v>
       </c>
-      <c r="B75" s="71"/>
+      <c r="B75" s="70"/>
     </row>
     <row r="76" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="27" t="s">

--- a/Acceptance Tests/Dispatcher.xlsx
+++ b/Acceptance Tests/Dispatcher.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="289">
   <si>
     <t xml:space="preserve">Use Case: </t>
   </si>
@@ -176,9 +176,6 @@
     <t>System checks that all required fields are filled. System checks for valid ID. System reports for invalid ID input.</t>
   </si>
   <si>
-    <t xml:space="preserve">System found bad ID input by checking the ID number with IL ID Algorithm. </t>
-  </si>
-  <si>
     <t>NewClientCreated</t>
   </si>
   <si>
@@ -192,16 +189,6 @@
   </si>
   <si>
     <t>MissingAddressAndName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Open "Find Client" window.
-2. Type Client's ID:   12345678
-3. Click OK button.                                                  </t>
-  </si>
-  <si>
-    <t>1. Open "Find Client" window.
-2. Type Client's ID: 99887755
-3. Click OK button</t>
   </si>
   <si>
     <t>1. Open "Create  new client" window.
@@ -936,6 +923,54 @@
   </si>
   <si>
     <t>system checks that all required fields are filled. System display error "missing required field reference number". Return to Create Appointment screen.C55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open "Find Client" window.
+2. Type Client's ID:   302632195
+3. Click OK button.                                                  </t>
+  </si>
+  <si>
+    <t>1. Open "Find Client" window.
+2. Type Client's ID: 200940992
+3. Click OK button</t>
+  </si>
+  <si>
+    <t>1. Open "Find Client" window.
+2. Type Client's ID: 3026321
+3. Click OK button</t>
+  </si>
+  <si>
+    <t>System found bad ID input by checking the ID. ID is 9 numbers.</t>
+  </si>
+  <si>
+    <t>AlreadyExistedMail</t>
+  </si>
+  <si>
+    <t>1. Open "Create  new client" window.
+2. Type Name: Israel Israeli
+3. Type Address: Tel - Aviv
+4. Type Email: 111@gmail.com</t>
+  </si>
+  <si>
+    <t>BadEmailInput</t>
+  </si>
+  <si>
+    <t>1. Open "Create  new client" window.
+2. Type Name: Israel Israeli
+3. Type Address: Tel - Aviv
+4. Type Email: 111gmail.com</t>
+  </si>
+  <si>
+    <t>System checks that all required fields are filled. System validate email. System display error that email already exists in db.</t>
+  </si>
+  <si>
+    <t>in case the email is already used by another user.</t>
+  </si>
+  <si>
+    <t>System checks that all required fields are filled. System validate email. System display error that email is not valid.</t>
+  </si>
+  <si>
+    <t>in case the email is in bad format.</t>
   </si>
 </sst>
 </file>
@@ -1277,7 +1312,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1311,9 +1346,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1808,8 +1840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H104"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D109" sqref="D109"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1826,377 +1858,377 @@
   <sheetData>
     <row r="2" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="29" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="29" t="s">
+      <c r="C3" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="52" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="17">
+        <v>1234</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="B3" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="E3" s="31" t="s">
+      <c r="D4" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="E4" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="F4" s="18">
+        <v>1001</v>
+      </c>
+      <c r="G4" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="G3" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="53" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="B4" s="18">
-        <v>1234</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="D4" s="54" t="s">
-        <v>133</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="F4" s="19">
-        <v>1001</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="H4" s="19">
+      <c r="H4" s="18">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B5" s="13">
+        <v>115</v>
+      </c>
+      <c r="B5" s="12">
         <v>4321</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="D5" s="56" t="s">
-        <v>141</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="F5" s="15">
+      <c r="C5" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="55" t="s">
+        <v>138</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="F5" s="14">
         <v>1002</v>
       </c>
-      <c r="G5" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="H5" s="15">
+      <c r="G5" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="H5" s="14">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B6" s="14">
+        <v>117</v>
+      </c>
+      <c r="B6" s="13">
         <v>5431</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="D6" s="56" t="s">
-        <v>143</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="F6" s="15">
+      <c r="C6" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" s="55" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="F6" s="14">
         <v>1003</v>
       </c>
-      <c r="G6" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="H6" s="15">
+      <c r="G6" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="H6" s="14">
         <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="D7" s="56" t="s">
-        <v>145</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="F7" s="15">
+        <v>118</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="55" t="s">
+        <v>142</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="F7" s="14">
         <v>1004</v>
       </c>
-      <c r="G7" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="H7" s="15">
+      <c r="G7" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="H7" s="14">
         <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="C8" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="55" t="s">
-        <v>147</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="F8" s="15">
+      <c r="D8" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="F8" s="14">
         <v>1005</v>
       </c>
-      <c r="G8" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="H8" s="15">
+      <c r="G8" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="H8" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="C9" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="55" t="s">
+      <c r="D9" s="54" t="s">
+        <v>143</v>
+      </c>
+      <c r="E9" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="E9" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="F9" s="15">
+      <c r="F9" s="14">
         <v>1006</v>
       </c>
-      <c r="G9" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="H9" s="15">
+      <c r="G9" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="H9" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="D10" s="55" t="s">
-        <v>150</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="F10" s="15">
+        <v>125</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" s="54" t="s">
+        <v>147</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="F10" s="14">
         <v>1007</v>
       </c>
-      <c r="G10" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="H10" s="15">
+      <c r="G10" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="H10" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="C11" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="D11" s="54" t="s">
+        <v>151</v>
+      </c>
+      <c r="E11" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="D11" s="55" t="s">
-        <v>154</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="F11" s="15">
+      <c r="F11" s="14">
         <v>1008</v>
       </c>
-      <c r="G11" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="H11" s="15">
+      <c r="G11" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="H11" s="14">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="B12" s="14">
+        <v>166</v>
+      </c>
+      <c r="B12" s="13">
         <v>4321</v>
       </c>
-      <c r="C12" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="D12" s="55" t="s">
-        <v>156</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="F12" s="15">
+      <c r="C12" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="D12" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="F12" s="14">
         <v>1009</v>
       </c>
-      <c r="G12" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="H12" s="15">
+      <c r="G12" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="H12" s="14">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="D13" s="55" t="s">
-        <v>157</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="F13" s="15">
+        <v>167</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="D13" s="54" t="s">
+        <v>154</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="F13" s="14">
         <v>1010</v>
       </c>
-      <c r="G13" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="H13" s="15">
+      <c r="G13" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="H13" s="14">
         <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="D14" s="55" t="s">
-        <v>159</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="F14" s="15">
+        <v>169</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="D14" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="F14" s="14">
         <v>1011</v>
       </c>
-      <c r="G14" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="H14" s="15">
+      <c r="G14" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="H14" s="14">
         <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="D15" s="55" t="s">
-        <v>160</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="F15" s="15">
+        <v>171</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="D15" s="54" t="s">
+        <v>157</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="F15" s="14">
         <v>1012</v>
       </c>
-      <c r="G15" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="H15" s="15">
+      <c r="G15" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="H15" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A18" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="30" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="17">
+      <c r="A20" s="16">
         <v>302632195</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="19" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2204,13 +2236,13 @@
       <c r="A21" s="2">
         <v>200940997</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="15" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2218,13 +2250,13 @@
       <c r="A22" s="3">
         <v>312143969</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="15" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2232,611 +2264,611 @@
       <c r="A23" s="3">
         <v>305003659</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="15" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A25" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A26" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="B26" s="29" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A26" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="B26" s="30" t="s">
+      <c r="C26" s="30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="14">
+        <v>1002</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="14">
+        <v>1004</v>
+      </c>
+      <c r="B28" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="C26" s="31" t="s">
+      <c r="C28" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="14">
+        <v>1003</v>
+      </c>
+      <c r="B29" s="13" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="15">
-        <v>1002</v>
-      </c>
-      <c r="B27" s="18" t="s">
+      <c r="C29" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="18">
+        <v>1001</v>
+      </c>
+      <c r="B30" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C27" s="19" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="15">
-        <v>1004</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="15">
-        <v>1003</v>
-      </c>
-      <c r="B29" s="14" t="s">
+      <c r="C30" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="C29" s="15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="19">
-        <v>1001</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>84</v>
-      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="38"/>
-      <c r="B31" s="39"/>
-      <c r="C31" s="40"/>
+      <c r="A31" s="37"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="39"/>
     </row>
     <row r="32" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A32" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A33" s="46" t="s">
-        <v>240</v>
-      </c>
-      <c r="B33" s="45"/>
-      <c r="C33" s="42"/>
+      <c r="A33" s="45" t="s">
+        <v>237</v>
+      </c>
+      <c r="B33" s="44"/>
+      <c r="C33" s="41"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" s="38"/>
+      <c r="C34" s="42"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" s="38"/>
+      <c r="C35" s="42"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B34" s="39"/>
-      <c r="C34" s="43"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="15" t="s">
+      <c r="B36" s="38"/>
+      <c r="C36" s="42"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" s="38"/>
+      <c r="C37" s="42"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" s="38"/>
+      <c r="C38" s="42"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="B35" s="39"/>
-      <c r="C35" s="43"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="15" t="s">
+      <c r="B39" s="38"/>
+      <c r="C39" s="42"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="B36" s="39"/>
-      <c r="C36" s="43"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="B37" s="39"/>
-      <c r="C37" s="43"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="15" t="s">
+      <c r="B40" s="38"/>
+      <c r="C40" s="42"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="B38" s="39"/>
-      <c r="C38" s="43"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B39" s="39"/>
-      <c r="C39" s="43"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="B40" s="39"/>
-      <c r="C40" s="43"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="B41" s="39"/>
-      <c r="C41" s="43"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="42"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="40"/>
-      <c r="B42" s="39"/>
-      <c r="C42" s="43"/>
+      <c r="A42" s="39"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="42"/>
     </row>
     <row r="43" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A43" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A44" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="B44" s="46" t="s">
-        <v>93</v>
-      </c>
-      <c r="C44" s="42"/>
+      <c r="A44" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" s="41"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="17">
+      <c r="A45" s="16">
         <v>11</v>
       </c>
-      <c r="B45" s="52" t="s">
+      <c r="B45" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="C45" s="43"/>
+      <c r="C45" s="42"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="2">
         <v>22</v>
       </c>
-      <c r="B46" s="50" t="s">
-        <v>94</v>
-      </c>
-      <c r="C46" s="43"/>
+      <c r="B46" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" s="42"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="3">
         <v>33</v>
       </c>
-      <c r="B47" s="51" t="s">
-        <v>95</v>
-      </c>
-      <c r="C47" s="43"/>
+      <c r="B47" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47" s="42"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="3">
         <v>44</v>
       </c>
-      <c r="B48" s="51" t="s">
-        <v>96</v>
-      </c>
-      <c r="C48" s="43"/>
+      <c r="B48" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="C48" s="42"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="38"/>
-      <c r="B49" s="39"/>
-      <c r="C49" s="40"/>
+      <c r="A49" s="37"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="39"/>
     </row>
     <row r="51" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A51" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A52" s="29" t="s">
+      <c r="A52" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B52" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="C52" s="31" t="s">
+      <c r="B52" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="C52" s="30" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="16">
+        <v>302632195</v>
+      </c>
+      <c r="B53" s="17">
+        <v>1001</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="16">
+        <v>302632195</v>
+      </c>
+      <c r="B54" s="12">
+        <v>1002</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="16">
+        <v>302632195</v>
+      </c>
+      <c r="B55" s="13">
+        <v>1003</v>
+      </c>
+      <c r="C55" s="14" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="17">
-        <v>302632195</v>
-      </c>
-      <c r="B53" s="18">
-        <v>1001</v>
-      </c>
-      <c r="C53" s="19" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="17">
-        <v>302632195</v>
-      </c>
-      <c r="B54" s="13">
-        <v>1002</v>
-      </c>
-      <c r="C54" s="15" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="17">
-        <v>302632195</v>
-      </c>
-      <c r="B55" s="14">
-        <v>1003</v>
-      </c>
-      <c r="C55" s="15" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="2">
         <v>200940997</v>
       </c>
-      <c r="B56" s="14">
+      <c r="B56" s="13">
         <v>1001</v>
       </c>
-      <c r="C56" s="15" t="s">
-        <v>101</v>
+      <c r="C56" s="14" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="2">
         <v>200940997</v>
       </c>
-      <c r="B57" s="14">
+      <c r="B57" s="13">
         <v>1002</v>
       </c>
-      <c r="C57" s="15" t="s">
-        <v>102</v>
+      <c r="C57" s="14" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="3">
         <v>305003659</v>
       </c>
-      <c r="B58" s="14">
+      <c r="B58" s="13">
         <v>1004</v>
       </c>
-      <c r="C58" s="15" t="s">
-        <v>103</v>
+      <c r="C58" s="14" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="3">
         <v>312143969</v>
       </c>
-      <c r="B59" s="14">
+      <c r="B59" s="13">
         <v>1002</v>
       </c>
-      <c r="C59" s="15" t="s">
-        <v>104</v>
+      <c r="C59" s="14" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="3">
         <v>305003659</v>
       </c>
-      <c r="B60" s="14">
+      <c r="B60" s="13">
         <v>1003</v>
       </c>
-      <c r="C60" s="15" t="s">
-        <v>106</v>
+      <c r="C60" s="14" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="3">
         <v>312143969</v>
       </c>
-      <c r="B61" s="14">
+      <c r="B61" s="13">
         <v>1004</v>
       </c>
-      <c r="C61" s="15" t="s">
-        <v>107</v>
+      <c r="C61" s="14" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A63" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A64" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="B64" s="46" t="s">
-        <v>92</v>
-      </c>
-      <c r="C64" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="D64" s="31" t="s">
-        <v>109</v>
+      <c r="A64" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B64" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="D64" s="30" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" s="19">
+      <c r="A65" s="18">
         <v>1001</v>
       </c>
-      <c r="B65" s="18">
+      <c r="B65" s="17">
         <v>11</v>
       </c>
-      <c r="C65" s="19" t="s">
+      <c r="C65" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="D65" s="56">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="18">
+        <v>1001</v>
+      </c>
+      <c r="B66" s="12">
+        <v>11</v>
+      </c>
+      <c r="C66" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="D66" s="57">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="14">
+        <v>1002</v>
+      </c>
+      <c r="B67" s="13">
+        <v>22</v>
+      </c>
+      <c r="C67" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="D67" s="57">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="18">
+        <v>1001</v>
+      </c>
+      <c r="B68" s="13">
+        <v>11</v>
+      </c>
+      <c r="C68" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="D68" s="57">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="14">
+        <v>1002</v>
+      </c>
+      <c r="B69" s="13">
+        <v>22</v>
+      </c>
+      <c r="C69" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="D69" s="57">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="14">
+        <v>1004</v>
+      </c>
+      <c r="B70" s="13">
+        <v>44</v>
+      </c>
+      <c r="C70" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="D70" s="57">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" s="14">
+        <v>1002</v>
+      </c>
+      <c r="B71" s="13">
+        <v>22</v>
+      </c>
+      <c r="C71" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="D71" s="57">
+        <v>0.72916666666666663</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" s="14">
+        <v>1004</v>
+      </c>
+      <c r="B72" s="13">
+        <v>44</v>
+      </c>
+      <c r="C72" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="D72" s="57">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" s="18">
+        <v>1001</v>
+      </c>
+      <c r="B73" s="17">
+        <v>11</v>
+      </c>
+      <c r="C73" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="D73" s="56">
+        <v>0.39583333333333331</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" s="18">
+        <v>1001</v>
+      </c>
+      <c r="B74" s="12">
+        <v>11</v>
+      </c>
+      <c r="C74" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="D74" s="57">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" s="14">
+        <v>1002</v>
+      </c>
+      <c r="B75" s="13">
+        <v>22</v>
+      </c>
+      <c r="C75" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="D75" s="57">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" s="18">
+        <v>1001</v>
+      </c>
+      <c r="B76" s="13">
+        <v>11</v>
+      </c>
+      <c r="C76" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="D65" s="57">
+      <c r="D76" s="57">
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" s="19">
-        <v>1001</v>
-      </c>
-      <c r="B66" s="13">
-        <v>11</v>
-      </c>
-      <c r="C66" s="19" t="s">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" s="14">
+        <v>1002</v>
+      </c>
+      <c r="B77" s="13">
+        <v>22</v>
+      </c>
+      <c r="C77" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="D66" s="58">
+      <c r="D77" s="57">
         <v>0.4375</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="15">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" s="14">
+        <v>1004</v>
+      </c>
+      <c r="B78" s="13">
+        <v>44</v>
+      </c>
+      <c r="C78" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="D78" s="57">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" s="14">
         <v>1002</v>
       </c>
-      <c r="B67" s="14">
+      <c r="B79" s="13">
         <v>22</v>
       </c>
-      <c r="C67" s="19" t="s">
+      <c r="C79" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="D67" s="58">
-        <v>0.41666666666666669</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="19">
-        <v>1001</v>
-      </c>
-      <c r="B68" s="14">
-        <v>11</v>
-      </c>
-      <c r="C68" s="19" t="s">
+      <c r="D79" s="57">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80" s="14">
+        <v>1004</v>
+      </c>
+      <c r="B80" s="13">
+        <v>44</v>
+      </c>
+      <c r="C80" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="D68" s="58">
-        <v>0.45833333333333331</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="15">
-        <v>1002</v>
-      </c>
-      <c r="B69" s="14">
-        <v>22</v>
-      </c>
-      <c r="C69" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="D69" s="58">
-        <v>0.41666666666666669</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" s="15">
-        <v>1004</v>
-      </c>
-      <c r="B70" s="14">
-        <v>44</v>
-      </c>
-      <c r="C70" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="D70" s="58">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71" s="15">
-        <v>1002</v>
-      </c>
-      <c r="B71" s="14">
-        <v>22</v>
-      </c>
-      <c r="C71" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="D71" s="58">
-        <v>0.72916666666666663</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" s="15">
-        <v>1004</v>
-      </c>
-      <c r="B72" s="14">
-        <v>44</v>
-      </c>
-      <c r="C72" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="D72" s="58">
-        <v>0.41666666666666669</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73" s="19">
-        <v>1001</v>
-      </c>
-      <c r="B73" s="18">
-        <v>11</v>
-      </c>
-      <c r="C73" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="D73" s="57">
-        <v>0.39583333333333331</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74" s="19">
-        <v>1001</v>
-      </c>
-      <c r="B74" s="13">
-        <v>11</v>
-      </c>
-      <c r="C74" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="D74" s="58">
-        <v>0.4375</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75" s="15">
-        <v>1002</v>
-      </c>
-      <c r="B75" s="14">
-        <v>22</v>
-      </c>
-      <c r="C75" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="D75" s="58">
-        <v>0.41666666666666669</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A76" s="19">
-        <v>1001</v>
-      </c>
-      <c r="B76" s="14">
-        <v>11</v>
-      </c>
-      <c r="C76" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="D76" s="58">
-        <v>0.41666666666666669</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A77" s="15">
-        <v>1002</v>
-      </c>
-      <c r="B77" s="14">
-        <v>22</v>
-      </c>
-      <c r="C77" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="D77" s="58">
-        <v>0.4375</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A78" s="15">
-        <v>1004</v>
-      </c>
-      <c r="B78" s="14">
-        <v>44</v>
-      </c>
-      <c r="C78" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="D78" s="58">
-        <v>0.4375</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79" s="15">
-        <v>1002</v>
-      </c>
-      <c r="B79" s="14">
-        <v>22</v>
-      </c>
-      <c r="C79" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="D79" s="58">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A80" s="15">
-        <v>1004</v>
-      </c>
-      <c r="B80" s="14">
-        <v>44</v>
-      </c>
-      <c r="C80" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="D80" s="58">
+      <c r="D80" s="57">
         <v>0.5</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A82" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A83" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="B83" s="46" t="s">
-        <v>92</v>
-      </c>
-      <c r="C83" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="D83" s="31" t="s">
-        <v>109</v>
+      <c r="A83" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="B83" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="C83" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="D83" s="30" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A84" s="17">
+      <c r="A84" s="16">
         <v>302632195</v>
       </c>
-      <c r="B84" s="18">
+      <c r="B84" s="17">
         <v>11</v>
       </c>
-      <c r="C84" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="D84" s="57">
+      <c r="C84" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="D84" s="56">
         <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A85" s="17">
+      <c r="A85" s="16">
         <v>302632195</v>
       </c>
-      <c r="B85" s="14">
+      <c r="B85" s="13">
         <v>22</v>
       </c>
-      <c r="C85" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D85" s="58">
+      <c r="C85" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="D85" s="57">
         <v>0.375</v>
       </c>
     </row>
@@ -2844,13 +2876,13 @@
       <c r="A86" s="3">
         <v>305003659</v>
       </c>
-      <c r="B86" s="14">
+      <c r="B86" s="13">
         <v>11</v>
       </c>
-      <c r="C86" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="D86" s="58">
+      <c r="C86" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="D86" s="57">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -2858,13 +2890,13 @@
       <c r="A87" s="3">
         <v>305003659</v>
       </c>
-      <c r="B87" s="14">
+      <c r="B87" s="13">
         <v>22</v>
       </c>
-      <c r="C87" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="D87" s="58">
+      <c r="C87" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="D87" s="57">
         <v>0.45833333333333331</v>
       </c>
     </row>
@@ -2872,13 +2904,13 @@
       <c r="A88" s="3">
         <v>305003659</v>
       </c>
-      <c r="B88" s="14">
+      <c r="B88" s="13">
         <v>44</v>
       </c>
-      <c r="C88" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="D88" s="58">
+      <c r="C88" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="D88" s="57">
         <v>0.39583333333333331</v>
       </c>
     </row>
@@ -2886,13 +2918,13 @@
       <c r="A89" s="3">
         <v>312143969</v>
       </c>
-      <c r="B89" s="14">
+      <c r="B89" s="13">
         <v>22</v>
       </c>
-      <c r="C89" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D89" s="58">
+      <c r="C89" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="D89" s="57">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -2900,156 +2932,156 @@
       <c r="A90" s="3">
         <v>312143969</v>
       </c>
-      <c r="B90" s="14">
+      <c r="B90" s="13">
         <v>44</v>
       </c>
-      <c r="C90" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="D90" s="58">
+      <c r="C90" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="D90" s="57">
         <v>0.45833333333333331</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A93" s="65" t="s">
+      <c r="A93" s="64" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A94" s="65" t="s">
+        <v>108</v>
+      </c>
+      <c r="B94" s="65" t="s">
+        <v>73</v>
+      </c>
+      <c r="C94" s="66" t="s">
+        <v>240</v>
+      </c>
+      <c r="D94" s="66" t="s">
+        <v>94</v>
+      </c>
+      <c r="E94" s="66" t="s">
+        <v>241</v>
+      </c>
+      <c r="F94" s="66" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95" s="14">
+        <v>302632195</v>
+      </c>
+      <c r="B95" s="14">
+        <v>1004</v>
+      </c>
+      <c r="C95" s="14">
+        <v>90000</v>
+      </c>
+      <c r="D95" s="14" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A94" s="66" t="s">
-        <v>111</v>
-      </c>
-      <c r="B94" s="66" t="s">
-        <v>76</v>
-      </c>
-      <c r="C94" s="67" t="s">
+      <c r="E95" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="F95" s="14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A96" s="14">
+        <v>305003659</v>
+      </c>
+      <c r="B96" s="14">
+        <v>1002</v>
+      </c>
+      <c r="C96" s="14">
+        <v>90001</v>
+      </c>
+      <c r="D96" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="D94" s="67" t="s">
-        <v>97</v>
-      </c>
-      <c r="E94" s="67" t="s">
+      <c r="E96" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="F96" s="67" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97" s="14">
+        <v>200940997</v>
+      </c>
+      <c r="B97" s="14">
+        <v>1001</v>
+      </c>
+      <c r="C97" s="14">
+        <v>90002</v>
+      </c>
+      <c r="D97" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="F94" s="67" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A95" s="15">
-        <v>302632195</v>
-      </c>
-      <c r="B95" s="15">
-        <v>1004</v>
-      </c>
-      <c r="C95" s="15">
+      <c r="E97" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="F97" s="67" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98" s="68"/>
+      <c r="B98" s="68"/>
+      <c r="C98" s="68"/>
+      <c r="D98" s="68"/>
+      <c r="E98" s="68"/>
+      <c r="F98" s="68"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100" s="64" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A101" s="66" t="s">
+        <v>240</v>
+      </c>
+      <c r="B101" s="66" t="s">
+        <v>246</v>
+      </c>
+      <c r="C101" s="66" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A102" s="14">
         <v>90000</v>
       </c>
-      <c r="D95" s="15" t="s">
-        <v>245</v>
-      </c>
-      <c r="E95" s="15" t="s">
+      <c r="B102" s="67" t="s">
+        <v>250</v>
+      </c>
+      <c r="C102" s="14" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A103" s="14">
+        <v>90001</v>
+      </c>
+      <c r="B103" s="67" t="s">
+        <v>251</v>
+      </c>
+      <c r="C103" s="14" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A104" s="14">
+        <v>90002</v>
+      </c>
+      <c r="B104" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="F95" s="15" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A96" s="15">
-        <v>305003659</v>
-      </c>
-      <c r="B96" s="15">
-        <v>1002</v>
-      </c>
-      <c r="C96" s="15">
-        <v>90001</v>
-      </c>
-      <c r="D96" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="E96" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="F96" s="68" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A97" s="15">
-        <v>200940997</v>
-      </c>
-      <c r="B97" s="15">
-        <v>1001</v>
-      </c>
-      <c r="C97" s="15">
-        <v>90002</v>
-      </c>
-      <c r="D97" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="E97" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="F97" s="68" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A98" s="69"/>
-      <c r="B98" s="69"/>
-      <c r="C98" s="69"/>
-      <c r="D98" s="69"/>
-      <c r="E98" s="69"/>
-      <c r="F98" s="69"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A100" s="65" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A101" s="67" t="s">
-        <v>243</v>
-      </c>
-      <c r="B101" s="67" t="s">
+      <c r="C104" s="14" t="s">
         <v>249</v>
-      </c>
-      <c r="C101" s="67" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A102" s="15">
-        <v>90000</v>
-      </c>
-      <c r="B102" s="68" t="s">
-        <v>253</v>
-      </c>
-      <c r="C102" s="15" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A103" s="15">
-        <v>90001</v>
-      </c>
-      <c r="B103" s="68" t="s">
-        <v>254</v>
-      </c>
-      <c r="C103" s="15" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A104" s="15">
-        <v>90002</v>
-      </c>
-      <c r="B104" s="68" t="s">
-        <v>258</v>
-      </c>
-      <c r="C104" s="15" t="s">
-        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -3078,10 +3110,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D102"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3093,69 +3125,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="78"/>
+      <c r="B1" s="77"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="22" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="24"/>
+      <c r="B4" s="23"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="24" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
     </row>
     <row r="9" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="34" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="86.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:4" ht="101.1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>54</v>
+        <v>277</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>40</v>
@@ -3164,12 +3196,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="72.3" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:4" ht="86.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>42</v>
@@ -3206,766 +3238,794 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:4" ht="57.9" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A14" s="7" t="s">
         <v>46</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>24</v>
+        <v>279</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="36" t="s">
-        <v>48</v>
+      <c r="D14" s="35" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="17" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A17" s="77" t="s">
+      <c r="A17" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="78"/>
+      <c r="B17" s="77"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="25" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="22" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="24"/>
+      <c r="B20" s="23"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="24" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
     </row>
     <row r="24" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="34" t="s">
+      <c r="C24" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="35" t="s">
+      <c r="D24" s="34" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="57.9" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A25" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="57.9" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A26" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="57.9" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A27" s="58" t="s">
+        <v>281</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="D27" s="73" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="57.9" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A28" s="58" t="s">
+        <v>283</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="D28" s="73" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="57.9" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A29" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B29" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C29" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D29" s="11" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="57.9" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A27" s="7" t="s">
+    <row r="30" spans="1:4" ht="57.9" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A30" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B30" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="57.9" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A28" s="7" t="s">
+    </row>
+    <row r="31" spans="1:4" ht="72.3" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A31" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="37" t="s">
+      <c r="B31" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="D31" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="72.3" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A29" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" s="37" t="s">
+    </row>
+    <row r="32" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A32" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="69"/>
+      <c r="B33" s="70"/>
+      <c r="C33" s="71"/>
+      <c r="D33" s="72"/>
+    </row>
+    <row r="34" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A34" s="69"/>
+      <c r="B34" s="70"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="72"/>
+    </row>
+    <row r="35" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A35" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="B35" s="77"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="D29" s="11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A30" s="7" t="s">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="23"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A42" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+    </row>
+    <row r="43" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A43" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="57.9" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A44" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="86.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A45" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="72.3" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A46" s="58" t="s">
+        <v>268</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="D46" s="73" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A47" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" s="9" t="s">
+      <c r="B47" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D47" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="70"/>
-      <c r="B31" s="71"/>
-      <c r="C31" s="72"/>
-      <c r="D31" s="73"/>
-    </row>
-    <row r="32" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A32" s="70"/>
-      <c r="B32" s="71"/>
-      <c r="C32" s="72"/>
-      <c r="D32" s="73"/>
-    </row>
-    <row r="33" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A33" s="77" t="s">
-        <v>72</v>
-      </c>
-      <c r="B33" s="78"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="27" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="69"/>
+      <c r="B48" s="70"/>
+      <c r="C48" s="71"/>
+      <c r="D48" s="72"/>
+    </row>
+    <row r="49" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A49" s="69"/>
+      <c r="B49" s="70"/>
+      <c r="C49" s="71"/>
+      <c r="D49" s="72"/>
+    </row>
+    <row r="50" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A50" s="76" t="s">
+        <v>259</v>
+      </c>
+      <c r="B50" s="77"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="28" t="s">
+      <c r="B51" s="25" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="23" t="s">
+      <c r="B52" s="22" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="28" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B36" s="24"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="28" t="s">
+      <c r="B53" s="23"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="25" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A40" s="22" t="s">
+      <c r="B54" s="24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="74"/>
+      <c r="B55" s="75"/>
+    </row>
+    <row r="57" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A57" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-    </row>
-    <row r="41" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A41" s="32" t="s">
+      <c r="B57" s="38"/>
+      <c r="C57" s="39"/>
+      <c r="D57" s="40"/>
+    </row>
+    <row r="58" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A58" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B41" s="33" t="s">
+      <c r="B58" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="34" t="s">
+      <c r="C58" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="D41" s="35" t="s">
+      <c r="D58" s="34" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="72.3" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A42" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="101.1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A43" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="72.3" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A44" s="59" t="s">
-        <v>271</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="D44" s="74" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A45" s="7" t="s">
+    <row r="59" spans="1:4" ht="86.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A59" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C59" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="D59" s="47" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="72.3" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A60" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D60" s="35" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="72.3" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A61" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A62" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B45" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C45" s="9" t="s">
+      <c r="B62" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="C62" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D45" s="11" t="s">
+      <c r="D62" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="70"/>
-      <c r="B46" s="71"/>
-      <c r="C46" s="72"/>
-      <c r="D46" s="73"/>
-    </row>
-    <row r="47" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A47" s="70"/>
-      <c r="B47" s="71"/>
-      <c r="C47" s="72"/>
-      <c r="D47" s="73"/>
-    </row>
-    <row r="48" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A48" s="77" t="s">
-        <v>262</v>
-      </c>
-      <c r="B48" s="78"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="27" t="s">
+    <row r="64" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="65" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A65" s="76" t="s">
+        <v>190</v>
+      </c>
+      <c r="B65" s="77"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B49" s="26" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="28" t="s">
+      <c r="B66" s="25" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B50" s="23" t="s">
+      <c r="B67" s="22" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="28" t="s">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B51" s="24"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="28" t="s">
+      <c r="B68" s="23"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B52" s="25" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="75"/>
-      <c r="B53" s="76"/>
-    </row>
-    <row r="55" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A55" s="22" t="s">
+      <c r="B69" s="24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A71" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B55" s="39"/>
-      <c r="C55" s="40"/>
-      <c r="D55" s="41"/>
-    </row>
-    <row r="56" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A56" s="32" t="s">
+    </row>
+    <row r="72" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A72" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B56" s="32" t="s">
+      <c r="B72" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="49" t="s">
+      <c r="C72" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="D56" s="35" t="s">
+      <c r="D72" s="34" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="86.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A57" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="C57" s="47" t="s">
-        <v>189</v>
-      </c>
-      <c r="D57" s="48" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="72.3" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A58" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="D58" s="36" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="72.3" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A59" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A60" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B60" s="37" t="s">
-        <v>266</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D60" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="63" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A63" s="77" t="s">
-        <v>193</v>
-      </c>
-      <c r="B63" s="78"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B64" s="26" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="B65" s="23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="B66" s="24"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="B67" s="25" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A69" s="22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A70" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="B70" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C70" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="D70" s="35" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="72.3" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A71" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="D71" s="48" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="101.1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A72" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="C72" s="47" t="s">
-        <v>209</v>
-      </c>
-      <c r="D72" s="36" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="72.3" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A73" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D73" s="47" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="101.1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A74" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C74" s="46" t="s">
+        <v>206</v>
+      </c>
+      <c r="D74" s="35" t="s">
         <v>203</v>
       </c>
-      <c r="B73" s="5" t="s">
+    </row>
+    <row r="75" spans="1:4" ht="72.3" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A75" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D75" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C73" s="6" t="s">
+    </row>
+    <row r="76" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A76" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B76" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="79" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A79" s="76" t="s">
+        <v>196</v>
+      </c>
+      <c r="B79" s="77"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" s="25" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B81" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B82" s="23"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B83" s="24" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A85" s="21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A86" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B86" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C86" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="D86" s="34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="72.3" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A87" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="D73" s="11" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A74" s="7" t="s">
+      <c r="B87" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C87" s="46" t="s">
+        <v>221</v>
+      </c>
+      <c r="D87" s="60" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="158.69999999999999" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A88" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C88" s="59" t="s">
+        <v>223</v>
+      </c>
+      <c r="D88" s="59" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="72.3" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A89" s="58" t="s">
+        <v>214</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C89" s="59" t="s">
+        <v>222</v>
+      </c>
+      <c r="D89" s="61" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A90" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B74" s="37" t="s">
+      <c r="B90" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="C90" s="63" t="s">
+        <v>27</v>
+      </c>
+      <c r="D90" s="62" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="93" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A93" s="76" t="s">
+        <v>198</v>
+      </c>
+      <c r="B93" s="77"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A94" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" s="25" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B95" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A96" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B96" s="23"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B97" s="24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A99" s="21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A100" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B100" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C100" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="D100" s="34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="72.3" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A101" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C101" s="46" t="s">
+        <v>233</v>
+      </c>
+      <c r="D101" s="60" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="115.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A102" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C102" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="C74" s="9" t="s">
+      <c r="D102" s="59" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="86.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A103" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D103" s="61" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A104" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B104" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="C104" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D74" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="77" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A77" s="77" t="s">
-        <v>199</v>
-      </c>
-      <c r="B77" s="78"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A78" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B78" s="26" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="B79" s="23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A80" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="B80" s="24"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A81" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="B81" s="25" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A83" s="22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A84" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="B84" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C84" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="D84" s="35" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="72.3" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A85" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="C85" s="47" t="s">
-        <v>224</v>
-      </c>
-      <c r="D85" s="61" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="158.69999999999999" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A86" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="C86" s="60" t="s">
-        <v>226</v>
-      </c>
-      <c r="D86" s="60" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="72.3" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A87" s="59" t="s">
-        <v>217</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="C87" s="60" t="s">
-        <v>225</v>
-      </c>
-      <c r="D87" s="62" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A88" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B88" s="37" t="s">
-        <v>218</v>
-      </c>
-      <c r="C88" s="64" t="s">
-        <v>27</v>
-      </c>
-      <c r="D88" s="63" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="91" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A91" s="77" t="s">
-        <v>201</v>
-      </c>
-      <c r="B91" s="78"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A92" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B92" s="26" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A93" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="B93" s="23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A94" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="B94" s="24"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A95" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="B95" s="25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A97" s="22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A98" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="B98" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C98" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="D98" s="35" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="72.3" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A99" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="C99" s="47" t="s">
-        <v>236</v>
-      </c>
-      <c r="D99" s="61" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="115.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A100" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="D100" s="60" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="86.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A101" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="C101" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="D101" s="62" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A102" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B102" s="37" t="s">
-        <v>234</v>
-      </c>
-      <c r="C102" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D102" s="62" t="s">
+      <c r="D104" s="61" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A93:B93"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A35:B35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>